--- a/api/2/clv3/xlsx/en/SectorGroup.xlsx
+++ b/api/2/clv3/xlsx/en/SectorGroup.xlsx
@@ -25,18 +25,18 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:group-name</t>
+  </si>
+  <si>
     <t>codeforiati:category-name</t>
   </si>
   <si>
-    <t>codeforiati:group-name</t>
+    <t>codeforiati:category-code</t>
   </si>
   <si>
     <t>codeforiati:group-code</t>
   </si>
   <si>
-    <t>codeforiati:category-code</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -46,18 +46,18 @@
     <t>active</t>
   </si>
   <si>
+    <t>Education</t>
+  </si>
+  <si>
     <t>Education, Level Unspecified</t>
   </si>
   <si>
-    <t>Education</t>
+    <t>111</t>
   </si>
   <si>
     <t>110</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -166,18 +166,18 @@
     <t>Health policy and administrative management</t>
   </si>
   <si>
+    <t>Health</t>
+  </si>
+  <si>
     <t>Health, General</t>
   </si>
   <si>
-    <t>Health</t>
+    <t>121</t>
   </si>
   <si>
     <t>120</t>
   </si>
   <si>
-    <t>121</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -412,18 +412,18 @@
     <t>Public sector policy and administrative management</t>
   </si>
   <si>
+    <t>Government &amp; Civil Society</t>
+  </si>
+  <si>
     <t>Government &amp; Civil Society-general</t>
   </si>
   <si>
-    <t>Government &amp; Civil Society</t>
+    <t>151</t>
   </si>
   <si>
     <t>150</t>
   </si>
   <si>
-    <t>151</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -712,18 +712,18 @@
     <t>Energy policy and administrative management</t>
   </si>
   <si>
+    <t>Energy</t>
+  </si>
+  <si>
     <t>Energy Policy</t>
   </si>
   <si>
-    <t>Energy</t>
+    <t>231</t>
   </si>
   <si>
     <t>230</t>
   </si>
   <si>
-    <t>231</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -994,18 +994,18 @@
     <t>Agricultural policy and administrative management</t>
   </si>
   <si>
+    <t>Agriculture, Forestry, Fishing</t>
+  </si>
+  <si>
     <t>Agriculture</t>
   </si>
   <si>
-    <t>Agriculture, Forestry, Fishing</t>
+    <t>311</t>
   </si>
   <si>
     <t>310</t>
   </si>
   <si>
-    <t>311</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1192,16 +1192,16 @@
     <t>Industrial policy and administrative management</t>
   </si>
   <si>
+    <t>Industry, Mining, Construction</t>
+  </si>
+  <si>
     <t>Industry</t>
   </si>
   <si>
-    <t>Industry, Mining, Construction</t>
+    <t>321</t>
   </si>
   <si>
     <t>320</t>
-  </si>
-  <si>
-    <t>321</t>
   </si>
   <si>
     <t>32120</t>
@@ -2193,16 +2193,16 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2216,16 +2216,16 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2239,16 +2239,16 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2262,16 +2262,16 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2285,16 +2285,16 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2308,16 +2308,16 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2331,16 +2331,16 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2354,16 +2354,16 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
         <v>38</v>
       </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2377,16 +2377,16 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
         <v>38</v>
       </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2400,16 +2400,16 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
         <v>44</v>
       </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2423,16 +2423,16 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
         <v>44</v>
       </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2538,16 +2538,16 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
         <v>62</v>
       </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2561,16 +2561,16 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
         <v>62</v>
       </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2584,16 +2584,16 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
         <v>62</v>
       </c>
-      <c r="E23" t="s">
-        <v>51</v>
-      </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2607,16 +2607,16 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
         <v>62</v>
       </c>
-      <c r="E24" t="s">
-        <v>51</v>
-      </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2630,16 +2630,16 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
         <v>62</v>
       </c>
-      <c r="E25" t="s">
-        <v>51</v>
-      </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2653,16 +2653,16 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
         <v>62</v>
       </c>
-      <c r="E26" t="s">
-        <v>51</v>
-      </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2676,16 +2676,16 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
         <v>62</v>
       </c>
-      <c r="E27" t="s">
-        <v>51</v>
-      </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G27" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2699,16 +2699,16 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
         <v>62</v>
       </c>
-      <c r="E28" t="s">
-        <v>51</v>
-      </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2722,16 +2722,16 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
         <v>62</v>
       </c>
-      <c r="E29" t="s">
-        <v>51</v>
-      </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G29" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2745,16 +2745,16 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
         <v>82</v>
       </c>
-      <c r="E30" t="s">
-        <v>51</v>
-      </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="G30" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2768,16 +2768,16 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
         <v>82</v>
       </c>
-      <c r="E31" t="s">
-        <v>51</v>
-      </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="G31" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2791,16 +2791,16 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
         <v>82</v>
       </c>
-      <c r="E32" t="s">
-        <v>51</v>
-      </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="G32" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2814,16 +2814,16 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
         <v>82</v>
       </c>
-      <c r="E33" t="s">
-        <v>51</v>
-      </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2837,16 +2837,16 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" t="s">
         <v>82</v>
       </c>
-      <c r="E34" t="s">
-        <v>51</v>
-      </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="G34" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2860,16 +2860,16 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
         <v>82</v>
       </c>
-      <c r="E35" t="s">
-        <v>51</v>
-      </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3619,16 +3619,16 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E68" t="s">
         <v>168</v>
       </c>
-      <c r="E68" t="s">
-        <v>133</v>
-      </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="G68" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3642,16 +3642,16 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
+        <v>132</v>
+      </c>
+      <c r="E69" t="s">
         <v>168</v>
       </c>
-      <c r="E69" t="s">
-        <v>133</v>
-      </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="G69" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3665,16 +3665,16 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
+        <v>132</v>
+      </c>
+      <c r="E70" t="s">
         <v>168</v>
       </c>
-      <c r="E70" t="s">
-        <v>133</v>
-      </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="G70" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3688,16 +3688,16 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E71" t="s">
         <v>168</v>
       </c>
-      <c r="E71" t="s">
-        <v>133</v>
-      </c>
       <c r="F71" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="G71" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3711,16 +3711,16 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E72" t="s">
         <v>168</v>
       </c>
-      <c r="E72" t="s">
-        <v>133</v>
-      </c>
       <c r="F72" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="G72" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3734,16 +3734,16 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" t="s">
         <v>168</v>
       </c>
-      <c r="E73" t="s">
-        <v>133</v>
-      </c>
       <c r="F73" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="G73" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -4355,16 +4355,16 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
+        <v>232</v>
+      </c>
+      <c r="E100" t="s">
         <v>244</v>
       </c>
-      <c r="E100" t="s">
-        <v>233</v>
-      </c>
       <c r="F100" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="G100" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4378,16 +4378,16 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
+        <v>232</v>
+      </c>
+      <c r="E101" t="s">
         <v>244</v>
       </c>
-      <c r="E101" t="s">
-        <v>233</v>
-      </c>
       <c r="F101" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="G101" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4401,16 +4401,16 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
+        <v>232</v>
+      </c>
+      <c r="E102" t="s">
         <v>244</v>
       </c>
-      <c r="E102" t="s">
-        <v>233</v>
-      </c>
       <c r="F102" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="G102" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4424,16 +4424,16 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
+        <v>232</v>
+      </c>
+      <c r="E103" t="s">
         <v>244</v>
       </c>
-      <c r="E103" t="s">
-        <v>233</v>
-      </c>
       <c r="F103" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="G103" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4447,16 +4447,16 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
+        <v>232</v>
+      </c>
+      <c r="E104" t="s">
         <v>244</v>
       </c>
-      <c r="E104" t="s">
-        <v>233</v>
-      </c>
       <c r="F104" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="G104" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4470,16 +4470,16 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
+        <v>232</v>
+      </c>
+      <c r="E105" t="s">
         <v>244</v>
       </c>
-      <c r="E105" t="s">
-        <v>233</v>
-      </c>
       <c r="F105" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="G105" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4493,16 +4493,16 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
+        <v>232</v>
+      </c>
+      <c r="E106" t="s">
         <v>244</v>
       </c>
-      <c r="E106" t="s">
-        <v>233</v>
-      </c>
       <c r="F106" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="G106" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4516,16 +4516,16 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
+        <v>232</v>
+      </c>
+      <c r="E107" t="s">
         <v>244</v>
       </c>
-      <c r="E107" t="s">
-        <v>233</v>
-      </c>
       <c r="F107" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="G107" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4539,16 +4539,16 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
+        <v>232</v>
+      </c>
+      <c r="E108" t="s">
         <v>244</v>
       </c>
-      <c r="E108" t="s">
-        <v>233</v>
-      </c>
       <c r="F108" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="G108" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4562,16 +4562,16 @@
         <v>9</v>
       </c>
       <c r="D109" t="s">
+        <v>232</v>
+      </c>
+      <c r="E109" t="s">
         <v>264</v>
       </c>
-      <c r="E109" t="s">
-        <v>233</v>
-      </c>
       <c r="F109" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G109" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4585,16 +4585,16 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
+        <v>232</v>
+      </c>
+      <c r="E110" t="s">
         <v>264</v>
       </c>
-      <c r="E110" t="s">
-        <v>233</v>
-      </c>
       <c r="F110" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G110" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4608,16 +4608,16 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
+        <v>232</v>
+      </c>
+      <c r="E111" t="s">
         <v>264</v>
       </c>
-      <c r="E111" t="s">
-        <v>233</v>
-      </c>
       <c r="F111" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G111" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4631,16 +4631,16 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
+        <v>232</v>
+      </c>
+      <c r="E112" t="s">
         <v>264</v>
       </c>
-      <c r="E112" t="s">
-        <v>233</v>
-      </c>
       <c r="F112" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G112" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4654,16 +4654,16 @@
         <v>9</v>
       </c>
       <c r="D113" t="s">
+        <v>232</v>
+      </c>
+      <c r="E113" t="s">
         <v>264</v>
       </c>
-      <c r="E113" t="s">
-        <v>233</v>
-      </c>
       <c r="F113" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G113" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4677,16 +4677,16 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
+        <v>232</v>
+      </c>
+      <c r="E114" t="s">
         <v>264</v>
       </c>
-      <c r="E114" t="s">
-        <v>233</v>
-      </c>
       <c r="F114" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G114" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4700,16 +4700,16 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
+        <v>232</v>
+      </c>
+      <c r="E115" t="s">
         <v>278</v>
       </c>
-      <c r="E115" t="s">
-        <v>233</v>
-      </c>
       <c r="F115" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="G115" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4723,16 +4723,16 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
+        <v>232</v>
+      </c>
+      <c r="E116" t="s">
         <v>282</v>
       </c>
-      <c r="E116" t="s">
-        <v>233</v>
-      </c>
       <c r="F116" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="G116" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4746,16 +4746,16 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
+        <v>232</v>
+      </c>
+      <c r="E117" t="s">
         <v>286</v>
       </c>
-      <c r="E117" t="s">
-        <v>233</v>
-      </c>
       <c r="F117" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="G117" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4769,16 +4769,16 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
+        <v>232</v>
+      </c>
+      <c r="E118" t="s">
         <v>286</v>
       </c>
-      <c r="E118" t="s">
-        <v>233</v>
-      </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="G118" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4792,16 +4792,16 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
+        <v>232</v>
+      </c>
+      <c r="E119" t="s">
         <v>286</v>
       </c>
-      <c r="E119" t="s">
-        <v>233</v>
-      </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="G119" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4815,16 +4815,16 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
+        <v>232</v>
+      </c>
+      <c r="E120" t="s">
         <v>286</v>
       </c>
-      <c r="E120" t="s">
-        <v>233</v>
-      </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="G120" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4838,16 +4838,16 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
+        <v>232</v>
+      </c>
+      <c r="E121" t="s">
         <v>286</v>
       </c>
-      <c r="E121" t="s">
-        <v>233</v>
-      </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="G121" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4861,16 +4861,16 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
+        <v>232</v>
+      </c>
+      <c r="E122" t="s">
         <v>286</v>
       </c>
-      <c r="E122" t="s">
-        <v>233</v>
-      </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="G122" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4884,16 +4884,16 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
+        <v>232</v>
+      </c>
+      <c r="E123" t="s">
         <v>286</v>
       </c>
-      <c r="E123" t="s">
-        <v>233</v>
-      </c>
       <c r="F123" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="G123" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -5551,16 +5551,16 @@
         <v>9</v>
       </c>
       <c r="D152" t="s">
+        <v>326</v>
+      </c>
+      <c r="E152" t="s">
         <v>366</v>
       </c>
-      <c r="E152" t="s">
-        <v>327</v>
-      </c>
       <c r="F152" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="G152" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5574,16 +5574,16 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
+        <v>326</v>
+      </c>
+      <c r="E153" t="s">
         <v>366</v>
       </c>
-      <c r="E153" t="s">
-        <v>327</v>
-      </c>
       <c r="F153" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="G153" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5597,16 +5597,16 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
+        <v>326</v>
+      </c>
+      <c r="E154" t="s">
         <v>366</v>
       </c>
-      <c r="E154" t="s">
-        <v>327</v>
-      </c>
       <c r="F154" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="G154" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5620,16 +5620,16 @@
         <v>9</v>
       </c>
       <c r="D155" t="s">
+        <v>326</v>
+      </c>
+      <c r="E155" t="s">
         <v>366</v>
       </c>
-      <c r="E155" t="s">
-        <v>327</v>
-      </c>
       <c r="F155" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="G155" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5643,16 +5643,16 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
+        <v>326</v>
+      </c>
+      <c r="E156" t="s">
         <v>366</v>
       </c>
-      <c r="E156" t="s">
-        <v>327</v>
-      </c>
       <c r="F156" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="G156" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5666,16 +5666,16 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
+        <v>326</v>
+      </c>
+      <c r="E157" t="s">
         <v>366</v>
       </c>
-      <c r="E157" t="s">
-        <v>327</v>
-      </c>
       <c r="F157" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="G157" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5689,16 +5689,16 @@
         <v>9</v>
       </c>
       <c r="D158" t="s">
+        <v>326</v>
+      </c>
+      <c r="E158" t="s">
         <v>380</v>
       </c>
-      <c r="E158" t="s">
-        <v>327</v>
-      </c>
       <c r="F158" t="s">
-        <v>328</v>
+        <v>381</v>
       </c>
       <c r="G158" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5712,16 +5712,16 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
+        <v>326</v>
+      </c>
+      <c r="E159" t="s">
         <v>380</v>
       </c>
-      <c r="E159" t="s">
-        <v>327</v>
-      </c>
       <c r="F159" t="s">
-        <v>328</v>
+        <v>381</v>
       </c>
       <c r="G159" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5735,16 +5735,16 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
+        <v>326</v>
+      </c>
+      <c r="E160" t="s">
         <v>380</v>
       </c>
-      <c r="E160" t="s">
-        <v>327</v>
-      </c>
       <c r="F160" t="s">
-        <v>328</v>
+        <v>381</v>
       </c>
       <c r="G160" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5758,16 +5758,16 @@
         <v>9</v>
       </c>
       <c r="D161" t="s">
+        <v>326</v>
+      </c>
+      <c r="E161" t="s">
         <v>380</v>
       </c>
-      <c r="E161" t="s">
-        <v>327</v>
-      </c>
       <c r="F161" t="s">
-        <v>328</v>
+        <v>381</v>
       </c>
       <c r="G161" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5781,16 +5781,16 @@
         <v>9</v>
       </c>
       <c r="D162" t="s">
+        <v>326</v>
+      </c>
+      <c r="E162" t="s">
         <v>380</v>
       </c>
-      <c r="E162" t="s">
-        <v>327</v>
-      </c>
       <c r="F162" t="s">
-        <v>328</v>
+        <v>381</v>
       </c>
       <c r="G162" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -6241,16 +6241,16 @@
         <v>9</v>
       </c>
       <c r="D182" t="s">
+        <v>392</v>
+      </c>
+      <c r="E182" t="s">
         <v>434</v>
       </c>
-      <c r="E182" t="s">
-        <v>393</v>
-      </c>
       <c r="F182" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="G182" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6264,16 +6264,16 @@
         <v>9</v>
       </c>
       <c r="D183" t="s">
+        <v>392</v>
+      </c>
+      <c r="E183" t="s">
         <v>434</v>
       </c>
-      <c r="E183" t="s">
-        <v>393</v>
-      </c>
       <c r="F183" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="G183" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6287,16 +6287,16 @@
         <v>9</v>
       </c>
       <c r="D184" t="s">
+        <v>392</v>
+      </c>
+      <c r="E184" t="s">
         <v>434</v>
       </c>
-      <c r="E184" t="s">
-        <v>393</v>
-      </c>
       <c r="F184" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="G184" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6310,16 +6310,16 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
+        <v>392</v>
+      </c>
+      <c r="E185" t="s">
         <v>434</v>
       </c>
-      <c r="E185" t="s">
-        <v>393</v>
-      </c>
       <c r="F185" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="G185" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6333,16 +6333,16 @@
         <v>9</v>
       </c>
       <c r="D186" t="s">
+        <v>392</v>
+      </c>
+      <c r="E186" t="s">
         <v>434</v>
       </c>
-      <c r="E186" t="s">
-        <v>393</v>
-      </c>
       <c r="F186" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="G186" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6356,16 +6356,16 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
+        <v>392</v>
+      </c>
+      <c r="E187" t="s">
         <v>434</v>
       </c>
-      <c r="E187" t="s">
-        <v>393</v>
-      </c>
       <c r="F187" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="G187" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6379,16 +6379,16 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
+        <v>392</v>
+      </c>
+      <c r="E188" t="s">
         <v>434</v>
       </c>
-      <c r="E188" t="s">
-        <v>393</v>
-      </c>
       <c r="F188" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="G188" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6402,16 +6402,16 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
+        <v>392</v>
+      </c>
+      <c r="E189" t="s">
         <v>434</v>
       </c>
-      <c r="E189" t="s">
-        <v>393</v>
-      </c>
       <c r="F189" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="G189" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6425,16 +6425,16 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
+        <v>392</v>
+      </c>
+      <c r="E190" t="s">
         <v>434</v>
       </c>
-      <c r="E190" t="s">
-        <v>393</v>
-      </c>
       <c r="F190" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="G190" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6448,16 +6448,16 @@
         <v>9</v>
       </c>
       <c r="D191" t="s">
+        <v>392</v>
+      </c>
+      <c r="E191" t="s">
         <v>434</v>
       </c>
-      <c r="E191" t="s">
-        <v>393</v>
-      </c>
       <c r="F191" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="G191" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6471,16 +6471,16 @@
         <v>9</v>
       </c>
       <c r="D192" t="s">
+        <v>392</v>
+      </c>
+      <c r="E192" t="s">
         <v>456</v>
       </c>
-      <c r="E192" t="s">
-        <v>393</v>
-      </c>
       <c r="F192" t="s">
-        <v>394</v>
+        <v>457</v>
       </c>
       <c r="G192" t="s">
-        <v>457</v>
+        <v>395</v>
       </c>
     </row>
     <row r="193" spans="1:7">

--- a/api/2/clv3/xlsx/en/SectorGroup.xlsx
+++ b/api/2/clv3/xlsx/en/SectorGroup.xlsx
@@ -25,15 +25,15 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:category-code</t>
+  </si>
+  <si>
     <t>codeforiati:group-name</t>
   </si>
   <si>
     <t>codeforiati:category-name</t>
   </si>
   <si>
-    <t>codeforiati:category-code</t>
-  </si>
-  <si>
     <t>codeforiati:group-code</t>
   </si>
   <si>
@@ -46,15 +46,15 @@
     <t>active</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
     <t>Education</t>
   </si>
   <si>
     <t>Education, Level Unspecified</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
     <t>110</t>
   </si>
   <si>
@@ -82,12 +82,12 @@
     <t>Primary education</t>
   </si>
   <si>
+    <t>112</t>
+  </si>
+  <si>
     <t>Basic Education</t>
   </si>
   <si>
-    <t>112</t>
-  </si>
-  <si>
     <t>11230</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>Upper Secondary Education (modified and includes data from 11322)</t>
   </si>
   <si>
+    <t>113</t>
+  </si>
+  <si>
     <t>Secondary Education</t>
   </si>
   <si>
-    <t>113</t>
-  </si>
-  <si>
     <t>11330</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t>Higher education</t>
   </si>
   <si>
+    <t>114</t>
+  </si>
+  <si>
     <t>Post-Secondary Education</t>
   </si>
   <si>
-    <t>114</t>
-  </si>
-  <si>
     <t>11430</t>
   </si>
   <si>
@@ -166,15 +166,15 @@
     <t>Health policy and administrative management</t>
   </si>
   <si>
+    <t>121</t>
+  </si>
+  <si>
     <t>Health</t>
   </si>
   <si>
     <t>Health, General</t>
   </si>
   <si>
-    <t>121</t>
-  </si>
-  <si>
     <t>120</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>Basic health care</t>
   </si>
   <si>
+    <t>122</t>
+  </si>
+  <si>
     <t>Basic Health</t>
   </si>
   <si>
-    <t>122</t>
-  </si>
-  <si>
     <t>12230</t>
   </si>
   <si>
@@ -262,12 +262,12 @@
     <t>NCDs control, general</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
     <t>Non-communicable diseases (NCDs)</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>12320</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>Population policy and administrative management</t>
   </si>
   <si>
+    <t>130</t>
+  </si>
+  <si>
     <t>Population Policies/Programmes &amp; Reproductive Health</t>
   </si>
   <si>
-    <t>130</t>
-  </si>
-  <si>
     <t>13020</t>
   </si>
   <si>
@@ -340,12 +340,12 @@
     <t>Water sector policy and administrative management</t>
   </si>
   <si>
+    <t>140</t>
+  </si>
+  <si>
     <t>Water Supply &amp; Sanitation</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
@@ -412,15 +412,15 @@
     <t>Public sector policy and administrative management</t>
   </si>
   <si>
+    <t>151</t>
+  </si>
+  <si>
     <t>Government &amp; Civil Society</t>
   </si>
   <si>
     <t>Government &amp; Civil Society-general</t>
   </si>
   <si>
-    <t>151</t>
-  </si>
-  <si>
     <t>150</t>
   </si>
   <si>
@@ -520,12 +520,12 @@
     <t>Security system management and reform</t>
   </si>
   <si>
+    <t>152</t>
+  </si>
+  <si>
     <t>Conflict, Peace &amp; Security</t>
   </si>
   <si>
-    <t>152</t>
-  </si>
-  <si>
     <t>15220</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>Social Protection</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
     <t>Other Social Infrastructure &amp; Services</t>
   </si>
   <si>
-    <t>160</t>
-  </si>
-  <si>
     <t>16020</t>
   </si>
   <si>
@@ -634,12 +634,12 @@
     <t>Transport policy and administrative management</t>
   </si>
   <si>
+    <t>210</t>
+  </si>
+  <si>
     <t>Transport &amp; Storage</t>
   </si>
   <si>
-    <t>210</t>
-  </si>
-  <si>
     <t>21020</t>
   </si>
   <si>
@@ -682,12 +682,12 @@
     <t>Communications policy and administrative management</t>
   </si>
   <si>
+    <t>220</t>
+  </si>
+  <si>
     <t>Communications</t>
   </si>
   <si>
-    <t>220</t>
-  </si>
-  <si>
     <t>22020</t>
   </si>
   <si>
@@ -712,15 +712,15 @@
     <t>Energy policy and administrative management</t>
   </si>
   <si>
+    <t>231</t>
+  </si>
+  <si>
     <t>Energy</t>
   </si>
   <si>
     <t>Energy Policy</t>
   </si>
   <si>
-    <t>231</t>
-  </si>
-  <si>
     <t>230</t>
   </si>
   <si>
@@ -748,12 +748,12 @@
     <t>Energy generation, renewable sources - multiple technologies</t>
   </si>
   <si>
+    <t>232</t>
+  </si>
+  <si>
     <t>Energy generation, renewable sources</t>
   </si>
   <si>
-    <t>232</t>
-  </si>
-  <si>
     <t>23220</t>
   </si>
   <si>
@@ -808,12 +808,12 @@
     <t>Energy generation, non-renewable sources, unspecified</t>
   </si>
   <si>
+    <t>233</t>
+  </si>
+  <si>
     <t>Energy generation, non-renewable sources</t>
   </si>
   <si>
-    <t>233</t>
-  </si>
-  <si>
     <t>23320</t>
   </si>
   <si>
@@ -850,36 +850,36 @@
     <t>Hybrid energy electric power plants</t>
   </si>
   <si>
+    <t>234</t>
+  </si>
+  <si>
     <t>Hybrid energy plants</t>
   </si>
   <si>
-    <t>234</t>
-  </si>
-  <si>
     <t>23510</t>
   </si>
   <si>
     <t>Nuclear energy electric power plants and nuclear safety</t>
   </si>
   <si>
+    <t>235</t>
+  </si>
+  <si>
     <t>Nuclear energy plants</t>
   </si>
   <si>
-    <t>235</t>
-  </si>
-  <si>
     <t>23610</t>
   </si>
   <si>
     <t>Heat plants</t>
   </si>
   <si>
+    <t>236</t>
+  </si>
+  <si>
     <t>Energy distribution</t>
   </si>
   <si>
-    <t>236</t>
-  </si>
-  <si>
     <t>23620</t>
   </si>
   <si>
@@ -922,12 +922,12 @@
     <t>Financial policy and administrative management</t>
   </si>
   <si>
+    <t>240</t>
+  </si>
+  <si>
     <t>Banking &amp; Financial Services</t>
   </si>
   <si>
-    <t>240</t>
-  </si>
-  <si>
     <t>24020</t>
   </si>
   <si>
@@ -964,12 +964,12 @@
     <t>Business policy and administration</t>
   </si>
   <si>
+    <t>250</t>
+  </si>
+  <si>
     <t>Business &amp; Other Services</t>
   </si>
   <si>
-    <t>250</t>
-  </si>
-  <si>
     <t>25020</t>
   </si>
   <si>
@@ -994,15 +994,15 @@
     <t>Agricultural policy and administrative management</t>
   </si>
   <si>
+    <t>311</t>
+  </si>
+  <si>
     <t>Agriculture, Forestry, Fishing</t>
   </si>
   <si>
     <t>Agriculture</t>
   </si>
   <si>
-    <t>311</t>
-  </si>
-  <si>
     <t>310</t>
   </si>
   <si>
@@ -1114,12 +1114,12 @@
     <t>Forestry policy and administrative management</t>
   </si>
   <si>
+    <t>312</t>
+  </si>
+  <si>
     <t>Forestry</t>
   </si>
   <si>
-    <t>312</t>
-  </si>
-  <si>
     <t>31220</t>
   </si>
   <si>
@@ -1156,12 +1156,12 @@
     <t>Fishing policy and administrative management</t>
   </si>
   <si>
+    <t>313</t>
+  </si>
+  <si>
     <t>Fishing</t>
   </si>
   <si>
-    <t>313</t>
-  </si>
-  <si>
     <t>31320</t>
   </si>
   <si>
@@ -1192,15 +1192,15 @@
     <t>Industrial policy and administrative management</t>
   </si>
   <si>
+    <t>321</t>
+  </si>
+  <si>
     <t>Industry, Mining, Construction</t>
   </si>
   <si>
     <t>Industry</t>
   </si>
   <si>
-    <t>321</t>
-  </si>
-  <si>
     <t>320</t>
   </si>
   <si>
@@ -1318,12 +1318,12 @@
     <t>Mineral/mining policy and administrative management</t>
   </si>
   <si>
+    <t>322</t>
+  </si>
+  <si>
     <t>Mineral Resources &amp; Mining</t>
   </si>
   <si>
-    <t>322</t>
-  </si>
-  <si>
     <t>32220</t>
   </si>
   <si>
@@ -1384,24 +1384,24 @@
     <t>Construction policy and administrative management</t>
   </si>
   <si>
+    <t>323</t>
+  </si>
+  <si>
     <t>Construction</t>
   </si>
   <si>
-    <t>323</t>
-  </si>
-  <si>
     <t>33110</t>
   </si>
   <si>
     <t>Trade policy and administrative management</t>
   </si>
   <si>
+    <t>331</t>
+  </si>
+  <si>
     <t>Trade Policies &amp; Regulations</t>
   </si>
   <si>
-    <t>331</t>
-  </si>
-  <si>
     <t>33120</t>
   </si>
   <si>
@@ -1438,24 +1438,24 @@
     <t>Tourism policy and administrative management</t>
   </si>
   <si>
+    <t>332</t>
+  </si>
+  <si>
     <t>Tourism</t>
   </si>
   <si>
-    <t>332</t>
-  </si>
-  <si>
     <t>41010</t>
   </si>
   <si>
     <t>Environmental policy and administrative management</t>
   </si>
   <si>
+    <t>410</t>
+  </si>
+  <si>
     <t>General Environment Protection</t>
   </si>
   <si>
-    <t>410</t>
-  </si>
-  <si>
     <t>41020</t>
   </si>
   <si>
@@ -1492,12 +1492,12 @@
     <t>Multisector aid</t>
   </si>
   <si>
+    <t>430</t>
+  </si>
+  <si>
     <t>Other Multisector</t>
   </si>
   <si>
-    <t>430</t>
-  </si>
-  <si>
     <t>43030</t>
   </si>
   <si>
@@ -1558,36 +1558,36 @@
     <t>General budget support-related aid</t>
   </si>
   <si>
+    <t>510</t>
+  </si>
+  <si>
     <t>General Budget Support</t>
   </si>
   <si>
-    <t>510</t>
-  </si>
-  <si>
     <t>52010</t>
   </si>
   <si>
     <t>Food assistance</t>
   </si>
   <si>
+    <t>520</t>
+  </si>
+  <si>
     <t>Development Food Assistance</t>
   </si>
   <si>
-    <t>520</t>
-  </si>
-  <si>
     <t>53030</t>
   </si>
   <si>
     <t>Import support (capital goods)</t>
   </si>
   <si>
+    <t>530</t>
+  </si>
+  <si>
     <t>Other Commodity Assistance</t>
   </si>
   <si>
-    <t>530</t>
-  </si>
-  <si>
     <t>53040</t>
   </si>
   <si>
@@ -1600,12 +1600,12 @@
     <t>Action relating to debt</t>
   </si>
   <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>Action Relating to Debt</t>
   </si>
   <si>
-    <t>600</t>
-  </si>
-  <si>
     <t>60020</t>
   </si>
   <si>
@@ -1648,12 +1648,12 @@
     <t>Material relief assistance and services</t>
   </si>
   <si>
+    <t>720</t>
+  </si>
+  <si>
     <t>Emergency Response</t>
   </si>
   <si>
-    <t>720</t>
-  </si>
-  <si>
     <t>72040</t>
   </si>
   <si>
@@ -1672,58 +1672,58 @@
     <t>Immediate post-emergency reconstruction and rehabilitation</t>
   </si>
   <si>
+    <t>730</t>
+  </si>
+  <si>
     <t>Reconstruction Relief &amp; Rehabilitation</t>
   </si>
   <si>
-    <t>730</t>
-  </si>
-  <si>
     <t>74020</t>
   </si>
   <si>
     <t>Multi-hazard response preparedness</t>
   </si>
   <si>
+    <t>740</t>
+  </si>
+  <si>
     <t>Disaster Prevention &amp; Preparedness</t>
   </si>
   <si>
-    <t>740</t>
-  </si>
-  <si>
     <t>91010</t>
   </si>
   <si>
     <t>Administrative costs (non-sector allocable)</t>
   </si>
   <si>
+    <t>910</t>
+  </si>
+  <si>
     <t>Administrative Costs of Donors</t>
   </si>
   <si>
-    <t>910</t>
-  </si>
-  <si>
     <t>93010</t>
   </si>
   <si>
     <t>Refugees/asylum seekers in donor countries (non-sector allocable)</t>
   </si>
   <si>
+    <t>930</t>
+  </si>
+  <si>
     <t>Refugees in Donor Countries</t>
   </si>
   <si>
-    <t>930</t>
-  </si>
-  <si>
     <t>99810</t>
   </si>
   <si>
     <t>Sectors not specified</t>
   </si>
   <si>
+    <t>998</t>
+  </si>
+  <si>
     <t>Unallocated / Unspecified</t>
-  </si>
-  <si>
-    <t>998</t>
   </si>
   <si>
     <t>99820</t>
@@ -2193,10 +2193,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -2216,10 +2216,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
@@ -2239,10 +2239,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -2262,10 +2262,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
@@ -2285,10 +2285,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -2308,10 +2308,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
@@ -2331,10 +2331,10 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
         <v>23</v>
@@ -2354,10 +2354,10 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
         <v>39</v>
@@ -2377,10 +2377,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -2400,10 +2400,10 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
         <v>45</v>
@@ -2423,10 +2423,10 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
         <v>45</v>
@@ -2538,10 +2538,10 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
         <v>63</v>
@@ -2561,10 +2561,10 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
         <v>63</v>
@@ -2584,10 +2584,10 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
         <v>63</v>
@@ -2607,10 +2607,10 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
         <v>63</v>
@@ -2630,10 +2630,10 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
         <v>63</v>
@@ -2653,10 +2653,10 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
         <v>63</v>
@@ -2676,10 +2676,10 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
         <v>63</v>
@@ -2699,10 +2699,10 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
         <v>63</v>
@@ -2722,10 +2722,10 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
         <v>63</v>
@@ -2745,10 +2745,10 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F30" t="s">
         <v>83</v>
@@ -2768,10 +2768,10 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s">
         <v>83</v>
@@ -2791,10 +2791,10 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
         <v>83</v>
@@ -2814,10 +2814,10 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s">
         <v>83</v>
@@ -2837,10 +2837,10 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s">
         <v>83</v>
@@ -2860,10 +2860,10 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
         <v>83</v>
@@ -2886,13 +2886,13 @@
         <v>96</v>
       </c>
       <c r="E36" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F36" t="s">
         <v>97</v>
       </c>
       <c r="G36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2909,13 +2909,13 @@
         <v>96</v>
       </c>
       <c r="E37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F37" t="s">
         <v>97</v>
       </c>
       <c r="G37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2932,13 +2932,13 @@
         <v>96</v>
       </c>
       <c r="E38" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F38" t="s">
         <v>97</v>
       </c>
       <c r="G38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2955,13 +2955,13 @@
         <v>96</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F39" t="s">
         <v>97</v>
       </c>
       <c r="G39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2978,13 +2978,13 @@
         <v>96</v>
       </c>
       <c r="E40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F40" t="s">
         <v>97</v>
       </c>
       <c r="G40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3001,13 +3001,13 @@
         <v>108</v>
       </c>
       <c r="E41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F41" t="s">
         <v>109</v>
       </c>
       <c r="G41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3024,13 +3024,13 @@
         <v>108</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F42" t="s">
         <v>109</v>
       </c>
       <c r="G42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3047,13 +3047,13 @@
         <v>108</v>
       </c>
       <c r="E43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F43" t="s">
         <v>109</v>
       </c>
       <c r="G43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3070,13 +3070,13 @@
         <v>108</v>
       </c>
       <c r="E44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F44" t="s">
         <v>109</v>
       </c>
       <c r="G44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3093,13 +3093,13 @@
         <v>108</v>
       </c>
       <c r="E45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F45" t="s">
         <v>109</v>
       </c>
       <c r="G45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3116,13 +3116,13 @@
         <v>108</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F46" t="s">
         <v>109</v>
       </c>
       <c r="G46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3139,13 +3139,13 @@
         <v>108</v>
       </c>
       <c r="E47" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F47" t="s">
         <v>109</v>
       </c>
       <c r="G47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3162,13 +3162,13 @@
         <v>108</v>
       </c>
       <c r="E48" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F48" t="s">
         <v>109</v>
       </c>
       <c r="G48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3185,13 +3185,13 @@
         <v>108</v>
       </c>
       <c r="E49" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F49" t="s">
         <v>109</v>
       </c>
       <c r="G49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3208,13 +3208,13 @@
         <v>108</v>
       </c>
       <c r="E50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F50" t="s">
         <v>109</v>
       </c>
       <c r="G50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3231,13 +3231,13 @@
         <v>108</v>
       </c>
       <c r="E51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F51" t="s">
         <v>109</v>
       </c>
       <c r="G51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3619,10 +3619,10 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E68" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
         <v>169</v>
@@ -3642,10 +3642,10 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E69" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
         <v>169</v>
@@ -3665,10 +3665,10 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E70" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
         <v>169</v>
@@ -3688,10 +3688,10 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E71" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s">
         <v>169</v>
@@ -3711,10 +3711,10 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E72" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="F72" t="s">
         <v>169</v>
@@ -3734,10 +3734,10 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E73" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="F73" t="s">
         <v>169</v>
@@ -3760,13 +3760,13 @@
         <v>182</v>
       </c>
       <c r="E74" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F74" t="s">
         <v>183</v>
       </c>
       <c r="G74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3783,13 +3783,13 @@
         <v>182</v>
       </c>
       <c r="E75" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F75" t="s">
         <v>183</v>
       </c>
       <c r="G75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3806,13 +3806,13 @@
         <v>182</v>
       </c>
       <c r="E76" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F76" t="s">
         <v>183</v>
       </c>
       <c r="G76" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3829,13 +3829,13 @@
         <v>182</v>
       </c>
       <c r="E77" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F77" t="s">
         <v>183</v>
       </c>
       <c r="G77" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3852,13 +3852,13 @@
         <v>182</v>
       </c>
       <c r="E78" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F78" t="s">
         <v>183</v>
       </c>
       <c r="G78" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3875,13 +3875,13 @@
         <v>182</v>
       </c>
       <c r="E79" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F79" t="s">
         <v>183</v>
       </c>
       <c r="G79" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3898,13 +3898,13 @@
         <v>182</v>
       </c>
       <c r="E80" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F80" t="s">
         <v>183</v>
       </c>
       <c r="G80" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3921,13 +3921,13 @@
         <v>182</v>
       </c>
       <c r="E81" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F81" t="s">
         <v>183</v>
       </c>
       <c r="G81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3944,13 +3944,13 @@
         <v>182</v>
       </c>
       <c r="E82" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F82" t="s">
         <v>183</v>
       </c>
       <c r="G82" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3967,13 +3967,13 @@
         <v>182</v>
       </c>
       <c r="E83" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F83" t="s">
         <v>183</v>
       </c>
       <c r="G83" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3990,13 +3990,13 @@
         <v>182</v>
       </c>
       <c r="E84" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F84" t="s">
         <v>183</v>
       </c>
       <c r="G84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4013,13 +4013,13 @@
         <v>206</v>
       </c>
       <c r="E85" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F85" t="s">
         <v>207</v>
       </c>
       <c r="G85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4036,13 +4036,13 @@
         <v>206</v>
       </c>
       <c r="E86" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F86" t="s">
         <v>207</v>
       </c>
       <c r="G86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4059,13 +4059,13 @@
         <v>206</v>
       </c>
       <c r="E87" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F87" t="s">
         <v>207</v>
       </c>
       <c r="G87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4082,13 +4082,13 @@
         <v>206</v>
       </c>
       <c r="E88" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F88" t="s">
         <v>207</v>
       </c>
       <c r="G88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4105,13 +4105,13 @@
         <v>206</v>
       </c>
       <c r="E89" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F89" t="s">
         <v>207</v>
       </c>
       <c r="G89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4128,13 +4128,13 @@
         <v>206</v>
       </c>
       <c r="E90" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F90" t="s">
         <v>207</v>
       </c>
       <c r="G90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4151,13 +4151,13 @@
         <v>206</v>
       </c>
       <c r="E91" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F91" t="s">
         <v>207</v>
       </c>
       <c r="G91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4174,13 +4174,13 @@
         <v>222</v>
       </c>
       <c r="E92" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F92" t="s">
         <v>223</v>
       </c>
       <c r="G92" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4197,13 +4197,13 @@
         <v>222</v>
       </c>
       <c r="E93" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F93" t="s">
         <v>223</v>
       </c>
       <c r="G93" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4220,13 +4220,13 @@
         <v>222</v>
       </c>
       <c r="E94" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F94" t="s">
         <v>223</v>
       </c>
       <c r="G94" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4243,13 +4243,13 @@
         <v>222</v>
       </c>
       <c r="E95" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F95" t="s">
         <v>223</v>
       </c>
       <c r="G95" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4355,10 +4355,10 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E100" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F100" t="s">
         <v>245</v>
@@ -4378,10 +4378,10 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E101" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F101" t="s">
         <v>245</v>
@@ -4401,10 +4401,10 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E102" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F102" t="s">
         <v>245</v>
@@ -4424,10 +4424,10 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E103" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F103" t="s">
         <v>245</v>
@@ -4447,10 +4447,10 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E104" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F104" t="s">
         <v>245</v>
@@ -4470,10 +4470,10 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E105" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F105" t="s">
         <v>245</v>
@@ -4493,10 +4493,10 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E106" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F106" t="s">
         <v>245</v>
@@ -4516,10 +4516,10 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E107" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F107" t="s">
         <v>245</v>
@@ -4539,10 +4539,10 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E108" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F108" t="s">
         <v>245</v>
@@ -4562,10 +4562,10 @@
         <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E109" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F109" t="s">
         <v>265</v>
@@ -4585,10 +4585,10 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E110" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F110" t="s">
         <v>265</v>
@@ -4608,10 +4608,10 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E111" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F111" t="s">
         <v>265</v>
@@ -4631,10 +4631,10 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E112" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F112" t="s">
         <v>265</v>
@@ -4654,10 +4654,10 @@
         <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E113" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F113" t="s">
         <v>265</v>
@@ -4677,10 +4677,10 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E114" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F114" t="s">
         <v>265</v>
@@ -4700,10 +4700,10 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="E115" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="F115" t="s">
         <v>279</v>
@@ -4723,10 +4723,10 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="E116" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c r="F116" t="s">
         <v>283</v>
@@ -4746,10 +4746,10 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E117" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="F117" t="s">
         <v>287</v>
@@ -4769,10 +4769,10 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E118" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="F118" t="s">
         <v>287</v>
@@ -4792,10 +4792,10 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E119" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
         <v>287</v>
@@ -4815,10 +4815,10 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E120" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
         <v>287</v>
@@ -4838,10 +4838,10 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E121" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
         <v>287</v>
@@ -4861,10 +4861,10 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E122" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="F122" t="s">
         <v>287</v>
@@ -4884,10 +4884,10 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E123" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="F123" t="s">
         <v>287</v>
@@ -4910,13 +4910,13 @@
         <v>302</v>
       </c>
       <c r="E124" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F124" t="s">
         <v>303</v>
       </c>
       <c r="G124" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4933,13 +4933,13 @@
         <v>302</v>
       </c>
       <c r="E125" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F125" t="s">
         <v>303</v>
       </c>
       <c r="G125" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4956,13 +4956,13 @@
         <v>302</v>
       </c>
       <c r="E126" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F126" t="s">
         <v>303</v>
       </c>
       <c r="G126" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4979,13 +4979,13 @@
         <v>302</v>
       </c>
       <c r="E127" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F127" t="s">
         <v>303</v>
       </c>
       <c r="G127" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -5002,13 +5002,13 @@
         <v>302</v>
       </c>
       <c r="E128" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F128" t="s">
         <v>303</v>
       </c>
       <c r="G128" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5025,13 +5025,13 @@
         <v>302</v>
       </c>
       <c r="E129" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F129" t="s">
         <v>303</v>
       </c>
       <c r="G129" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5048,13 +5048,13 @@
         <v>316</v>
       </c>
       <c r="E130" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F130" t="s">
         <v>317</v>
       </c>
       <c r="G130" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5071,13 +5071,13 @@
         <v>316</v>
       </c>
       <c r="E131" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F131" t="s">
         <v>317</v>
       </c>
       <c r="G131" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5094,13 +5094,13 @@
         <v>316</v>
       </c>
       <c r="E132" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F132" t="s">
         <v>317</v>
       </c>
       <c r="G132" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5117,13 +5117,13 @@
         <v>316</v>
       </c>
       <c r="E133" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F133" t="s">
         <v>317</v>
       </c>
       <c r="G133" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5551,10 +5551,10 @@
         <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="E152" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="F152" t="s">
         <v>367</v>
@@ -5574,10 +5574,10 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="E153" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="F153" t="s">
         <v>367</v>
@@ -5597,10 +5597,10 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="E154" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="F154" t="s">
         <v>367</v>
@@ -5620,10 +5620,10 @@
         <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="E155" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="F155" t="s">
         <v>367</v>
@@ -5643,10 +5643,10 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="E156" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="F156" t="s">
         <v>367</v>
@@ -5666,10 +5666,10 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="E157" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="F157" t="s">
         <v>367</v>
@@ -5689,10 +5689,10 @@
         <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="E158" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
       <c r="F158" t="s">
         <v>381</v>
@@ -5712,10 +5712,10 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="E159" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
       <c r="F159" t="s">
         <v>381</v>
@@ -5735,10 +5735,10 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="E160" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
       <c r="F160" t="s">
         <v>381</v>
@@ -5758,10 +5758,10 @@
         <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="E161" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
       <c r="F161" t="s">
         <v>381</v>
@@ -5781,10 +5781,10 @@
         <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="E162" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
       <c r="F162" t="s">
         <v>381</v>
@@ -6241,10 +6241,10 @@
         <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E182" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F182" t="s">
         <v>435</v>
@@ -6264,10 +6264,10 @@
         <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E183" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F183" t="s">
         <v>435</v>
@@ -6287,10 +6287,10 @@
         <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E184" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F184" t="s">
         <v>435</v>
@@ -6310,10 +6310,10 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E185" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F185" t="s">
         <v>435</v>
@@ -6333,10 +6333,10 @@
         <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E186" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F186" t="s">
         <v>435</v>
@@ -6356,10 +6356,10 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E187" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F187" t="s">
         <v>435</v>
@@ -6379,10 +6379,10 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E188" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F188" t="s">
         <v>435</v>
@@ -6402,10 +6402,10 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E189" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F189" t="s">
         <v>435</v>
@@ -6425,10 +6425,10 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E190" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F190" t="s">
         <v>435</v>
@@ -6448,10 +6448,10 @@
         <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E191" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F191" t="s">
         <v>435</v>
@@ -6471,10 +6471,10 @@
         <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="E192" t="s">
-        <v>456</v>
+        <v>393</v>
       </c>
       <c r="F192" t="s">
         <v>457</v>
@@ -6497,13 +6497,13 @@
         <v>460</v>
       </c>
       <c r="E193" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F193" t="s">
         <v>461</v>
       </c>
       <c r="G193" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6520,13 +6520,13 @@
         <v>460</v>
       </c>
       <c r="E194" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F194" t="s">
         <v>461</v>
       </c>
       <c r="G194" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6543,13 +6543,13 @@
         <v>460</v>
       </c>
       <c r="E195" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F195" t="s">
         <v>461</v>
       </c>
       <c r="G195" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6566,13 +6566,13 @@
         <v>460</v>
       </c>
       <c r="E196" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F196" t="s">
         <v>461</v>
       </c>
       <c r="G196" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6589,13 +6589,13 @@
         <v>460</v>
       </c>
       <c r="E197" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F197" t="s">
         <v>461</v>
       </c>
       <c r="G197" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6612,13 +6612,13 @@
         <v>460</v>
       </c>
       <c r="E198" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F198" t="s">
         <v>461</v>
       </c>
       <c r="G198" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6635,13 +6635,13 @@
         <v>474</v>
       </c>
       <c r="E199" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F199" t="s">
         <v>475</v>
       </c>
       <c r="G199" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6658,13 +6658,13 @@
         <v>478</v>
       </c>
       <c r="E200" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F200" t="s">
         <v>479</v>
       </c>
       <c r="G200" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6681,13 +6681,13 @@
         <v>478</v>
       </c>
       <c r="E201" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F201" t="s">
         <v>479</v>
       </c>
       <c r="G201" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6704,13 +6704,13 @@
         <v>478</v>
       </c>
       <c r="E202" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F202" t="s">
         <v>479</v>
       </c>
       <c r="G202" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6727,13 +6727,13 @@
         <v>478</v>
       </c>
       <c r="E203" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F203" t="s">
         <v>479</v>
       </c>
       <c r="G203" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6750,13 +6750,13 @@
         <v>478</v>
       </c>
       <c r="E204" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F204" t="s">
         <v>479</v>
       </c>
       <c r="G204" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6773,13 +6773,13 @@
         <v>478</v>
       </c>
       <c r="E205" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F205" t="s">
         <v>479</v>
       </c>
       <c r="G205" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6796,13 +6796,13 @@
         <v>492</v>
       </c>
       <c r="E206" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F206" t="s">
         <v>493</v>
       </c>
       <c r="G206" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -6819,13 +6819,13 @@
         <v>492</v>
       </c>
       <c r="E207" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F207" t="s">
         <v>493</v>
       </c>
       <c r="G207" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6842,13 +6842,13 @@
         <v>492</v>
       </c>
       <c r="E208" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F208" t="s">
         <v>493</v>
       </c>
       <c r="G208" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6865,13 +6865,13 @@
         <v>492</v>
       </c>
       <c r="E209" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F209" t="s">
         <v>493</v>
       </c>
       <c r="G209" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6888,13 +6888,13 @@
         <v>492</v>
       </c>
       <c r="E210" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F210" t="s">
         <v>493</v>
       </c>
       <c r="G210" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6911,13 +6911,13 @@
         <v>492</v>
       </c>
       <c r="E211" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F211" t="s">
         <v>493</v>
       </c>
       <c r="G211" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6934,13 +6934,13 @@
         <v>492</v>
       </c>
       <c r="E212" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F212" t="s">
         <v>493</v>
       </c>
       <c r="G212" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6957,13 +6957,13 @@
         <v>492</v>
       </c>
       <c r="E213" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F213" t="s">
         <v>493</v>
       </c>
       <c r="G213" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6980,13 +6980,13 @@
         <v>492</v>
       </c>
       <c r="E214" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F214" t="s">
         <v>493</v>
       </c>
       <c r="G214" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -7003,13 +7003,13 @@
         <v>492</v>
       </c>
       <c r="E215" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F215" t="s">
         <v>493</v>
       </c>
       <c r="G215" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -7026,13 +7026,13 @@
         <v>514</v>
       </c>
       <c r="E216" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F216" t="s">
         <v>515</v>
       </c>
       <c r="G216" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -7049,13 +7049,13 @@
         <v>518</v>
       </c>
       <c r="E217" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F217" t="s">
         <v>519</v>
       </c>
       <c r="G217" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -7072,13 +7072,13 @@
         <v>522</v>
       </c>
       <c r="E218" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F218" t="s">
         <v>523</v>
       </c>
       <c r="G218" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -7095,13 +7095,13 @@
         <v>522</v>
       </c>
       <c r="E219" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F219" t="s">
         <v>523</v>
       </c>
       <c r="G219" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -7118,13 +7118,13 @@
         <v>528</v>
       </c>
       <c r="E220" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F220" t="s">
         <v>529</v>
       </c>
       <c r="G220" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -7141,13 +7141,13 @@
         <v>528</v>
       </c>
       <c r="E221" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F221" t="s">
         <v>529</v>
       </c>
       <c r="G221" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -7164,13 +7164,13 @@
         <v>528</v>
       </c>
       <c r="E222" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F222" t="s">
         <v>529</v>
       </c>
       <c r="G222" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -7187,13 +7187,13 @@
         <v>528</v>
       </c>
       <c r="E223" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F223" t="s">
         <v>529</v>
       </c>
       <c r="G223" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -7210,13 +7210,13 @@
         <v>528</v>
       </c>
       <c r="E224" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F224" t="s">
         <v>529</v>
       </c>
       <c r="G224" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -7233,13 +7233,13 @@
         <v>528</v>
       </c>
       <c r="E225" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F225" t="s">
         <v>529</v>
       </c>
       <c r="G225" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -7256,13 +7256,13 @@
         <v>528</v>
       </c>
       <c r="E226" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F226" t="s">
         <v>529</v>
       </c>
       <c r="G226" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -7279,13 +7279,13 @@
         <v>544</v>
       </c>
       <c r="E227" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F227" t="s">
         <v>545</v>
       </c>
       <c r="G227" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -7302,13 +7302,13 @@
         <v>544</v>
       </c>
       <c r="E228" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F228" t="s">
         <v>545</v>
       </c>
       <c r="G228" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -7325,13 +7325,13 @@
         <v>544</v>
       </c>
       <c r="E229" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F229" t="s">
         <v>545</v>
       </c>
       <c r="G229" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -7348,13 +7348,13 @@
         <v>552</v>
       </c>
       <c r="E230" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F230" t="s">
         <v>553</v>
       </c>
       <c r="G230" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -7371,13 +7371,13 @@
         <v>556</v>
       </c>
       <c r="E231" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F231" t="s">
         <v>557</v>
       </c>
       <c r="G231" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -7394,13 +7394,13 @@
         <v>560</v>
       </c>
       <c r="E232" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F232" t="s">
         <v>561</v>
       </c>
       <c r="G232" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -7417,13 +7417,13 @@
         <v>564</v>
       </c>
       <c r="E233" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F233" t="s">
         <v>565</v>
       </c>
       <c r="G233" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -7440,13 +7440,13 @@
         <v>568</v>
       </c>
       <c r="E234" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F234" t="s">
         <v>569</v>
       </c>
       <c r="G234" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -7463,13 +7463,13 @@
         <v>568</v>
       </c>
       <c r="E235" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F235" t="s">
         <v>569</v>
       </c>
       <c r="G235" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>

--- a/api/2/clv3/xlsx/en/SectorGroup.xlsx
+++ b/api/2/clv3/xlsx/en/SectorGroup.xlsx
@@ -28,15 +28,15 @@
     <t>codeforiati:category-code</t>
   </si>
   <si>
+    <t>codeforiati:group-code</t>
+  </si>
+  <si>
     <t>codeforiati:group-name</t>
   </si>
   <si>
     <t>codeforiati:category-name</t>
   </si>
   <si>
-    <t>codeforiati:group-code</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -49,15 +49,15 @@
     <t>111</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>Education</t>
   </si>
   <si>
     <t>Education, Level Unspecified</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -169,15 +169,15 @@
     <t>121</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>Health</t>
   </si>
   <si>
     <t>Health, General</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -415,15 +415,15 @@
     <t>151</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>Government &amp; Civil Society</t>
   </si>
   <si>
     <t>Government &amp; Civil Society-general</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -715,15 +715,15 @@
     <t>231</t>
   </si>
   <si>
+    <t>230</t>
+  </si>
+  <si>
     <t>Energy</t>
   </si>
   <si>
     <t>Energy Policy</t>
   </si>
   <si>
-    <t>230</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -997,15 +997,15 @@
     <t>311</t>
   </si>
   <si>
+    <t>310</t>
+  </si>
+  <si>
     <t>Agriculture, Forestry, Fishing</t>
   </si>
   <si>
     <t>Agriculture</t>
   </si>
   <si>
-    <t>310</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1195,13 +1195,13 @@
     <t>321</t>
   </si>
   <si>
+    <t>320</t>
+  </si>
+  <si>
     <t>Industry, Mining, Construction</t>
   </si>
   <si>
     <t>Industry</t>
-  </si>
-  <si>
-    <t>320</t>
   </si>
   <si>
     <t>32120</t>
@@ -2199,10 +2199,10 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2222,10 +2222,10 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
         <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2245,10 +2245,10 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
         <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2268,10 +2268,10 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
         <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2291,10 +2291,10 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2314,10 +2314,10 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2337,10 +2337,10 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2360,10 +2360,10 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
         <v>39</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2383,10 +2383,10 @@
         <v>11</v>
       </c>
       <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
         <v>39</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2406,10 +2406,10 @@
         <v>11</v>
       </c>
       <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
         <v>45</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2429,10 +2429,10 @@
         <v>11</v>
       </c>
       <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
         <v>45</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2544,10 +2544,10 @@
         <v>51</v>
       </c>
       <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" t="s">
         <v>63</v>
-      </c>
-      <c r="G21" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2567,10 +2567,10 @@
         <v>51</v>
       </c>
       <c r="F22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" t="s">
         <v>63</v>
-      </c>
-      <c r="G22" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2590,10 +2590,10 @@
         <v>51</v>
       </c>
       <c r="F23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" t="s">
         <v>63</v>
-      </c>
-      <c r="G23" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2613,10 +2613,10 @@
         <v>51</v>
       </c>
       <c r="F24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" t="s">
         <v>63</v>
-      </c>
-      <c r="G24" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2636,10 +2636,10 @@
         <v>51</v>
       </c>
       <c r="F25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" t="s">
         <v>63</v>
-      </c>
-      <c r="G25" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2659,10 +2659,10 @@
         <v>51</v>
       </c>
       <c r="F26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" t="s">
         <v>63</v>
-      </c>
-      <c r="G26" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2682,10 +2682,10 @@
         <v>51</v>
       </c>
       <c r="F27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" t="s">
         <v>63</v>
-      </c>
-      <c r="G27" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2705,10 +2705,10 @@
         <v>51</v>
       </c>
       <c r="F28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" t="s">
         <v>63</v>
-      </c>
-      <c r="G28" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2728,10 +2728,10 @@
         <v>51</v>
       </c>
       <c r="F29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" t="s">
         <v>63</v>
-      </c>
-      <c r="G29" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2751,10 +2751,10 @@
         <v>51</v>
       </c>
       <c r="F30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" t="s">
         <v>83</v>
-      </c>
-      <c r="G30" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2774,10 +2774,10 @@
         <v>51</v>
       </c>
       <c r="F31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" t="s">
         <v>83</v>
-      </c>
-      <c r="G31" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2797,10 +2797,10 @@
         <v>51</v>
       </c>
       <c r="F32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" t="s">
         <v>83</v>
-      </c>
-      <c r="G32" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2820,10 +2820,10 @@
         <v>51</v>
       </c>
       <c r="F33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" t="s">
         <v>83</v>
-      </c>
-      <c r="G33" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2843,10 +2843,10 @@
         <v>51</v>
       </c>
       <c r="F34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" t="s">
         <v>83</v>
-      </c>
-      <c r="G34" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2866,10 +2866,10 @@
         <v>51</v>
       </c>
       <c r="F35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" t="s">
         <v>83</v>
-      </c>
-      <c r="G35" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2886,13 +2886,13 @@
         <v>96</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F36" t="s">
         <v>97</v>
       </c>
       <c r="G36" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2909,13 +2909,13 @@
         <v>96</v>
       </c>
       <c r="E37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F37" t="s">
         <v>97</v>
       </c>
       <c r="G37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2932,13 +2932,13 @@
         <v>96</v>
       </c>
       <c r="E38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F38" t="s">
         <v>97</v>
       </c>
       <c r="G38" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2955,13 +2955,13 @@
         <v>96</v>
       </c>
       <c r="E39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F39" t="s">
         <v>97</v>
       </c>
       <c r="G39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2978,13 +2978,13 @@
         <v>96</v>
       </c>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F40" t="s">
         <v>97</v>
       </c>
       <c r="G40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3001,13 +3001,13 @@
         <v>108</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F41" t="s">
         <v>109</v>
       </c>
       <c r="G41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3024,13 +3024,13 @@
         <v>108</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F42" t="s">
         <v>109</v>
       </c>
       <c r="G42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3047,13 +3047,13 @@
         <v>108</v>
       </c>
       <c r="E43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F43" t="s">
         <v>109</v>
       </c>
       <c r="G43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3070,13 +3070,13 @@
         <v>108</v>
       </c>
       <c r="E44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F44" t="s">
         <v>109</v>
       </c>
       <c r="G44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3093,13 +3093,13 @@
         <v>108</v>
       </c>
       <c r="E45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F45" t="s">
         <v>109</v>
       </c>
       <c r="G45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3116,13 +3116,13 @@
         <v>108</v>
       </c>
       <c r="E46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F46" t="s">
         <v>109</v>
       </c>
       <c r="G46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3139,13 +3139,13 @@
         <v>108</v>
       </c>
       <c r="E47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F47" t="s">
         <v>109</v>
       </c>
       <c r="G47" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3162,13 +3162,13 @@
         <v>108</v>
       </c>
       <c r="E48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F48" t="s">
         <v>109</v>
       </c>
       <c r="G48" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3185,13 +3185,13 @@
         <v>108</v>
       </c>
       <c r="E49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F49" t="s">
         <v>109</v>
       </c>
       <c r="G49" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3208,13 +3208,13 @@
         <v>108</v>
       </c>
       <c r="E50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F50" t="s">
         <v>109</v>
       </c>
       <c r="G50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3231,13 +3231,13 @@
         <v>108</v>
       </c>
       <c r="E51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F51" t="s">
         <v>109</v>
       </c>
       <c r="G51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3625,10 +3625,10 @@
         <v>133</v>
       </c>
       <c r="F68" t="s">
+        <v>134</v>
+      </c>
+      <c r="G68" t="s">
         <v>169</v>
-      </c>
-      <c r="G68" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3648,10 +3648,10 @@
         <v>133</v>
       </c>
       <c r="F69" t="s">
+        <v>134</v>
+      </c>
+      <c r="G69" t="s">
         <v>169</v>
-      </c>
-      <c r="G69" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3671,10 +3671,10 @@
         <v>133</v>
       </c>
       <c r="F70" t="s">
+        <v>134</v>
+      </c>
+      <c r="G70" t="s">
         <v>169</v>
-      </c>
-      <c r="G70" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3694,10 +3694,10 @@
         <v>133</v>
       </c>
       <c r="F71" t="s">
+        <v>134</v>
+      </c>
+      <c r="G71" t="s">
         <v>169</v>
-      </c>
-      <c r="G71" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3717,10 +3717,10 @@
         <v>133</v>
       </c>
       <c r="F72" t="s">
+        <v>134</v>
+      </c>
+      <c r="G72" t="s">
         <v>169</v>
-      </c>
-      <c r="G72" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3740,10 +3740,10 @@
         <v>133</v>
       </c>
       <c r="F73" t="s">
+        <v>134</v>
+      </c>
+      <c r="G73" t="s">
         <v>169</v>
-      </c>
-      <c r="G73" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3760,13 +3760,13 @@
         <v>182</v>
       </c>
       <c r="E74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F74" t="s">
         <v>183</v>
       </c>
       <c r="G74" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3783,13 +3783,13 @@
         <v>182</v>
       </c>
       <c r="E75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F75" t="s">
         <v>183</v>
       </c>
       <c r="G75" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3806,13 +3806,13 @@
         <v>182</v>
       </c>
       <c r="E76" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F76" t="s">
         <v>183</v>
       </c>
       <c r="G76" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3829,13 +3829,13 @@
         <v>182</v>
       </c>
       <c r="E77" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F77" t="s">
         <v>183</v>
       </c>
       <c r="G77" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3852,13 +3852,13 @@
         <v>182</v>
       </c>
       <c r="E78" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F78" t="s">
         <v>183</v>
       </c>
       <c r="G78" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3875,13 +3875,13 @@
         <v>182</v>
       </c>
       <c r="E79" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F79" t="s">
         <v>183</v>
       </c>
       <c r="G79" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3898,13 +3898,13 @@
         <v>182</v>
       </c>
       <c r="E80" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F80" t="s">
         <v>183</v>
       </c>
       <c r="G80" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3921,13 +3921,13 @@
         <v>182</v>
       </c>
       <c r="E81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F81" t="s">
         <v>183</v>
       </c>
       <c r="G81" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3944,13 +3944,13 @@
         <v>182</v>
       </c>
       <c r="E82" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F82" t="s">
         <v>183</v>
       </c>
       <c r="G82" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3967,13 +3967,13 @@
         <v>182</v>
       </c>
       <c r="E83" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F83" t="s">
         <v>183</v>
       </c>
       <c r="G83" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3990,13 +3990,13 @@
         <v>182</v>
       </c>
       <c r="E84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F84" t="s">
         <v>183</v>
       </c>
       <c r="G84" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4013,13 +4013,13 @@
         <v>206</v>
       </c>
       <c r="E85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F85" t="s">
         <v>207</v>
       </c>
       <c r="G85" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4036,13 +4036,13 @@
         <v>206</v>
       </c>
       <c r="E86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F86" t="s">
         <v>207</v>
       </c>
       <c r="G86" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4059,13 +4059,13 @@
         <v>206</v>
       </c>
       <c r="E87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F87" t="s">
         <v>207</v>
       </c>
       <c r="G87" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4082,13 +4082,13 @@
         <v>206</v>
       </c>
       <c r="E88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F88" t="s">
         <v>207</v>
       </c>
       <c r="G88" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4105,13 +4105,13 @@
         <v>206</v>
       </c>
       <c r="E89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" t="s">
         <v>207</v>
       </c>
       <c r="G89" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4128,13 +4128,13 @@
         <v>206</v>
       </c>
       <c r="E90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F90" t="s">
         <v>207</v>
       </c>
       <c r="G90" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4151,13 +4151,13 @@
         <v>206</v>
       </c>
       <c r="E91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F91" t="s">
         <v>207</v>
       </c>
       <c r="G91" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4174,13 +4174,13 @@
         <v>222</v>
       </c>
       <c r="E92" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F92" t="s">
         <v>223</v>
       </c>
       <c r="G92" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4197,13 +4197,13 @@
         <v>222</v>
       </c>
       <c r="E93" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F93" t="s">
         <v>223</v>
       </c>
       <c r="G93" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4220,13 +4220,13 @@
         <v>222</v>
       </c>
       <c r="E94" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F94" t="s">
         <v>223</v>
       </c>
       <c r="G94" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4243,13 +4243,13 @@
         <v>222</v>
       </c>
       <c r="E95" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F95" t="s">
         <v>223</v>
       </c>
       <c r="G95" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4361,10 +4361,10 @@
         <v>233</v>
       </c>
       <c r="F100" t="s">
+        <v>234</v>
+      </c>
+      <c r="G100" t="s">
         <v>245</v>
-      </c>
-      <c r="G100" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4384,10 +4384,10 @@
         <v>233</v>
       </c>
       <c r="F101" t="s">
+        <v>234</v>
+      </c>
+      <c r="G101" t="s">
         <v>245</v>
-      </c>
-      <c r="G101" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4407,10 +4407,10 @@
         <v>233</v>
       </c>
       <c r="F102" t="s">
+        <v>234</v>
+      </c>
+      <c r="G102" t="s">
         <v>245</v>
-      </c>
-      <c r="G102" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4430,10 +4430,10 @@
         <v>233</v>
       </c>
       <c r="F103" t="s">
+        <v>234</v>
+      </c>
+      <c r="G103" t="s">
         <v>245</v>
-      </c>
-      <c r="G103" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4453,10 +4453,10 @@
         <v>233</v>
       </c>
       <c r="F104" t="s">
+        <v>234</v>
+      </c>
+      <c r="G104" t="s">
         <v>245</v>
-      </c>
-      <c r="G104" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4476,10 +4476,10 @@
         <v>233</v>
       </c>
       <c r="F105" t="s">
+        <v>234</v>
+      </c>
+      <c r="G105" t="s">
         <v>245</v>
-      </c>
-      <c r="G105" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4499,10 +4499,10 @@
         <v>233</v>
       </c>
       <c r="F106" t="s">
+        <v>234</v>
+      </c>
+      <c r="G106" t="s">
         <v>245</v>
-      </c>
-      <c r="G106" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4522,10 +4522,10 @@
         <v>233</v>
       </c>
       <c r="F107" t="s">
+        <v>234</v>
+      </c>
+      <c r="G107" t="s">
         <v>245</v>
-      </c>
-      <c r="G107" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4545,10 +4545,10 @@
         <v>233</v>
       </c>
       <c r="F108" t="s">
+        <v>234</v>
+      </c>
+      <c r="G108" t="s">
         <v>245</v>
-      </c>
-      <c r="G108" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4568,10 +4568,10 @@
         <v>233</v>
       </c>
       <c r="F109" t="s">
+        <v>234</v>
+      </c>
+      <c r="G109" t="s">
         <v>265</v>
-      </c>
-      <c r="G109" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4591,10 +4591,10 @@
         <v>233</v>
       </c>
       <c r="F110" t="s">
+        <v>234</v>
+      </c>
+      <c r="G110" t="s">
         <v>265</v>
-      </c>
-      <c r="G110" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4614,10 +4614,10 @@
         <v>233</v>
       </c>
       <c r="F111" t="s">
+        <v>234</v>
+      </c>
+      <c r="G111" t="s">
         <v>265</v>
-      </c>
-      <c r="G111" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4637,10 +4637,10 @@
         <v>233</v>
       </c>
       <c r="F112" t="s">
+        <v>234</v>
+      </c>
+      <c r="G112" t="s">
         <v>265</v>
-      </c>
-      <c r="G112" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4660,10 +4660,10 @@
         <v>233</v>
       </c>
       <c r="F113" t="s">
+        <v>234</v>
+      </c>
+      <c r="G113" t="s">
         <v>265</v>
-      </c>
-      <c r="G113" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4683,10 +4683,10 @@
         <v>233</v>
       </c>
       <c r="F114" t="s">
+        <v>234</v>
+      </c>
+      <c r="G114" t="s">
         <v>265</v>
-      </c>
-      <c r="G114" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4706,10 +4706,10 @@
         <v>233</v>
       </c>
       <c r="F115" t="s">
+        <v>234</v>
+      </c>
+      <c r="G115" t="s">
         <v>279</v>
-      </c>
-      <c r="G115" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4729,10 +4729,10 @@
         <v>233</v>
       </c>
       <c r="F116" t="s">
+        <v>234</v>
+      </c>
+      <c r="G116" t="s">
         <v>283</v>
-      </c>
-      <c r="G116" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4752,10 +4752,10 @@
         <v>233</v>
       </c>
       <c r="F117" t="s">
+        <v>234</v>
+      </c>
+      <c r="G117" t="s">
         <v>287</v>
-      </c>
-      <c r="G117" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4775,10 +4775,10 @@
         <v>233</v>
       </c>
       <c r="F118" t="s">
+        <v>234</v>
+      </c>
+      <c r="G118" t="s">
         <v>287</v>
-      </c>
-      <c r="G118" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4798,10 +4798,10 @@
         <v>233</v>
       </c>
       <c r="F119" t="s">
+        <v>234</v>
+      </c>
+      <c r="G119" t="s">
         <v>287</v>
-      </c>
-      <c r="G119" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4821,10 +4821,10 @@
         <v>233</v>
       </c>
       <c r="F120" t="s">
+        <v>234</v>
+      </c>
+      <c r="G120" t="s">
         <v>287</v>
-      </c>
-      <c r="G120" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4844,10 +4844,10 @@
         <v>233</v>
       </c>
       <c r="F121" t="s">
+        <v>234</v>
+      </c>
+      <c r="G121" t="s">
         <v>287</v>
-      </c>
-      <c r="G121" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4867,10 +4867,10 @@
         <v>233</v>
       </c>
       <c r="F122" t="s">
+        <v>234</v>
+      </c>
+      <c r="G122" t="s">
         <v>287</v>
-      </c>
-      <c r="G122" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4890,10 +4890,10 @@
         <v>233</v>
       </c>
       <c r="F123" t="s">
+        <v>234</v>
+      </c>
+      <c r="G123" t="s">
         <v>287</v>
-      </c>
-      <c r="G123" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4910,13 +4910,13 @@
         <v>302</v>
       </c>
       <c r="E124" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F124" t="s">
         <v>303</v>
       </c>
       <c r="G124" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4933,13 +4933,13 @@
         <v>302</v>
       </c>
       <c r="E125" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F125" t="s">
         <v>303</v>
       </c>
       <c r="G125" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4956,13 +4956,13 @@
         <v>302</v>
       </c>
       <c r="E126" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F126" t="s">
         <v>303</v>
       </c>
       <c r="G126" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4979,13 +4979,13 @@
         <v>302</v>
       </c>
       <c r="E127" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F127" t="s">
         <v>303</v>
       </c>
       <c r="G127" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -5002,13 +5002,13 @@
         <v>302</v>
       </c>
       <c r="E128" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F128" t="s">
         <v>303</v>
       </c>
       <c r="G128" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5025,13 +5025,13 @@
         <v>302</v>
       </c>
       <c r="E129" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F129" t="s">
         <v>303</v>
       </c>
       <c r="G129" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5048,13 +5048,13 @@
         <v>316</v>
       </c>
       <c r="E130" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F130" t="s">
         <v>317</v>
       </c>
       <c r="G130" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5071,13 +5071,13 @@
         <v>316</v>
       </c>
       <c r="E131" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F131" t="s">
         <v>317</v>
       </c>
       <c r="G131" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5094,13 +5094,13 @@
         <v>316</v>
       </c>
       <c r="E132" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F132" t="s">
         <v>317</v>
       </c>
       <c r="G132" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5117,13 +5117,13 @@
         <v>316</v>
       </c>
       <c r="E133" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F133" t="s">
         <v>317</v>
       </c>
       <c r="G133" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5557,10 +5557,10 @@
         <v>327</v>
       </c>
       <c r="F152" t="s">
+        <v>328</v>
+      </c>
+      <c r="G152" t="s">
         <v>367</v>
-      </c>
-      <c r="G152" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5580,10 +5580,10 @@
         <v>327</v>
       </c>
       <c r="F153" t="s">
+        <v>328</v>
+      </c>
+      <c r="G153" t="s">
         <v>367</v>
-      </c>
-      <c r="G153" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5603,10 +5603,10 @@
         <v>327</v>
       </c>
       <c r="F154" t="s">
+        <v>328</v>
+      </c>
+      <c r="G154" t="s">
         <v>367</v>
-      </c>
-      <c r="G154" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5626,10 +5626,10 @@
         <v>327</v>
       </c>
       <c r="F155" t="s">
+        <v>328</v>
+      </c>
+      <c r="G155" t="s">
         <v>367</v>
-      </c>
-      <c r="G155" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5649,10 +5649,10 @@
         <v>327</v>
       </c>
       <c r="F156" t="s">
+        <v>328</v>
+      </c>
+      <c r="G156" t="s">
         <v>367</v>
-      </c>
-      <c r="G156" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5672,10 +5672,10 @@
         <v>327</v>
       </c>
       <c r="F157" t="s">
+        <v>328</v>
+      </c>
+      <c r="G157" t="s">
         <v>367</v>
-      </c>
-      <c r="G157" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5695,10 +5695,10 @@
         <v>327</v>
       </c>
       <c r="F158" t="s">
+        <v>328</v>
+      </c>
+      <c r="G158" t="s">
         <v>381</v>
-      </c>
-      <c r="G158" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5718,10 +5718,10 @@
         <v>327</v>
       </c>
       <c r="F159" t="s">
+        <v>328</v>
+      </c>
+      <c r="G159" t="s">
         <v>381</v>
-      </c>
-      <c r="G159" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5741,10 +5741,10 @@
         <v>327</v>
       </c>
       <c r="F160" t="s">
+        <v>328</v>
+      </c>
+      <c r="G160" t="s">
         <v>381</v>
-      </c>
-      <c r="G160" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5764,10 +5764,10 @@
         <v>327</v>
       </c>
       <c r="F161" t="s">
+        <v>328</v>
+      </c>
+      <c r="G161" t="s">
         <v>381</v>
-      </c>
-      <c r="G161" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5787,10 +5787,10 @@
         <v>327</v>
       </c>
       <c r="F162" t="s">
+        <v>328</v>
+      </c>
+      <c r="G162" t="s">
         <v>381</v>
-      </c>
-      <c r="G162" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -6247,10 +6247,10 @@
         <v>393</v>
       </c>
       <c r="F182" t="s">
+        <v>394</v>
+      </c>
+      <c r="G182" t="s">
         <v>435</v>
-      </c>
-      <c r="G182" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6270,10 +6270,10 @@
         <v>393</v>
       </c>
       <c r="F183" t="s">
+        <v>394</v>
+      </c>
+      <c r="G183" t="s">
         <v>435</v>
-      </c>
-      <c r="G183" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6293,10 +6293,10 @@
         <v>393</v>
       </c>
       <c r="F184" t="s">
+        <v>394</v>
+      </c>
+      <c r="G184" t="s">
         <v>435</v>
-      </c>
-      <c r="G184" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6316,10 +6316,10 @@
         <v>393</v>
       </c>
       <c r="F185" t="s">
+        <v>394</v>
+      </c>
+      <c r="G185" t="s">
         <v>435</v>
-      </c>
-      <c r="G185" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6339,10 +6339,10 @@
         <v>393</v>
       </c>
       <c r="F186" t="s">
+        <v>394</v>
+      </c>
+      <c r="G186" t="s">
         <v>435</v>
-      </c>
-      <c r="G186" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6362,10 +6362,10 @@
         <v>393</v>
       </c>
       <c r="F187" t="s">
+        <v>394</v>
+      </c>
+      <c r="G187" t="s">
         <v>435</v>
-      </c>
-      <c r="G187" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6385,10 +6385,10 @@
         <v>393</v>
       </c>
       <c r="F188" t="s">
+        <v>394</v>
+      </c>
+      <c r="G188" t="s">
         <v>435</v>
-      </c>
-      <c r="G188" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6408,10 +6408,10 @@
         <v>393</v>
       </c>
       <c r="F189" t="s">
+        <v>394</v>
+      </c>
+      <c r="G189" t="s">
         <v>435</v>
-      </c>
-      <c r="G189" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6431,10 +6431,10 @@
         <v>393</v>
       </c>
       <c r="F190" t="s">
+        <v>394</v>
+      </c>
+      <c r="G190" t="s">
         <v>435</v>
-      </c>
-      <c r="G190" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6454,10 +6454,10 @@
         <v>393</v>
       </c>
       <c r="F191" t="s">
+        <v>394</v>
+      </c>
+      <c r="G191" t="s">
         <v>435</v>
-      </c>
-      <c r="G191" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6477,10 +6477,10 @@
         <v>393</v>
       </c>
       <c r="F192" t="s">
+        <v>394</v>
+      </c>
+      <c r="G192" t="s">
         <v>457</v>
-      </c>
-      <c r="G192" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6497,13 +6497,13 @@
         <v>460</v>
       </c>
       <c r="E193" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F193" t="s">
         <v>461</v>
       </c>
       <c r="G193" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6520,13 +6520,13 @@
         <v>460</v>
       </c>
       <c r="E194" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F194" t="s">
         <v>461</v>
       </c>
       <c r="G194" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6543,13 +6543,13 @@
         <v>460</v>
       </c>
       <c r="E195" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F195" t="s">
         <v>461</v>
       </c>
       <c r="G195" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6566,13 +6566,13 @@
         <v>460</v>
       </c>
       <c r="E196" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F196" t="s">
         <v>461</v>
       </c>
       <c r="G196" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6589,13 +6589,13 @@
         <v>460</v>
       </c>
       <c r="E197" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F197" t="s">
         <v>461</v>
       </c>
       <c r="G197" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6612,13 +6612,13 @@
         <v>460</v>
       </c>
       <c r="E198" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F198" t="s">
         <v>461</v>
       </c>
       <c r="G198" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6635,13 +6635,13 @@
         <v>474</v>
       </c>
       <c r="E199" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F199" t="s">
         <v>475</v>
       </c>
       <c r="G199" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6658,13 +6658,13 @@
         <v>478</v>
       </c>
       <c r="E200" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F200" t="s">
         <v>479</v>
       </c>
       <c r="G200" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6681,13 +6681,13 @@
         <v>478</v>
       </c>
       <c r="E201" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F201" t="s">
         <v>479</v>
       </c>
       <c r="G201" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6704,13 +6704,13 @@
         <v>478</v>
       </c>
       <c r="E202" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F202" t="s">
         <v>479</v>
       </c>
       <c r="G202" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6727,13 +6727,13 @@
         <v>478</v>
       </c>
       <c r="E203" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F203" t="s">
         <v>479</v>
       </c>
       <c r="G203" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6750,13 +6750,13 @@
         <v>478</v>
       </c>
       <c r="E204" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F204" t="s">
         <v>479</v>
       </c>
       <c r="G204" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6773,13 +6773,13 @@
         <v>478</v>
       </c>
       <c r="E205" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F205" t="s">
         <v>479</v>
       </c>
       <c r="G205" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6796,13 +6796,13 @@
         <v>492</v>
       </c>
       <c r="E206" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F206" t="s">
         <v>493</v>
       </c>
       <c r="G206" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -6819,13 +6819,13 @@
         <v>492</v>
       </c>
       <c r="E207" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F207" t="s">
         <v>493</v>
       </c>
       <c r="G207" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6842,13 +6842,13 @@
         <v>492</v>
       </c>
       <c r="E208" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F208" t="s">
         <v>493</v>
       </c>
       <c r="G208" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6865,13 +6865,13 @@
         <v>492</v>
       </c>
       <c r="E209" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F209" t="s">
         <v>493</v>
       </c>
       <c r="G209" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6888,13 +6888,13 @@
         <v>492</v>
       </c>
       <c r="E210" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F210" t="s">
         <v>493</v>
       </c>
       <c r="G210" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6911,13 +6911,13 @@
         <v>492</v>
       </c>
       <c r="E211" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F211" t="s">
         <v>493</v>
       </c>
       <c r="G211" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6934,13 +6934,13 @@
         <v>492</v>
       </c>
       <c r="E212" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F212" t="s">
         <v>493</v>
       </c>
       <c r="G212" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6957,13 +6957,13 @@
         <v>492</v>
       </c>
       <c r="E213" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F213" t="s">
         <v>493</v>
       </c>
       <c r="G213" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6980,13 +6980,13 @@
         <v>492</v>
       </c>
       <c r="E214" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F214" t="s">
         <v>493</v>
       </c>
       <c r="G214" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -7003,13 +7003,13 @@
         <v>492</v>
       </c>
       <c r="E215" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F215" t="s">
         <v>493</v>
       </c>
       <c r="G215" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -7026,13 +7026,13 @@
         <v>514</v>
       </c>
       <c r="E216" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F216" t="s">
         <v>515</v>
       </c>
       <c r="G216" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -7049,13 +7049,13 @@
         <v>518</v>
       </c>
       <c r="E217" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F217" t="s">
         <v>519</v>
       </c>
       <c r="G217" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -7072,13 +7072,13 @@
         <v>522</v>
       </c>
       <c r="E218" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F218" t="s">
         <v>523</v>
       </c>
       <c r="G218" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -7095,13 +7095,13 @@
         <v>522</v>
       </c>
       <c r="E219" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F219" t="s">
         <v>523</v>
       </c>
       <c r="G219" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -7118,13 +7118,13 @@
         <v>528</v>
       </c>
       <c r="E220" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F220" t="s">
         <v>529</v>
       </c>
       <c r="G220" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -7141,13 +7141,13 @@
         <v>528</v>
       </c>
       <c r="E221" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F221" t="s">
         <v>529</v>
       </c>
       <c r="G221" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -7164,13 +7164,13 @@
         <v>528</v>
       </c>
       <c r="E222" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F222" t="s">
         <v>529</v>
       </c>
       <c r="G222" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -7187,13 +7187,13 @@
         <v>528</v>
       </c>
       <c r="E223" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F223" t="s">
         <v>529</v>
       </c>
       <c r="G223" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -7210,13 +7210,13 @@
         <v>528</v>
       </c>
       <c r="E224" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F224" t="s">
         <v>529</v>
       </c>
       <c r="G224" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -7233,13 +7233,13 @@
         <v>528</v>
       </c>
       <c r="E225" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F225" t="s">
         <v>529</v>
       </c>
       <c r="G225" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -7256,13 +7256,13 @@
         <v>528</v>
       </c>
       <c r="E226" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F226" t="s">
         <v>529</v>
       </c>
       <c r="G226" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -7279,13 +7279,13 @@
         <v>544</v>
       </c>
       <c r="E227" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F227" t="s">
         <v>545</v>
       </c>
       <c r="G227" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -7302,13 +7302,13 @@
         <v>544</v>
       </c>
       <c r="E228" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F228" t="s">
         <v>545</v>
       </c>
       <c r="G228" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -7325,13 +7325,13 @@
         <v>544</v>
       </c>
       <c r="E229" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F229" t="s">
         <v>545</v>
       </c>
       <c r="G229" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -7348,13 +7348,13 @@
         <v>552</v>
       </c>
       <c r="E230" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F230" t="s">
         <v>553</v>
       </c>
       <c r="G230" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -7371,13 +7371,13 @@
         <v>556</v>
       </c>
       <c r="E231" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F231" t="s">
         <v>557</v>
       </c>
       <c r="G231" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -7394,13 +7394,13 @@
         <v>560</v>
       </c>
       <c r="E232" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F232" t="s">
         <v>561</v>
       </c>
       <c r="G232" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -7417,13 +7417,13 @@
         <v>564</v>
       </c>
       <c r="E233" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F233" t="s">
         <v>565</v>
       </c>
       <c r="G233" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -7440,13 +7440,13 @@
         <v>568</v>
       </c>
       <c r="E234" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F234" t="s">
         <v>569</v>
       </c>
       <c r="G234" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -7463,13 +7463,13 @@
         <v>568</v>
       </c>
       <c r="E235" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F235" t="s">
         <v>569</v>
       </c>
       <c r="G235" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/api/2/clv3/xlsx/en/SectorGroup.xlsx
+++ b/api/2/clv3/xlsx/en/SectorGroup.xlsx
@@ -25,18 +25,18 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:group-name</t>
+  </si>
+  <si>
+    <t>codeforiati:category-name</t>
+  </si>
+  <si>
+    <t>codeforiati:group-code</t>
+  </si>
+  <si>
     <t>codeforiati:category-code</t>
   </si>
   <si>
-    <t>codeforiati:group-code</t>
-  </si>
-  <si>
-    <t>codeforiati:group-name</t>
-  </si>
-  <si>
-    <t>codeforiati:category-name</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -46,18 +46,18 @@
     <t>active</t>
   </si>
   <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Education, Level Unspecified</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>111</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Education, Level Unspecified</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -82,12 +82,12 @@
     <t>Primary education</t>
   </si>
   <si>
+    <t>Basic Education</t>
+  </si>
+  <si>
     <t>112</t>
   </si>
   <si>
-    <t>Basic Education</t>
-  </si>
-  <si>
     <t>11230</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>Upper Secondary Education (modified and includes data from 11322)</t>
   </si>
   <si>
+    <t>Secondary Education</t>
+  </si>
+  <si>
     <t>113</t>
   </si>
   <si>
-    <t>Secondary Education</t>
-  </si>
-  <si>
     <t>11330</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t>Higher education</t>
   </si>
   <si>
+    <t>Post-Secondary Education</t>
+  </si>
+  <si>
     <t>114</t>
   </si>
   <si>
-    <t>Post-Secondary Education</t>
-  </si>
-  <si>
     <t>11430</t>
   </si>
   <si>
@@ -166,18 +166,18 @@
     <t>Health policy and administrative management</t>
   </si>
   <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Health, General</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>121</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>Health, General</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>Basic health care</t>
   </si>
   <si>
+    <t>Basic Health</t>
+  </si>
+  <si>
     <t>122</t>
   </si>
   <si>
-    <t>Basic Health</t>
-  </si>
-  <si>
     <t>12230</t>
   </si>
   <si>
@@ -262,12 +262,12 @@
     <t>NCDs control, general</t>
   </si>
   <si>
+    <t>Non-communicable diseases (NCDs)</t>
+  </si>
+  <si>
     <t>123</t>
   </si>
   <si>
-    <t>Non-communicable diseases (NCDs)</t>
-  </si>
-  <si>
     <t>12320</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>Population policy and administrative management</t>
   </si>
   <si>
+    <t>Population Policies/Programmes &amp; Reproductive Health</t>
+  </si>
+  <si>
     <t>130</t>
   </si>
   <si>
-    <t>Population Policies/Programmes &amp; Reproductive Health</t>
-  </si>
-  <si>
     <t>13020</t>
   </si>
   <si>
@@ -340,12 +340,12 @@
     <t>Water sector policy and administrative management</t>
   </si>
   <si>
+    <t>Water Supply &amp; Sanitation</t>
+  </si>
+  <si>
     <t>140</t>
   </si>
   <si>
-    <t>Water Supply &amp; Sanitation</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
@@ -412,18 +412,18 @@
     <t>Public sector policy and administrative management</t>
   </si>
   <si>
+    <t>Government &amp; Civil Society</t>
+  </si>
+  <si>
+    <t>Government &amp; Civil Society-general</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>151</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>Government &amp; Civil Society</t>
-  </si>
-  <si>
-    <t>Government &amp; Civil Society-general</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -520,12 +520,12 @@
     <t>Security system management and reform</t>
   </si>
   <si>
+    <t>Conflict, Peace &amp; Security</t>
+  </si>
+  <si>
     <t>152</t>
   </si>
   <si>
-    <t>Conflict, Peace &amp; Security</t>
-  </si>
-  <si>
     <t>15220</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>Social Protection</t>
   </si>
   <si>
+    <t>Other Social Infrastructure &amp; Services</t>
+  </si>
+  <si>
     <t>160</t>
   </si>
   <si>
-    <t>Other Social Infrastructure &amp; Services</t>
-  </si>
-  <si>
     <t>16020</t>
   </si>
   <si>
@@ -634,12 +634,12 @@
     <t>Transport policy and administrative management</t>
   </si>
   <si>
+    <t>Transport &amp; Storage</t>
+  </si>
+  <si>
     <t>210</t>
   </si>
   <si>
-    <t>Transport &amp; Storage</t>
-  </si>
-  <si>
     <t>21020</t>
   </si>
   <si>
@@ -682,12 +682,12 @@
     <t>Communications policy and administrative management</t>
   </si>
   <si>
+    <t>Communications</t>
+  </si>
+  <si>
     <t>220</t>
   </si>
   <si>
-    <t>Communications</t>
-  </si>
-  <si>
     <t>22020</t>
   </si>
   <si>
@@ -712,18 +712,18 @@
     <t>Energy policy and administrative management</t>
   </si>
   <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Energy Policy</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
     <t>231</t>
   </si>
   <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Energy Policy</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -748,12 +748,12 @@
     <t>Energy generation, renewable sources - multiple technologies</t>
   </si>
   <si>
+    <t>Energy generation, renewable sources</t>
+  </si>
+  <si>
     <t>232</t>
   </si>
   <si>
-    <t>Energy generation, renewable sources</t>
-  </si>
-  <si>
     <t>23220</t>
   </si>
   <si>
@@ -808,12 +808,12 @@
     <t>Energy generation, non-renewable sources, unspecified</t>
   </si>
   <si>
+    <t>Energy generation, non-renewable sources</t>
+  </si>
+  <si>
     <t>233</t>
   </si>
   <si>
-    <t>Energy generation, non-renewable sources</t>
-  </si>
-  <si>
     <t>23320</t>
   </si>
   <si>
@@ -850,36 +850,36 @@
     <t>Hybrid energy electric power plants</t>
   </si>
   <si>
+    <t>Hybrid energy plants</t>
+  </si>
+  <si>
     <t>234</t>
   </si>
   <si>
-    <t>Hybrid energy plants</t>
-  </si>
-  <si>
     <t>23510</t>
   </si>
   <si>
     <t>Nuclear energy electric power plants and nuclear safety</t>
   </si>
   <si>
+    <t>Nuclear energy plants</t>
+  </si>
+  <si>
     <t>235</t>
   </si>
   <si>
-    <t>Nuclear energy plants</t>
-  </si>
-  <si>
     <t>23610</t>
   </si>
   <si>
     <t>Heat plants</t>
   </si>
   <si>
+    <t>Energy distribution</t>
+  </si>
+  <si>
     <t>236</t>
   </si>
   <si>
-    <t>Energy distribution</t>
-  </si>
-  <si>
     <t>23620</t>
   </si>
   <si>
@@ -922,12 +922,12 @@
     <t>Financial policy and administrative management</t>
   </si>
   <si>
+    <t>Banking &amp; Financial Services</t>
+  </si>
+  <si>
     <t>240</t>
   </si>
   <si>
-    <t>Banking &amp; Financial Services</t>
-  </si>
-  <si>
     <t>24020</t>
   </si>
   <si>
@@ -964,12 +964,12 @@
     <t>Business policy and administration</t>
   </si>
   <si>
+    <t>Business &amp; Other Services</t>
+  </si>
+  <si>
     <t>250</t>
   </si>
   <si>
-    <t>Business &amp; Other Services</t>
-  </si>
-  <si>
     <t>25020</t>
   </si>
   <si>
@@ -994,18 +994,18 @@
     <t>Agricultural policy and administrative management</t>
   </si>
   <si>
+    <t>Agriculture, Forestry, Fishing</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
     <t>311</t>
   </si>
   <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>Agriculture, Forestry, Fishing</t>
-  </si>
-  <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1114,12 +1114,12 @@
     <t>Forestry policy and administrative management</t>
   </si>
   <si>
+    <t>Forestry</t>
+  </si>
+  <si>
     <t>312</t>
   </si>
   <si>
-    <t>Forestry</t>
-  </si>
-  <si>
     <t>31220</t>
   </si>
   <si>
@@ -1156,12 +1156,12 @@
     <t>Fishing policy and administrative management</t>
   </si>
   <si>
+    <t>Fishing</t>
+  </si>
+  <si>
     <t>313</t>
   </si>
   <si>
-    <t>Fishing</t>
-  </si>
-  <si>
     <t>31320</t>
   </si>
   <si>
@@ -1192,18 +1192,18 @@
     <t>Industrial policy and administrative management</t>
   </si>
   <si>
+    <t>Industry, Mining, Construction</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
     <t>321</t>
   </si>
   <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>Industry, Mining, Construction</t>
-  </si>
-  <si>
-    <t>Industry</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -1318,12 +1318,12 @@
     <t>Mineral/mining policy and administrative management</t>
   </si>
   <si>
+    <t>Mineral Resources &amp; Mining</t>
+  </si>
+  <si>
     <t>322</t>
   </si>
   <si>
-    <t>Mineral Resources &amp; Mining</t>
-  </si>
-  <si>
     <t>32220</t>
   </si>
   <si>
@@ -1384,24 +1384,24 @@
     <t>Construction policy and administrative management</t>
   </si>
   <si>
+    <t>Construction</t>
+  </si>
+  <si>
     <t>323</t>
   </si>
   <si>
-    <t>Construction</t>
-  </si>
-  <si>
     <t>33110</t>
   </si>
   <si>
     <t>Trade policy and administrative management</t>
   </si>
   <si>
+    <t>Trade Policies &amp; Regulations</t>
+  </si>
+  <si>
     <t>331</t>
   </si>
   <si>
-    <t>Trade Policies &amp; Regulations</t>
-  </si>
-  <si>
     <t>33120</t>
   </si>
   <si>
@@ -1438,24 +1438,24 @@
     <t>Tourism policy and administrative management</t>
   </si>
   <si>
+    <t>Tourism</t>
+  </si>
+  <si>
     <t>332</t>
   </si>
   <si>
-    <t>Tourism</t>
-  </si>
-  <si>
     <t>41010</t>
   </si>
   <si>
     <t>Environmental policy and administrative management</t>
   </si>
   <si>
+    <t>General Environment Protection</t>
+  </si>
+  <si>
     <t>410</t>
   </si>
   <si>
-    <t>General Environment Protection</t>
-  </si>
-  <si>
     <t>41020</t>
   </si>
   <si>
@@ -1492,12 +1492,12 @@
     <t>Multisector aid</t>
   </si>
   <si>
+    <t>Other Multisector</t>
+  </si>
+  <si>
     <t>430</t>
   </si>
   <si>
-    <t>Other Multisector</t>
-  </si>
-  <si>
     <t>43030</t>
   </si>
   <si>
@@ -1558,36 +1558,36 @@
     <t>General budget support-related aid</t>
   </si>
   <si>
+    <t>General Budget Support</t>
+  </si>
+  <si>
     <t>510</t>
   </si>
   <si>
-    <t>General Budget Support</t>
-  </si>
-  <si>
     <t>52010</t>
   </si>
   <si>
     <t>Food assistance</t>
   </si>
   <si>
+    <t>Development Food Assistance</t>
+  </si>
+  <si>
     <t>520</t>
   </si>
   <si>
-    <t>Development Food Assistance</t>
-  </si>
-  <si>
     <t>53030</t>
   </si>
   <si>
     <t>Import support (capital goods)</t>
   </si>
   <si>
+    <t>Other Commodity Assistance</t>
+  </si>
+  <si>
     <t>530</t>
   </si>
   <si>
-    <t>Other Commodity Assistance</t>
-  </si>
-  <si>
     <t>53040</t>
   </si>
   <si>
@@ -1600,12 +1600,12 @@
     <t>Action relating to debt</t>
   </si>
   <si>
+    <t>Action Relating to Debt</t>
+  </si>
+  <si>
     <t>600</t>
   </si>
   <si>
-    <t>Action Relating to Debt</t>
-  </si>
-  <si>
     <t>60020</t>
   </si>
   <si>
@@ -1648,12 +1648,12 @@
     <t>Material relief assistance and services</t>
   </si>
   <si>
+    <t>Emergency Response</t>
+  </si>
+  <si>
     <t>720</t>
   </si>
   <si>
-    <t>Emergency Response</t>
-  </si>
-  <si>
     <t>72040</t>
   </si>
   <si>
@@ -1672,58 +1672,58 @@
     <t>Immediate post-emergency reconstruction and rehabilitation</t>
   </si>
   <si>
+    <t>Reconstruction Relief &amp; Rehabilitation</t>
+  </si>
+  <si>
     <t>730</t>
   </si>
   <si>
-    <t>Reconstruction Relief &amp; Rehabilitation</t>
-  </si>
-  <si>
     <t>74020</t>
   </si>
   <si>
     <t>Multi-hazard response preparedness</t>
   </si>
   <si>
+    <t>Disaster Prevention &amp; Preparedness</t>
+  </si>
+  <si>
     <t>740</t>
   </si>
   <si>
-    <t>Disaster Prevention &amp; Preparedness</t>
-  </si>
-  <si>
     <t>91010</t>
   </si>
   <si>
     <t>Administrative costs (non-sector allocable)</t>
   </si>
   <si>
+    <t>Administrative Costs of Donors</t>
+  </si>
+  <si>
     <t>910</t>
   </si>
   <si>
-    <t>Administrative Costs of Donors</t>
-  </si>
-  <si>
     <t>93010</t>
   </si>
   <si>
     <t>Refugees/asylum seekers in donor countries (non-sector allocable)</t>
   </si>
   <si>
+    <t>Refugees in Donor Countries</t>
+  </si>
+  <si>
     <t>930</t>
   </si>
   <si>
-    <t>Refugees in Donor Countries</t>
-  </si>
-  <si>
     <t>99810</t>
   </si>
   <si>
     <t>Sectors not specified</t>
   </si>
   <si>
+    <t>Unallocated / Unspecified</t>
+  </si>
+  <si>
     <t>998</t>
-  </si>
-  <si>
-    <t>Unallocated / Unspecified</t>
   </si>
   <si>
     <t>99820</t>
@@ -2193,10 +2193,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -2216,10 +2216,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -2239,10 +2239,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
         <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -2262,10 +2262,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -2285,10 +2285,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
         <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -2308,10 +2308,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -2331,10 +2331,10 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
         <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -2354,10 +2354,10 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
         <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -2377,10 +2377,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
         <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -2400,10 +2400,10 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
         <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -2423,10 +2423,10 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
         <v>44</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -2538,10 +2538,10 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
         <v>62</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
       </c>
       <c r="F21" t="s">
         <v>52</v>
@@ -2561,10 +2561,10 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
         <v>62</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
       </c>
       <c r="F22" t="s">
         <v>52</v>
@@ -2584,10 +2584,10 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
         <v>62</v>
-      </c>
-      <c r="E23" t="s">
-        <v>51</v>
       </c>
       <c r="F23" t="s">
         <v>52</v>
@@ -2607,10 +2607,10 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
         <v>62</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
       </c>
       <c r="F24" t="s">
         <v>52</v>
@@ -2630,10 +2630,10 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
         <v>62</v>
-      </c>
-      <c r="E25" t="s">
-        <v>51</v>
       </c>
       <c r="F25" t="s">
         <v>52</v>
@@ -2653,10 +2653,10 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
         <v>62</v>
-      </c>
-      <c r="E26" t="s">
-        <v>51</v>
       </c>
       <c r="F26" t="s">
         <v>52</v>
@@ -2676,10 +2676,10 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
         <v>62</v>
-      </c>
-      <c r="E27" t="s">
-        <v>51</v>
       </c>
       <c r="F27" t="s">
         <v>52</v>
@@ -2699,10 +2699,10 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
         <v>62</v>
-      </c>
-      <c r="E28" t="s">
-        <v>51</v>
       </c>
       <c r="F28" t="s">
         <v>52</v>
@@ -2722,10 +2722,10 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
         <v>62</v>
-      </c>
-      <c r="E29" t="s">
-        <v>51</v>
       </c>
       <c r="F29" t="s">
         <v>52</v>
@@ -2745,10 +2745,10 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
         <v>82</v>
-      </c>
-      <c r="E30" t="s">
-        <v>51</v>
       </c>
       <c r="F30" t="s">
         <v>52</v>
@@ -2768,10 +2768,10 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
         <v>82</v>
-      </c>
-      <c r="E31" t="s">
-        <v>51</v>
       </c>
       <c r="F31" t="s">
         <v>52</v>
@@ -2791,10 +2791,10 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
         <v>82</v>
-      </c>
-      <c r="E32" t="s">
-        <v>51</v>
       </c>
       <c r="F32" t="s">
         <v>52</v>
@@ -2814,10 +2814,10 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
         <v>82</v>
-      </c>
-      <c r="E33" t="s">
-        <v>51</v>
       </c>
       <c r="F33" t="s">
         <v>52</v>
@@ -2837,10 +2837,10 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" t="s">
         <v>82</v>
-      </c>
-      <c r="E34" t="s">
-        <v>51</v>
       </c>
       <c r="F34" t="s">
         <v>52</v>
@@ -2860,10 +2860,10 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
         <v>82</v>
-      </c>
-      <c r="E35" t="s">
-        <v>51</v>
       </c>
       <c r="F35" t="s">
         <v>52</v>
@@ -3619,10 +3619,10 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E68" t="s">
         <v>168</v>
-      </c>
-      <c r="E68" t="s">
-        <v>133</v>
       </c>
       <c r="F68" t="s">
         <v>134</v>
@@ -3642,10 +3642,10 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
+        <v>132</v>
+      </c>
+      <c r="E69" t="s">
         <v>168</v>
-      </c>
-      <c r="E69" t="s">
-        <v>133</v>
       </c>
       <c r="F69" t="s">
         <v>134</v>
@@ -3665,10 +3665,10 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
+        <v>132</v>
+      </c>
+      <c r="E70" t="s">
         <v>168</v>
-      </c>
-      <c r="E70" t="s">
-        <v>133</v>
       </c>
       <c r="F70" t="s">
         <v>134</v>
@@ -3688,10 +3688,10 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E71" t="s">
         <v>168</v>
-      </c>
-      <c r="E71" t="s">
-        <v>133</v>
       </c>
       <c r="F71" t="s">
         <v>134</v>
@@ -3711,10 +3711,10 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E72" t="s">
         <v>168</v>
-      </c>
-      <c r="E72" t="s">
-        <v>133</v>
       </c>
       <c r="F72" t="s">
         <v>134</v>
@@ -3734,10 +3734,10 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" t="s">
         <v>168</v>
-      </c>
-      <c r="E73" t="s">
-        <v>133</v>
       </c>
       <c r="F73" t="s">
         <v>134</v>
@@ -4355,10 +4355,10 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
+        <v>232</v>
+      </c>
+      <c r="E100" t="s">
         <v>244</v>
-      </c>
-      <c r="E100" t="s">
-        <v>233</v>
       </c>
       <c r="F100" t="s">
         <v>234</v>
@@ -4378,10 +4378,10 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
+        <v>232</v>
+      </c>
+      <c r="E101" t="s">
         <v>244</v>
-      </c>
-      <c r="E101" t="s">
-        <v>233</v>
       </c>
       <c r="F101" t="s">
         <v>234</v>
@@ -4401,10 +4401,10 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
+        <v>232</v>
+      </c>
+      <c r="E102" t="s">
         <v>244</v>
-      </c>
-      <c r="E102" t="s">
-        <v>233</v>
       </c>
       <c r="F102" t="s">
         <v>234</v>
@@ -4424,10 +4424,10 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
+        <v>232</v>
+      </c>
+      <c r="E103" t="s">
         <v>244</v>
-      </c>
-      <c r="E103" t="s">
-        <v>233</v>
       </c>
       <c r="F103" t="s">
         <v>234</v>
@@ -4447,10 +4447,10 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
+        <v>232</v>
+      </c>
+      <c r="E104" t="s">
         <v>244</v>
-      </c>
-      <c r="E104" t="s">
-        <v>233</v>
       </c>
       <c r="F104" t="s">
         <v>234</v>
@@ -4470,10 +4470,10 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
+        <v>232</v>
+      </c>
+      <c r="E105" t="s">
         <v>244</v>
-      </c>
-      <c r="E105" t="s">
-        <v>233</v>
       </c>
       <c r="F105" t="s">
         <v>234</v>
@@ -4493,10 +4493,10 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
+        <v>232</v>
+      </c>
+      <c r="E106" t="s">
         <v>244</v>
-      </c>
-      <c r="E106" t="s">
-        <v>233</v>
       </c>
       <c r="F106" t="s">
         <v>234</v>
@@ -4516,10 +4516,10 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
+        <v>232</v>
+      </c>
+      <c r="E107" t="s">
         <v>244</v>
-      </c>
-      <c r="E107" t="s">
-        <v>233</v>
       </c>
       <c r="F107" t="s">
         <v>234</v>
@@ -4539,10 +4539,10 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
+        <v>232</v>
+      </c>
+      <c r="E108" t="s">
         <v>244</v>
-      </c>
-      <c r="E108" t="s">
-        <v>233</v>
       </c>
       <c r="F108" t="s">
         <v>234</v>
@@ -4562,10 +4562,10 @@
         <v>9</v>
       </c>
       <c r="D109" t="s">
+        <v>232</v>
+      </c>
+      <c r="E109" t="s">
         <v>264</v>
-      </c>
-      <c r="E109" t="s">
-        <v>233</v>
       </c>
       <c r="F109" t="s">
         <v>234</v>
@@ -4585,10 +4585,10 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
+        <v>232</v>
+      </c>
+      <c r="E110" t="s">
         <v>264</v>
-      </c>
-      <c r="E110" t="s">
-        <v>233</v>
       </c>
       <c r="F110" t="s">
         <v>234</v>
@@ -4608,10 +4608,10 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
+        <v>232</v>
+      </c>
+      <c r="E111" t="s">
         <v>264</v>
-      </c>
-      <c r="E111" t="s">
-        <v>233</v>
       </c>
       <c r="F111" t="s">
         <v>234</v>
@@ -4631,10 +4631,10 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
+        <v>232</v>
+      </c>
+      <c r="E112" t="s">
         <v>264</v>
-      </c>
-      <c r="E112" t="s">
-        <v>233</v>
       </c>
       <c r="F112" t="s">
         <v>234</v>
@@ -4654,10 +4654,10 @@
         <v>9</v>
       </c>
       <c r="D113" t="s">
+        <v>232</v>
+      </c>
+      <c r="E113" t="s">
         <v>264</v>
-      </c>
-      <c r="E113" t="s">
-        <v>233</v>
       </c>
       <c r="F113" t="s">
         <v>234</v>
@@ -4677,10 +4677,10 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
+        <v>232</v>
+      </c>
+      <c r="E114" t="s">
         <v>264</v>
-      </c>
-      <c r="E114" t="s">
-        <v>233</v>
       </c>
       <c r="F114" t="s">
         <v>234</v>
@@ -4700,10 +4700,10 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
+        <v>232</v>
+      </c>
+      <c r="E115" t="s">
         <v>278</v>
-      </c>
-      <c r="E115" t="s">
-        <v>233</v>
       </c>
       <c r="F115" t="s">
         <v>234</v>
@@ -4723,10 +4723,10 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
+        <v>232</v>
+      </c>
+      <c r="E116" t="s">
         <v>282</v>
-      </c>
-      <c r="E116" t="s">
-        <v>233</v>
       </c>
       <c r="F116" t="s">
         <v>234</v>
@@ -4746,10 +4746,10 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
+        <v>232</v>
+      </c>
+      <c r="E117" t="s">
         <v>286</v>
-      </c>
-      <c r="E117" t="s">
-        <v>233</v>
       </c>
       <c r="F117" t="s">
         <v>234</v>
@@ -4769,10 +4769,10 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
+        <v>232</v>
+      </c>
+      <c r="E118" t="s">
         <v>286</v>
-      </c>
-      <c r="E118" t="s">
-        <v>233</v>
       </c>
       <c r="F118" t="s">
         <v>234</v>
@@ -4792,10 +4792,10 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
+        <v>232</v>
+      </c>
+      <c r="E119" t="s">
         <v>286</v>
-      </c>
-      <c r="E119" t="s">
-        <v>233</v>
       </c>
       <c r="F119" t="s">
         <v>234</v>
@@ -4815,10 +4815,10 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
+        <v>232</v>
+      </c>
+      <c r="E120" t="s">
         <v>286</v>
-      </c>
-      <c r="E120" t="s">
-        <v>233</v>
       </c>
       <c r="F120" t="s">
         <v>234</v>
@@ -4838,10 +4838,10 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
+        <v>232</v>
+      </c>
+      <c r="E121" t="s">
         <v>286</v>
-      </c>
-      <c r="E121" t="s">
-        <v>233</v>
       </c>
       <c r="F121" t="s">
         <v>234</v>
@@ -4861,10 +4861,10 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
+        <v>232</v>
+      </c>
+      <c r="E122" t="s">
         <v>286</v>
-      </c>
-      <c r="E122" t="s">
-        <v>233</v>
       </c>
       <c r="F122" t="s">
         <v>234</v>
@@ -4884,10 +4884,10 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
+        <v>232</v>
+      </c>
+      <c r="E123" t="s">
         <v>286</v>
-      </c>
-      <c r="E123" t="s">
-        <v>233</v>
       </c>
       <c r="F123" t="s">
         <v>234</v>
@@ -5551,10 +5551,10 @@
         <v>9</v>
       </c>
       <c r="D152" t="s">
+        <v>326</v>
+      </c>
+      <c r="E152" t="s">
         <v>366</v>
-      </c>
-      <c r="E152" t="s">
-        <v>327</v>
       </c>
       <c r="F152" t="s">
         <v>328</v>
@@ -5574,10 +5574,10 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
+        <v>326</v>
+      </c>
+      <c r="E153" t="s">
         <v>366</v>
-      </c>
-      <c r="E153" t="s">
-        <v>327</v>
       </c>
       <c r="F153" t="s">
         <v>328</v>
@@ -5597,10 +5597,10 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
+        <v>326</v>
+      </c>
+      <c r="E154" t="s">
         <v>366</v>
-      </c>
-      <c r="E154" t="s">
-        <v>327</v>
       </c>
       <c r="F154" t="s">
         <v>328</v>
@@ -5620,10 +5620,10 @@
         <v>9</v>
       </c>
       <c r="D155" t="s">
+        <v>326</v>
+      </c>
+      <c r="E155" t="s">
         <v>366</v>
-      </c>
-      <c r="E155" t="s">
-        <v>327</v>
       </c>
       <c r="F155" t="s">
         <v>328</v>
@@ -5643,10 +5643,10 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
+        <v>326</v>
+      </c>
+      <c r="E156" t="s">
         <v>366</v>
-      </c>
-      <c r="E156" t="s">
-        <v>327</v>
       </c>
       <c r="F156" t="s">
         <v>328</v>
@@ -5666,10 +5666,10 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
+        <v>326</v>
+      </c>
+      <c r="E157" t="s">
         <v>366</v>
-      </c>
-      <c r="E157" t="s">
-        <v>327</v>
       </c>
       <c r="F157" t="s">
         <v>328</v>
@@ -5689,10 +5689,10 @@
         <v>9</v>
       </c>
       <c r="D158" t="s">
+        <v>326</v>
+      </c>
+      <c r="E158" t="s">
         <v>380</v>
-      </c>
-      <c r="E158" t="s">
-        <v>327</v>
       </c>
       <c r="F158" t="s">
         <v>328</v>
@@ -5712,10 +5712,10 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
+        <v>326</v>
+      </c>
+      <c r="E159" t="s">
         <v>380</v>
-      </c>
-      <c r="E159" t="s">
-        <v>327</v>
       </c>
       <c r="F159" t="s">
         <v>328</v>
@@ -5735,10 +5735,10 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
+        <v>326</v>
+      </c>
+      <c r="E160" t="s">
         <v>380</v>
-      </c>
-      <c r="E160" t="s">
-        <v>327</v>
       </c>
       <c r="F160" t="s">
         <v>328</v>
@@ -5758,10 +5758,10 @@
         <v>9</v>
       </c>
       <c r="D161" t="s">
+        <v>326</v>
+      </c>
+      <c r="E161" t="s">
         <v>380</v>
-      </c>
-      <c r="E161" t="s">
-        <v>327</v>
       </c>
       <c r="F161" t="s">
         <v>328</v>
@@ -5781,10 +5781,10 @@
         <v>9</v>
       </c>
       <c r="D162" t="s">
+        <v>326</v>
+      </c>
+      <c r="E162" t="s">
         <v>380</v>
-      </c>
-      <c r="E162" t="s">
-        <v>327</v>
       </c>
       <c r="F162" t="s">
         <v>328</v>
@@ -6241,10 +6241,10 @@
         <v>9</v>
       </c>
       <c r="D182" t="s">
+        <v>392</v>
+      </c>
+      <c r="E182" t="s">
         <v>434</v>
-      </c>
-      <c r="E182" t="s">
-        <v>393</v>
       </c>
       <c r="F182" t="s">
         <v>394</v>
@@ -6264,10 +6264,10 @@
         <v>9</v>
       </c>
       <c r="D183" t="s">
+        <v>392</v>
+      </c>
+      <c r="E183" t="s">
         <v>434</v>
-      </c>
-      <c r="E183" t="s">
-        <v>393</v>
       </c>
       <c r="F183" t="s">
         <v>394</v>
@@ -6287,10 +6287,10 @@
         <v>9</v>
       </c>
       <c r="D184" t="s">
+        <v>392</v>
+      </c>
+      <c r="E184" t="s">
         <v>434</v>
-      </c>
-      <c r="E184" t="s">
-        <v>393</v>
       </c>
       <c r="F184" t="s">
         <v>394</v>
@@ -6310,10 +6310,10 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
+        <v>392</v>
+      </c>
+      <c r="E185" t="s">
         <v>434</v>
-      </c>
-      <c r="E185" t="s">
-        <v>393</v>
       </c>
       <c r="F185" t="s">
         <v>394</v>
@@ -6333,10 +6333,10 @@
         <v>9</v>
       </c>
       <c r="D186" t="s">
+        <v>392</v>
+      </c>
+      <c r="E186" t="s">
         <v>434</v>
-      </c>
-      <c r="E186" t="s">
-        <v>393</v>
       </c>
       <c r="F186" t="s">
         <v>394</v>
@@ -6356,10 +6356,10 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
+        <v>392</v>
+      </c>
+      <c r="E187" t="s">
         <v>434</v>
-      </c>
-      <c r="E187" t="s">
-        <v>393</v>
       </c>
       <c r="F187" t="s">
         <v>394</v>
@@ -6379,10 +6379,10 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
+        <v>392</v>
+      </c>
+      <c r="E188" t="s">
         <v>434</v>
-      </c>
-      <c r="E188" t="s">
-        <v>393</v>
       </c>
       <c r="F188" t="s">
         <v>394</v>
@@ -6402,10 +6402,10 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
+        <v>392</v>
+      </c>
+      <c r="E189" t="s">
         <v>434</v>
-      </c>
-      <c r="E189" t="s">
-        <v>393</v>
       </c>
       <c r="F189" t="s">
         <v>394</v>
@@ -6425,10 +6425,10 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
+        <v>392</v>
+      </c>
+      <c r="E190" t="s">
         <v>434</v>
-      </c>
-      <c r="E190" t="s">
-        <v>393</v>
       </c>
       <c r="F190" t="s">
         <v>394</v>
@@ -6448,10 +6448,10 @@
         <v>9</v>
       </c>
       <c r="D191" t="s">
+        <v>392</v>
+      </c>
+      <c r="E191" t="s">
         <v>434</v>
-      </c>
-      <c r="E191" t="s">
-        <v>393</v>
       </c>
       <c r="F191" t="s">
         <v>394</v>
@@ -6471,10 +6471,10 @@
         <v>9</v>
       </c>
       <c r="D192" t="s">
+        <v>392</v>
+      </c>
+      <c r="E192" t="s">
         <v>456</v>
-      </c>
-      <c r="E192" t="s">
-        <v>393</v>
       </c>
       <c r="F192" t="s">
         <v>394</v>

--- a/api/2/clv3/xlsx/en/SectorGroup.xlsx
+++ b/api/2/clv3/xlsx/en/SectorGroup.xlsx
@@ -25,18 +25,18 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:category-code</t>
+  </si>
+  <si>
+    <t>codeforiati:group-code</t>
+  </si>
+  <si>
     <t>codeforiati:group-name</t>
   </si>
   <si>
     <t>codeforiati:category-name</t>
   </si>
   <si>
-    <t>codeforiati:group-code</t>
-  </si>
-  <si>
-    <t>codeforiati:category-code</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -46,18 +46,18 @@
     <t>active</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>Education</t>
   </si>
   <si>
     <t>Education, Level Unspecified</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -82,12 +82,12 @@
     <t>Primary education</t>
   </si>
   <si>
+    <t>112</t>
+  </si>
+  <si>
     <t>Basic Education</t>
   </si>
   <si>
-    <t>112</t>
-  </si>
-  <si>
     <t>11230</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>Upper Secondary Education (modified and includes data from 11322)</t>
   </si>
   <si>
+    <t>113</t>
+  </si>
+  <si>
     <t>Secondary Education</t>
   </si>
   <si>
-    <t>113</t>
-  </si>
-  <si>
     <t>11330</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t>Higher education</t>
   </si>
   <si>
+    <t>114</t>
+  </si>
+  <si>
     <t>Post-Secondary Education</t>
   </si>
   <si>
-    <t>114</t>
-  </si>
-  <si>
     <t>11430</t>
   </si>
   <si>
@@ -166,18 +166,18 @@
     <t>Health policy and administrative management</t>
   </si>
   <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>Health</t>
   </si>
   <si>
     <t>Health, General</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>Basic health care</t>
   </si>
   <si>
+    <t>122</t>
+  </si>
+  <si>
     <t>Basic Health</t>
   </si>
   <si>
-    <t>122</t>
-  </si>
-  <si>
     <t>12230</t>
   </si>
   <si>
@@ -262,12 +262,12 @@
     <t>NCDs control, general</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
     <t>Non-communicable diseases (NCDs)</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>12320</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>Population policy and administrative management</t>
   </si>
   <si>
+    <t>130</t>
+  </si>
+  <si>
     <t>Population Policies/Programmes &amp; Reproductive Health</t>
   </si>
   <si>
-    <t>130</t>
-  </si>
-  <si>
     <t>13020</t>
   </si>
   <si>
@@ -340,12 +340,12 @@
     <t>Water sector policy and administrative management</t>
   </si>
   <si>
+    <t>140</t>
+  </si>
+  <si>
     <t>Water Supply &amp; Sanitation</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
     <t>14015</t>
   </si>
   <si>
@@ -412,18 +412,18 @@
     <t>Public sector policy and administrative management</t>
   </si>
   <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>Government &amp; Civil Society</t>
   </si>
   <si>
     <t>Government &amp; Civil Society-general</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -520,12 +520,12 @@
     <t>Security system management and reform</t>
   </si>
   <si>
+    <t>152</t>
+  </si>
+  <si>
     <t>Conflict, Peace &amp; Security</t>
   </si>
   <si>
-    <t>152</t>
-  </si>
-  <si>
     <t>15220</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>Social Protection</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
     <t>Other Social Infrastructure &amp; Services</t>
   </si>
   <si>
-    <t>160</t>
-  </si>
-  <si>
     <t>16020</t>
   </si>
   <si>
@@ -634,12 +634,12 @@
     <t>Transport policy and administrative management</t>
   </si>
   <si>
+    <t>210</t>
+  </si>
+  <si>
     <t>Transport &amp; Storage</t>
   </si>
   <si>
-    <t>210</t>
-  </si>
-  <si>
     <t>21020</t>
   </si>
   <si>
@@ -682,12 +682,12 @@
     <t>Communications policy and administrative management</t>
   </si>
   <si>
+    <t>220</t>
+  </si>
+  <si>
     <t>Communications</t>
   </si>
   <si>
-    <t>220</t>
-  </si>
-  <si>
     <t>22020</t>
   </si>
   <si>
@@ -712,18 +712,18 @@
     <t>Energy policy and administrative management</t>
   </si>
   <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
     <t>Energy</t>
   </si>
   <si>
     <t>Energy Policy</t>
   </si>
   <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -748,12 +748,12 @@
     <t>Energy generation, renewable sources - multiple technologies</t>
   </si>
   <si>
+    <t>232</t>
+  </si>
+  <si>
     <t>Energy generation, renewable sources</t>
   </si>
   <si>
-    <t>232</t>
-  </si>
-  <si>
     <t>23220</t>
   </si>
   <si>
@@ -808,12 +808,12 @@
     <t>Energy generation, non-renewable sources, unspecified</t>
   </si>
   <si>
+    <t>233</t>
+  </si>
+  <si>
     <t>Energy generation, non-renewable sources</t>
   </si>
   <si>
-    <t>233</t>
-  </si>
-  <si>
     <t>23320</t>
   </si>
   <si>
@@ -850,36 +850,36 @@
     <t>Hybrid energy electric power plants</t>
   </si>
   <si>
+    <t>234</t>
+  </si>
+  <si>
     <t>Hybrid energy plants</t>
   </si>
   <si>
-    <t>234</t>
-  </si>
-  <si>
     <t>23510</t>
   </si>
   <si>
     <t>Nuclear energy electric power plants and nuclear safety</t>
   </si>
   <si>
+    <t>235</t>
+  </si>
+  <si>
     <t>Nuclear energy plants</t>
   </si>
   <si>
-    <t>235</t>
-  </si>
-  <si>
     <t>23610</t>
   </si>
   <si>
     <t>Heat plants</t>
   </si>
   <si>
+    <t>236</t>
+  </si>
+  <si>
     <t>Energy distribution</t>
   </si>
   <si>
-    <t>236</t>
-  </si>
-  <si>
     <t>23620</t>
   </si>
   <si>
@@ -922,12 +922,12 @@
     <t>Financial policy and administrative management</t>
   </si>
   <si>
+    <t>240</t>
+  </si>
+  <si>
     <t>Banking &amp; Financial Services</t>
   </si>
   <si>
-    <t>240</t>
-  </si>
-  <si>
     <t>24020</t>
   </si>
   <si>
@@ -964,12 +964,12 @@
     <t>Business policy and administration</t>
   </si>
   <si>
+    <t>250</t>
+  </si>
+  <si>
     <t>Business &amp; Other Services</t>
   </si>
   <si>
-    <t>250</t>
-  </si>
-  <si>
     <t>25020</t>
   </si>
   <si>
@@ -994,18 +994,18 @@
     <t>Agricultural policy and administrative management</t>
   </si>
   <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
     <t>Agriculture, Forestry, Fishing</t>
   </si>
   <si>
     <t>Agriculture</t>
   </si>
   <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1114,12 +1114,12 @@
     <t>Forestry policy and administrative management</t>
   </si>
   <si>
+    <t>312</t>
+  </si>
+  <si>
     <t>Forestry</t>
   </si>
   <si>
-    <t>312</t>
-  </si>
-  <si>
     <t>31220</t>
   </si>
   <si>
@@ -1156,12 +1156,12 @@
     <t>Fishing policy and administrative management</t>
   </si>
   <si>
+    <t>313</t>
+  </si>
+  <si>
     <t>Fishing</t>
   </si>
   <si>
-    <t>313</t>
-  </si>
-  <si>
     <t>31320</t>
   </si>
   <si>
@@ -1192,18 +1192,18 @@
     <t>Industrial policy and administrative management</t>
   </si>
   <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
     <t>Industry, Mining, Construction</t>
   </si>
   <si>
     <t>Industry</t>
   </si>
   <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
     <t>32120</t>
   </si>
   <si>
@@ -1318,12 +1318,12 @@
     <t>Mineral/mining policy and administrative management</t>
   </si>
   <si>
+    <t>322</t>
+  </si>
+  <si>
     <t>Mineral Resources &amp; Mining</t>
   </si>
   <si>
-    <t>322</t>
-  </si>
-  <si>
     <t>32220</t>
   </si>
   <si>
@@ -1384,24 +1384,24 @@
     <t>Construction policy and administrative management</t>
   </si>
   <si>
+    <t>323</t>
+  </si>
+  <si>
     <t>Construction</t>
   </si>
   <si>
-    <t>323</t>
-  </si>
-  <si>
     <t>33110</t>
   </si>
   <si>
     <t>Trade policy and administrative management</t>
   </si>
   <si>
+    <t>331</t>
+  </si>
+  <si>
     <t>Trade Policies &amp; Regulations</t>
   </si>
   <si>
-    <t>331</t>
-  </si>
-  <si>
     <t>33120</t>
   </si>
   <si>
@@ -1438,24 +1438,24 @@
     <t>Tourism policy and administrative management</t>
   </si>
   <si>
+    <t>332</t>
+  </si>
+  <si>
     <t>Tourism</t>
   </si>
   <si>
-    <t>332</t>
-  </si>
-  <si>
     <t>41010</t>
   </si>
   <si>
     <t>Environmental policy and administrative management</t>
   </si>
   <si>
+    <t>410</t>
+  </si>
+  <si>
     <t>General Environment Protection</t>
   </si>
   <si>
-    <t>410</t>
-  </si>
-  <si>
     <t>41020</t>
   </si>
   <si>
@@ -1492,12 +1492,12 @@
     <t>Multisector aid</t>
   </si>
   <si>
+    <t>430</t>
+  </si>
+  <si>
     <t>Other Multisector</t>
   </si>
   <si>
-    <t>430</t>
-  </si>
-  <si>
     <t>43030</t>
   </si>
   <si>
@@ -1558,36 +1558,36 @@
     <t>General budget support-related aid</t>
   </si>
   <si>
+    <t>510</t>
+  </si>
+  <si>
     <t>General Budget Support</t>
   </si>
   <si>
-    <t>510</t>
-  </si>
-  <si>
     <t>52010</t>
   </si>
   <si>
     <t>Food assistance</t>
   </si>
   <si>
+    <t>520</t>
+  </si>
+  <si>
     <t>Development Food Assistance</t>
   </si>
   <si>
-    <t>520</t>
-  </si>
-  <si>
     <t>53030</t>
   </si>
   <si>
     <t>Import support (capital goods)</t>
   </si>
   <si>
+    <t>530</t>
+  </si>
+  <si>
     <t>Other Commodity Assistance</t>
   </si>
   <si>
-    <t>530</t>
-  </si>
-  <si>
     <t>53040</t>
   </si>
   <si>
@@ -1600,12 +1600,12 @@
     <t>Action relating to debt</t>
   </si>
   <si>
+    <t>600</t>
+  </si>
+  <si>
     <t>Action Relating to Debt</t>
   </si>
   <si>
-    <t>600</t>
-  </si>
-  <si>
     <t>60020</t>
   </si>
   <si>
@@ -1648,12 +1648,12 @@
     <t>Material relief assistance and services</t>
   </si>
   <si>
+    <t>720</t>
+  </si>
+  <si>
     <t>Emergency Response</t>
   </si>
   <si>
-    <t>720</t>
-  </si>
-  <si>
     <t>72040</t>
   </si>
   <si>
@@ -1672,58 +1672,58 @@
     <t>Immediate post-emergency reconstruction and rehabilitation</t>
   </si>
   <si>
+    <t>730</t>
+  </si>
+  <si>
     <t>Reconstruction Relief &amp; Rehabilitation</t>
   </si>
   <si>
-    <t>730</t>
-  </si>
-  <si>
     <t>74020</t>
   </si>
   <si>
     <t>Multi-hazard response preparedness</t>
   </si>
   <si>
+    <t>740</t>
+  </si>
+  <si>
     <t>Disaster Prevention &amp; Preparedness</t>
   </si>
   <si>
-    <t>740</t>
-  </si>
-  <si>
     <t>91010</t>
   </si>
   <si>
     <t>Administrative costs (non-sector allocable)</t>
   </si>
   <si>
+    <t>910</t>
+  </si>
+  <si>
     <t>Administrative Costs of Donors</t>
   </si>
   <si>
-    <t>910</t>
-  </si>
-  <si>
     <t>93010</t>
   </si>
   <si>
     <t>Refugees/asylum seekers in donor countries (non-sector allocable)</t>
   </si>
   <si>
+    <t>930</t>
+  </si>
+  <si>
     <t>Refugees in Donor Countries</t>
   </si>
   <si>
-    <t>930</t>
-  </si>
-  <si>
     <t>99810</t>
   </si>
   <si>
     <t>Sectors not specified</t>
   </si>
   <si>
+    <t>998</t>
+  </si>
+  <si>
     <t>Unallocated / Unspecified</t>
-  </si>
-  <si>
-    <t>998</t>
   </si>
   <si>
     <t>99820</t>
@@ -2193,10 +2193,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -2216,10 +2216,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -2239,10 +2239,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -2262,10 +2262,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -2285,10 +2285,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -2308,10 +2308,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -2331,10 +2331,10 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -2354,10 +2354,10 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -2377,10 +2377,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -2400,10 +2400,10 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -2423,10 +2423,10 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -2538,10 +2538,10 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
         <v>52</v>
@@ -2561,10 +2561,10 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
         <v>52</v>
@@ -2584,10 +2584,10 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
         <v>52</v>
@@ -2607,10 +2607,10 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
         <v>52</v>
@@ -2630,10 +2630,10 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
         <v>52</v>
@@ -2653,10 +2653,10 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
         <v>52</v>
@@ -2676,10 +2676,10 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
         <v>52</v>
@@ -2699,10 +2699,10 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
         <v>52</v>
@@ -2722,10 +2722,10 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
         <v>52</v>
@@ -2745,10 +2745,10 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F30" t="s">
         <v>52</v>
@@ -2768,10 +2768,10 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s">
         <v>52</v>
@@ -2791,10 +2791,10 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
         <v>52</v>
@@ -2814,10 +2814,10 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s">
         <v>52</v>
@@ -2837,10 +2837,10 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s">
         <v>52</v>
@@ -2860,10 +2860,10 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
         <v>52</v>
@@ -3619,10 +3619,10 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E68" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
         <v>134</v>
@@ -3642,10 +3642,10 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E69" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
         <v>134</v>
@@ -3665,10 +3665,10 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E70" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
         <v>134</v>
@@ -3688,10 +3688,10 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E71" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s">
         <v>134</v>
@@ -3711,10 +3711,10 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E72" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="F72" t="s">
         <v>134</v>
@@ -3734,10 +3734,10 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="E73" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="F73" t="s">
         <v>134</v>
@@ -4355,10 +4355,10 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E100" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F100" t="s">
         <v>234</v>
@@ -4378,10 +4378,10 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E101" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F101" t="s">
         <v>234</v>
@@ -4401,10 +4401,10 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E102" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F102" t="s">
         <v>234</v>
@@ -4424,10 +4424,10 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E103" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F103" t="s">
         <v>234</v>
@@ -4447,10 +4447,10 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E104" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F104" t="s">
         <v>234</v>
@@ -4470,10 +4470,10 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E105" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F105" t="s">
         <v>234</v>
@@ -4493,10 +4493,10 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E106" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F106" t="s">
         <v>234</v>
@@ -4516,10 +4516,10 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E107" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F107" t="s">
         <v>234</v>
@@ -4539,10 +4539,10 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="E108" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F108" t="s">
         <v>234</v>
@@ -4562,10 +4562,10 @@
         <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E109" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F109" t="s">
         <v>234</v>
@@ -4585,10 +4585,10 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E110" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F110" t="s">
         <v>234</v>
@@ -4608,10 +4608,10 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E111" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F111" t="s">
         <v>234</v>
@@ -4631,10 +4631,10 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E112" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F112" t="s">
         <v>234</v>
@@ -4654,10 +4654,10 @@
         <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E113" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F113" t="s">
         <v>234</v>
@@ -4677,10 +4677,10 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="E114" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F114" t="s">
         <v>234</v>
@@ -4700,10 +4700,10 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="E115" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="F115" t="s">
         <v>234</v>
@@ -4723,10 +4723,10 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="E116" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c r="F116" t="s">
         <v>234</v>
@@ -4746,10 +4746,10 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E117" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="F117" t="s">
         <v>234</v>
@@ -4769,10 +4769,10 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E118" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="F118" t="s">
         <v>234</v>
@@ -4792,10 +4792,10 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E119" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
         <v>234</v>
@@ -4815,10 +4815,10 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E120" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
         <v>234</v>
@@ -4838,10 +4838,10 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E121" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
         <v>234</v>
@@ -4861,10 +4861,10 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E122" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="F122" t="s">
         <v>234</v>
@@ -4884,10 +4884,10 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E123" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="F123" t="s">
         <v>234</v>
@@ -5551,10 +5551,10 @@
         <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="E152" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="F152" t="s">
         <v>328</v>
@@ -5574,10 +5574,10 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="E153" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="F153" t="s">
         <v>328</v>
@@ -5597,10 +5597,10 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="E154" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="F154" t="s">
         <v>328</v>
@@ -5620,10 +5620,10 @@
         <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="E155" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="F155" t="s">
         <v>328</v>
@@ -5643,10 +5643,10 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="E156" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="F156" t="s">
         <v>328</v>
@@ -5666,10 +5666,10 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="E157" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="F157" t="s">
         <v>328</v>
@@ -5689,10 +5689,10 @@
         <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="E158" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
       <c r="F158" t="s">
         <v>328</v>
@@ -5712,10 +5712,10 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="E159" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
       <c r="F159" t="s">
         <v>328</v>
@@ -5735,10 +5735,10 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="E160" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
       <c r="F160" t="s">
         <v>328</v>
@@ -5758,10 +5758,10 @@
         <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="E161" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
       <c r="F161" t="s">
         <v>328</v>
@@ -5781,10 +5781,10 @@
         <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="E162" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
       <c r="F162" t="s">
         <v>328</v>
@@ -6241,10 +6241,10 @@
         <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E182" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F182" t="s">
         <v>394</v>
@@ -6264,10 +6264,10 @@
         <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E183" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F183" t="s">
         <v>394</v>
@@ -6287,10 +6287,10 @@
         <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E184" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F184" t="s">
         <v>394</v>
@@ -6310,10 +6310,10 @@
         <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E185" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F185" t="s">
         <v>394</v>
@@ -6333,10 +6333,10 @@
         <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E186" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F186" t="s">
         <v>394</v>
@@ -6356,10 +6356,10 @@
         <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E187" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F187" t="s">
         <v>394</v>
@@ -6379,10 +6379,10 @@
         <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E188" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F188" t="s">
         <v>394</v>
@@ -6402,10 +6402,10 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E189" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F189" t="s">
         <v>394</v>
@@ -6425,10 +6425,10 @@
         <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E190" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F190" t="s">
         <v>394</v>
@@ -6448,10 +6448,10 @@
         <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="E191" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="F191" t="s">
         <v>394</v>
@@ -6471,10 +6471,10 @@
         <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="E192" t="s">
-        <v>456</v>
+        <v>393</v>
       </c>
       <c r="F192" t="s">
         <v>394</v>

--- a/api/2/clv3/xlsx/en/SectorGroup.xlsx
+++ b/api/2/clv3/xlsx/en/SectorGroup.xlsx
@@ -28,15 +28,15 @@
     <t>codeforiati:category-code</t>
   </si>
   <si>
+    <t>codeforiati:category-name</t>
+  </si>
+  <si>
     <t>codeforiati:group-code</t>
   </si>
   <si>
     <t>codeforiati:group-name</t>
   </si>
   <si>
-    <t>codeforiati:category-name</t>
-  </si>
-  <si>
     <t>11110</t>
   </si>
   <si>
@@ -49,15 +49,15 @@
     <t>111</t>
   </si>
   <si>
+    <t>Education, Level Unspecified</t>
+  </si>
+  <si>
     <t>110</t>
   </si>
   <si>
     <t>Education</t>
   </si>
   <si>
-    <t>Education, Level Unspecified</t>
-  </si>
-  <si>
     <t>11120</t>
   </si>
   <si>
@@ -169,15 +169,15 @@
     <t>121</t>
   </si>
   <si>
+    <t>Health, General</t>
+  </si>
+  <si>
     <t>120</t>
   </si>
   <si>
     <t>Health</t>
   </si>
   <si>
-    <t>Health, General</t>
-  </si>
-  <si>
     <t>12181</t>
   </si>
   <si>
@@ -415,15 +415,15 @@
     <t>151</t>
   </si>
   <si>
+    <t>Government &amp; Civil Society-general</t>
+  </si>
+  <si>
     <t>150</t>
   </si>
   <si>
     <t>Government &amp; Civil Society</t>
   </si>
   <si>
-    <t>Government &amp; Civil Society-general</t>
-  </si>
-  <si>
     <t>15111</t>
   </si>
   <si>
@@ -715,15 +715,15 @@
     <t>231</t>
   </si>
   <si>
+    <t>Energy Policy</t>
+  </si>
+  <si>
     <t>230</t>
   </si>
   <si>
     <t>Energy</t>
   </si>
   <si>
-    <t>Energy Policy</t>
-  </si>
-  <si>
     <t>23181</t>
   </si>
   <si>
@@ -997,15 +997,15 @@
     <t>311</t>
   </si>
   <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
     <t>310</t>
   </si>
   <si>
     <t>Agriculture, Forestry, Fishing</t>
   </si>
   <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
     <t>31120</t>
   </si>
   <si>
@@ -1195,13 +1195,13 @@
     <t>321</t>
   </si>
   <si>
+    <t>Industry</t>
+  </si>
+  <si>
     <t>320</t>
   </si>
   <si>
     <t>Industry, Mining, Construction</t>
-  </si>
-  <si>
-    <t>Industry</t>
   </si>
   <si>
     <t>32120</t>
@@ -2196,13 +2196,13 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2219,13 +2219,13 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2242,13 +2242,13 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2265,13 +2265,13 @@
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2288,13 +2288,13 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2311,13 +2311,13 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2334,13 +2334,13 @@
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2357,13 +2357,13 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2380,13 +2380,13 @@
         <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2403,13 +2403,13 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2426,13 +2426,13 @@
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2541,13 +2541,13 @@
         <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
         <v>52</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2564,13 +2564,13 @@
         <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s">
         <v>52</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2587,13 +2587,13 @@
         <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
         <v>52</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2610,13 +2610,13 @@
         <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s">
         <v>52</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2633,13 +2633,13 @@
         <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F25" t="s">
         <v>52</v>
       </c>
       <c r="G25" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2656,13 +2656,13 @@
         <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
         <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2679,13 +2679,13 @@
         <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F27" t="s">
         <v>52</v>
       </c>
       <c r="G27" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2702,13 +2702,13 @@
         <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F28" t="s">
         <v>52</v>
       </c>
       <c r="G28" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2725,13 +2725,13 @@
         <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F29" t="s">
         <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2748,13 +2748,13 @@
         <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="F30" t="s">
         <v>52</v>
       </c>
       <c r="G30" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2771,13 +2771,13 @@
         <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="F31" t="s">
         <v>52</v>
       </c>
       <c r="G31" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2794,13 +2794,13 @@
         <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="F32" t="s">
         <v>52</v>
       </c>
       <c r="G32" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2817,13 +2817,13 @@
         <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="F33" t="s">
         <v>52</v>
       </c>
       <c r="G33" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2840,13 +2840,13 @@
         <v>82</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="F34" t="s">
         <v>52</v>
       </c>
       <c r="G34" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2863,13 +2863,13 @@
         <v>82</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="F35" t="s">
         <v>52</v>
       </c>
       <c r="G35" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2886,10 +2886,10 @@
         <v>96</v>
       </c>
       <c r="E36" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" t="s">
         <v>96</v>
-      </c>
-      <c r="F36" t="s">
-        <v>97</v>
       </c>
       <c r="G36" t="s">
         <v>97</v>
@@ -2909,10 +2909,10 @@
         <v>96</v>
       </c>
       <c r="E37" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" t="s">
         <v>96</v>
-      </c>
-      <c r="F37" t="s">
-        <v>97</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -2932,10 +2932,10 @@
         <v>96</v>
       </c>
       <c r="E38" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" t="s">
         <v>96</v>
-      </c>
-      <c r="F38" t="s">
-        <v>97</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -2955,10 +2955,10 @@
         <v>96</v>
       </c>
       <c r="E39" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" t="s">
         <v>96</v>
-      </c>
-      <c r="F39" t="s">
-        <v>97</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -2978,10 +2978,10 @@
         <v>96</v>
       </c>
       <c r="E40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" t="s">
         <v>96</v>
-      </c>
-      <c r="F40" t="s">
-        <v>97</v>
       </c>
       <c r="G40" t="s">
         <v>97</v>
@@ -3001,10 +3001,10 @@
         <v>108</v>
       </c>
       <c r="E41" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" t="s">
         <v>108</v>
-      </c>
-      <c r="F41" t="s">
-        <v>109</v>
       </c>
       <c r="G41" t="s">
         <v>109</v>
@@ -3024,10 +3024,10 @@
         <v>108</v>
       </c>
       <c r="E42" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" t="s">
         <v>108</v>
-      </c>
-      <c r="F42" t="s">
-        <v>109</v>
       </c>
       <c r="G42" t="s">
         <v>109</v>
@@ -3047,10 +3047,10 @@
         <v>108</v>
       </c>
       <c r="E43" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" t="s">
         <v>108</v>
-      </c>
-      <c r="F43" t="s">
-        <v>109</v>
       </c>
       <c r="G43" t="s">
         <v>109</v>
@@ -3070,10 +3070,10 @@
         <v>108</v>
       </c>
       <c r="E44" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" t="s">
         <v>108</v>
-      </c>
-      <c r="F44" t="s">
-        <v>109</v>
       </c>
       <c r="G44" t="s">
         <v>109</v>
@@ -3093,10 +3093,10 @@
         <v>108</v>
       </c>
       <c r="E45" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" t="s">
         <v>108</v>
-      </c>
-      <c r="F45" t="s">
-        <v>109</v>
       </c>
       <c r="G45" t="s">
         <v>109</v>
@@ -3116,10 +3116,10 @@
         <v>108</v>
       </c>
       <c r="E46" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" t="s">
         <v>108</v>
-      </c>
-      <c r="F46" t="s">
-        <v>109</v>
       </c>
       <c r="G46" t="s">
         <v>109</v>
@@ -3139,10 +3139,10 @@
         <v>108</v>
       </c>
       <c r="E47" t="s">
+        <v>109</v>
+      </c>
+      <c r="F47" t="s">
         <v>108</v>
-      </c>
-      <c r="F47" t="s">
-        <v>109</v>
       </c>
       <c r="G47" t="s">
         <v>109</v>
@@ -3162,10 +3162,10 @@
         <v>108</v>
       </c>
       <c r="E48" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" t="s">
         <v>108</v>
-      </c>
-      <c r="F48" t="s">
-        <v>109</v>
       </c>
       <c r="G48" t="s">
         <v>109</v>
@@ -3185,10 +3185,10 @@
         <v>108</v>
       </c>
       <c r="E49" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49" t="s">
         <v>108</v>
-      </c>
-      <c r="F49" t="s">
-        <v>109</v>
       </c>
       <c r="G49" t="s">
         <v>109</v>
@@ -3208,10 +3208,10 @@
         <v>108</v>
       </c>
       <c r="E50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" t="s">
         <v>108</v>
-      </c>
-      <c r="F50" t="s">
-        <v>109</v>
       </c>
       <c r="G50" t="s">
         <v>109</v>
@@ -3231,10 +3231,10 @@
         <v>108</v>
       </c>
       <c r="E51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" t="s">
         <v>108</v>
-      </c>
-      <c r="F51" t="s">
-        <v>109</v>
       </c>
       <c r="G51" t="s">
         <v>109</v>
@@ -3622,13 +3622,13 @@
         <v>168</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="F68" t="s">
         <v>134</v>
       </c>
       <c r="G68" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3645,13 +3645,13 @@
         <v>168</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="F69" t="s">
         <v>134</v>
       </c>
       <c r="G69" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3668,13 +3668,13 @@
         <v>168</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="F70" t="s">
         <v>134</v>
       </c>
       <c r="G70" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3691,13 +3691,13 @@
         <v>168</v>
       </c>
       <c r="E71" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="F71" t="s">
         <v>134</v>
       </c>
       <c r="G71" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3714,13 +3714,13 @@
         <v>168</v>
       </c>
       <c r="E72" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="F72" t="s">
         <v>134</v>
       </c>
       <c r="G72" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3737,13 +3737,13 @@
         <v>168</v>
       </c>
       <c r="E73" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="F73" t="s">
         <v>134</v>
       </c>
       <c r="G73" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3760,10 +3760,10 @@
         <v>182</v>
       </c>
       <c r="E74" t="s">
+        <v>183</v>
+      </c>
+      <c r="F74" t="s">
         <v>182</v>
-      </c>
-      <c r="F74" t="s">
-        <v>183</v>
       </c>
       <c r="G74" t="s">
         <v>183</v>
@@ -3783,10 +3783,10 @@
         <v>182</v>
       </c>
       <c r="E75" t="s">
+        <v>183</v>
+      </c>
+      <c r="F75" t="s">
         <v>182</v>
-      </c>
-      <c r="F75" t="s">
-        <v>183</v>
       </c>
       <c r="G75" t="s">
         <v>183</v>
@@ -3806,10 +3806,10 @@
         <v>182</v>
       </c>
       <c r="E76" t="s">
+        <v>183</v>
+      </c>
+      <c r="F76" t="s">
         <v>182</v>
-      </c>
-      <c r="F76" t="s">
-        <v>183</v>
       </c>
       <c r="G76" t="s">
         <v>183</v>
@@ -3829,10 +3829,10 @@
         <v>182</v>
       </c>
       <c r="E77" t="s">
+        <v>183</v>
+      </c>
+      <c r="F77" t="s">
         <v>182</v>
-      </c>
-      <c r="F77" t="s">
-        <v>183</v>
       </c>
       <c r="G77" t="s">
         <v>183</v>
@@ -3852,10 +3852,10 @@
         <v>182</v>
       </c>
       <c r="E78" t="s">
+        <v>183</v>
+      </c>
+      <c r="F78" t="s">
         <v>182</v>
-      </c>
-      <c r="F78" t="s">
-        <v>183</v>
       </c>
       <c r="G78" t="s">
         <v>183</v>
@@ -3875,10 +3875,10 @@
         <v>182</v>
       </c>
       <c r="E79" t="s">
+        <v>183</v>
+      </c>
+      <c r="F79" t="s">
         <v>182</v>
-      </c>
-      <c r="F79" t="s">
-        <v>183</v>
       </c>
       <c r="G79" t="s">
         <v>183</v>
@@ -3898,10 +3898,10 @@
         <v>182</v>
       </c>
       <c r="E80" t="s">
+        <v>183</v>
+      </c>
+      <c r="F80" t="s">
         <v>182</v>
-      </c>
-      <c r="F80" t="s">
-        <v>183</v>
       </c>
       <c r="G80" t="s">
         <v>183</v>
@@ -3921,10 +3921,10 @@
         <v>182</v>
       </c>
       <c r="E81" t="s">
+        <v>183</v>
+      </c>
+      <c r="F81" t="s">
         <v>182</v>
-      </c>
-      <c r="F81" t="s">
-        <v>183</v>
       </c>
       <c r="G81" t="s">
         <v>183</v>
@@ -3944,10 +3944,10 @@
         <v>182</v>
       </c>
       <c r="E82" t="s">
+        <v>183</v>
+      </c>
+      <c r="F82" t="s">
         <v>182</v>
-      </c>
-      <c r="F82" t="s">
-        <v>183</v>
       </c>
       <c r="G82" t="s">
         <v>183</v>
@@ -3967,10 +3967,10 @@
         <v>182</v>
       </c>
       <c r="E83" t="s">
+        <v>183</v>
+      </c>
+      <c r="F83" t="s">
         <v>182</v>
-      </c>
-      <c r="F83" t="s">
-        <v>183</v>
       </c>
       <c r="G83" t="s">
         <v>183</v>
@@ -3990,10 +3990,10 @@
         <v>182</v>
       </c>
       <c r="E84" t="s">
+        <v>183</v>
+      </c>
+      <c r="F84" t="s">
         <v>182</v>
-      </c>
-      <c r="F84" t="s">
-        <v>183</v>
       </c>
       <c r="G84" t="s">
         <v>183</v>
@@ -4013,10 +4013,10 @@
         <v>206</v>
       </c>
       <c r="E85" t="s">
+        <v>207</v>
+      </c>
+      <c r="F85" t="s">
         <v>206</v>
-      </c>
-      <c r="F85" t="s">
-        <v>207</v>
       </c>
       <c r="G85" t="s">
         <v>207</v>
@@ -4036,10 +4036,10 @@
         <v>206</v>
       </c>
       <c r="E86" t="s">
+        <v>207</v>
+      </c>
+      <c r="F86" t="s">
         <v>206</v>
-      </c>
-      <c r="F86" t="s">
-        <v>207</v>
       </c>
       <c r="G86" t="s">
         <v>207</v>
@@ -4059,10 +4059,10 @@
         <v>206</v>
       </c>
       <c r="E87" t="s">
+        <v>207</v>
+      </c>
+      <c r="F87" t="s">
         <v>206</v>
-      </c>
-      <c r="F87" t="s">
-        <v>207</v>
       </c>
       <c r="G87" t="s">
         <v>207</v>
@@ -4082,10 +4082,10 @@
         <v>206</v>
       </c>
       <c r="E88" t="s">
+        <v>207</v>
+      </c>
+      <c r="F88" t="s">
         <v>206</v>
-      </c>
-      <c r="F88" t="s">
-        <v>207</v>
       </c>
       <c r="G88" t="s">
         <v>207</v>
@@ -4105,10 +4105,10 @@
         <v>206</v>
       </c>
       <c r="E89" t="s">
+        <v>207</v>
+      </c>
+      <c r="F89" t="s">
         <v>206</v>
-      </c>
-      <c r="F89" t="s">
-        <v>207</v>
       </c>
       <c r="G89" t="s">
         <v>207</v>
@@ -4128,10 +4128,10 @@
         <v>206</v>
       </c>
       <c r="E90" t="s">
+        <v>207</v>
+      </c>
+      <c r="F90" t="s">
         <v>206</v>
-      </c>
-      <c r="F90" t="s">
-        <v>207</v>
       </c>
       <c r="G90" t="s">
         <v>207</v>
@@ -4151,10 +4151,10 @@
         <v>206</v>
       </c>
       <c r="E91" t="s">
+        <v>207</v>
+      </c>
+      <c r="F91" t="s">
         <v>206</v>
-      </c>
-      <c r="F91" t="s">
-        <v>207</v>
       </c>
       <c r="G91" t="s">
         <v>207</v>
@@ -4174,10 +4174,10 @@
         <v>222</v>
       </c>
       <c r="E92" t="s">
+        <v>223</v>
+      </c>
+      <c r="F92" t="s">
         <v>222</v>
-      </c>
-      <c r="F92" t="s">
-        <v>223</v>
       </c>
       <c r="G92" t="s">
         <v>223</v>
@@ -4197,10 +4197,10 @@
         <v>222</v>
       </c>
       <c r="E93" t="s">
+        <v>223</v>
+      </c>
+      <c r="F93" t="s">
         <v>222</v>
-      </c>
-      <c r="F93" t="s">
-        <v>223</v>
       </c>
       <c r="G93" t="s">
         <v>223</v>
@@ -4220,10 +4220,10 @@
         <v>222</v>
       </c>
       <c r="E94" t="s">
+        <v>223</v>
+      </c>
+      <c r="F94" t="s">
         <v>222</v>
-      </c>
-      <c r="F94" t="s">
-        <v>223</v>
       </c>
       <c r="G94" t="s">
         <v>223</v>
@@ -4243,10 +4243,10 @@
         <v>222</v>
       </c>
       <c r="E95" t="s">
+        <v>223</v>
+      </c>
+      <c r="F95" t="s">
         <v>222</v>
-      </c>
-      <c r="F95" t="s">
-        <v>223</v>
       </c>
       <c r="G95" t="s">
         <v>223</v>
@@ -4358,13 +4358,13 @@
         <v>244</v>
       </c>
       <c r="E100" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="F100" t="s">
         <v>234</v>
       </c>
       <c r="G100" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4381,13 +4381,13 @@
         <v>244</v>
       </c>
       <c r="E101" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="F101" t="s">
         <v>234</v>
       </c>
       <c r="G101" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4404,13 +4404,13 @@
         <v>244</v>
       </c>
       <c r="E102" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="F102" t="s">
         <v>234</v>
       </c>
       <c r="G102" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4427,13 +4427,13 @@
         <v>244</v>
       </c>
       <c r="E103" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="F103" t="s">
         <v>234</v>
       </c>
       <c r="G103" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4450,13 +4450,13 @@
         <v>244</v>
       </c>
       <c r="E104" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="F104" t="s">
         <v>234</v>
       </c>
       <c r="G104" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4473,13 +4473,13 @@
         <v>244</v>
       </c>
       <c r="E105" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="F105" t="s">
         <v>234</v>
       </c>
       <c r="G105" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4496,13 +4496,13 @@
         <v>244</v>
       </c>
       <c r="E106" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="F106" t="s">
         <v>234</v>
       </c>
       <c r="G106" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4519,13 +4519,13 @@
         <v>244</v>
       </c>
       <c r="E107" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="F107" t="s">
         <v>234</v>
       </c>
       <c r="G107" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4542,13 +4542,13 @@
         <v>244</v>
       </c>
       <c r="E108" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="F108" t="s">
         <v>234</v>
       </c>
       <c r="G108" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4565,13 +4565,13 @@
         <v>264</v>
       </c>
       <c r="E109" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="F109" t="s">
         <v>234</v>
       </c>
       <c r="G109" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4588,13 +4588,13 @@
         <v>264</v>
       </c>
       <c r="E110" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="F110" t="s">
         <v>234</v>
       </c>
       <c r="G110" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4611,13 +4611,13 @@
         <v>264</v>
       </c>
       <c r="E111" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="F111" t="s">
         <v>234</v>
       </c>
       <c r="G111" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4634,13 +4634,13 @@
         <v>264</v>
       </c>
       <c r="E112" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="F112" t="s">
         <v>234</v>
       </c>
       <c r="G112" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4657,13 +4657,13 @@
         <v>264</v>
       </c>
       <c r="E113" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="F113" t="s">
         <v>234</v>
       </c>
       <c r="G113" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4680,13 +4680,13 @@
         <v>264</v>
       </c>
       <c r="E114" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="F114" t="s">
         <v>234</v>
       </c>
       <c r="G114" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4703,13 +4703,13 @@
         <v>278</v>
       </c>
       <c r="E115" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
       <c r="F115" t="s">
         <v>234</v>
       </c>
       <c r="G115" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4726,13 +4726,13 @@
         <v>282</v>
       </c>
       <c r="E116" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="F116" t="s">
         <v>234</v>
       </c>
       <c r="G116" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4749,13 +4749,13 @@
         <v>286</v>
       </c>
       <c r="E117" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="F117" t="s">
         <v>234</v>
       </c>
       <c r="G117" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4772,13 +4772,13 @@
         <v>286</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="F118" t="s">
         <v>234</v>
       </c>
       <c r="G118" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4795,13 +4795,13 @@
         <v>286</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="F119" t="s">
         <v>234</v>
       </c>
       <c r="G119" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4818,13 +4818,13 @@
         <v>286</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="F120" t="s">
         <v>234</v>
       </c>
       <c r="G120" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4841,13 +4841,13 @@
         <v>286</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="F121" t="s">
         <v>234</v>
       </c>
       <c r="G121" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4864,13 +4864,13 @@
         <v>286</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="F122" t="s">
         <v>234</v>
       </c>
       <c r="G122" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4887,13 +4887,13 @@
         <v>286</v>
       </c>
       <c r="E123" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="F123" t="s">
         <v>234</v>
       </c>
       <c r="G123" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4910,10 +4910,10 @@
         <v>302</v>
       </c>
       <c r="E124" t="s">
+        <v>303</v>
+      </c>
+      <c r="F124" t="s">
         <v>302</v>
-      </c>
-      <c r="F124" t="s">
-        <v>303</v>
       </c>
       <c r="G124" t="s">
         <v>303</v>
@@ -4933,10 +4933,10 @@
         <v>302</v>
       </c>
       <c r="E125" t="s">
+        <v>303</v>
+      </c>
+      <c r="F125" t="s">
         <v>302</v>
-      </c>
-      <c r="F125" t="s">
-        <v>303</v>
       </c>
       <c r="G125" t="s">
         <v>303</v>
@@ -4956,10 +4956,10 @@
         <v>302</v>
       </c>
       <c r="E126" t="s">
+        <v>303</v>
+      </c>
+      <c r="F126" t="s">
         <v>302</v>
-      </c>
-      <c r="F126" t="s">
-        <v>303</v>
       </c>
       <c r="G126" t="s">
         <v>303</v>
@@ -4979,10 +4979,10 @@
         <v>302</v>
       </c>
       <c r="E127" t="s">
+        <v>303</v>
+      </c>
+      <c r="F127" t="s">
         <v>302</v>
-      </c>
-      <c r="F127" t="s">
-        <v>303</v>
       </c>
       <c r="G127" t="s">
         <v>303</v>
@@ -5002,10 +5002,10 @@
         <v>302</v>
       </c>
       <c r="E128" t="s">
+        <v>303</v>
+      </c>
+      <c r="F128" t="s">
         <v>302</v>
-      </c>
-      <c r="F128" t="s">
-        <v>303</v>
       </c>
       <c r="G128" t="s">
         <v>303</v>
@@ -5025,10 +5025,10 @@
         <v>302</v>
       </c>
       <c r="E129" t="s">
+        <v>303</v>
+      </c>
+      <c r="F129" t="s">
         <v>302</v>
-      </c>
-      <c r="F129" t="s">
-        <v>303</v>
       </c>
       <c r="G129" t="s">
         <v>303</v>
@@ -5048,10 +5048,10 @@
         <v>316</v>
       </c>
       <c r="E130" t="s">
+        <v>317</v>
+      </c>
+      <c r="F130" t="s">
         <v>316</v>
-      </c>
-      <c r="F130" t="s">
-        <v>317</v>
       </c>
       <c r="G130" t="s">
         <v>317</v>
@@ -5071,10 +5071,10 @@
         <v>316</v>
       </c>
       <c r="E131" t="s">
+        <v>317</v>
+      </c>
+      <c r="F131" t="s">
         <v>316</v>
-      </c>
-      <c r="F131" t="s">
-        <v>317</v>
       </c>
       <c r="G131" t="s">
         <v>317</v>
@@ -5094,10 +5094,10 @@
         <v>316</v>
       </c>
       <c r="E132" t="s">
+        <v>317</v>
+      </c>
+      <c r="F132" t="s">
         <v>316</v>
-      </c>
-      <c r="F132" t="s">
-        <v>317</v>
       </c>
       <c r="G132" t="s">
         <v>317</v>
@@ -5117,10 +5117,10 @@
         <v>316</v>
       </c>
       <c r="E133" t="s">
+        <v>317</v>
+      </c>
+      <c r="F133" t="s">
         <v>316</v>
-      </c>
-      <c r="F133" t="s">
-        <v>317</v>
       </c>
       <c r="G133" t="s">
         <v>317</v>
@@ -5554,13 +5554,13 @@
         <v>366</v>
       </c>
       <c r="E152" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="F152" t="s">
         <v>328</v>
       </c>
       <c r="G152" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5577,13 +5577,13 @@
         <v>366</v>
       </c>
       <c r="E153" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="F153" t="s">
         <v>328</v>
       </c>
       <c r="G153" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5600,13 +5600,13 @@
         <v>366</v>
       </c>
       <c r="E154" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="F154" t="s">
         <v>328</v>
       </c>
       <c r="G154" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5623,13 +5623,13 @@
         <v>366</v>
       </c>
       <c r="E155" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="F155" t="s">
         <v>328</v>
       </c>
       <c r="G155" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5646,13 +5646,13 @@
         <v>366</v>
       </c>
       <c r="E156" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="F156" t="s">
         <v>328</v>
       </c>
       <c r="G156" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5669,13 +5669,13 @@
         <v>366</v>
       </c>
       <c r="E157" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="F157" t="s">
         <v>328</v>
       </c>
       <c r="G157" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5692,13 +5692,13 @@
         <v>380</v>
       </c>
       <c r="E158" t="s">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="F158" t="s">
         <v>328</v>
       </c>
       <c r="G158" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5715,13 +5715,13 @@
         <v>380</v>
       </c>
       <c r="E159" t="s">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="F159" t="s">
         <v>328</v>
       </c>
       <c r="G159" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5738,13 +5738,13 @@
         <v>380</v>
       </c>
       <c r="E160" t="s">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="F160" t="s">
         <v>328</v>
       </c>
       <c r="G160" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5761,13 +5761,13 @@
         <v>380</v>
       </c>
       <c r="E161" t="s">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="F161" t="s">
         <v>328</v>
       </c>
       <c r="G161" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5784,13 +5784,13 @@
         <v>380</v>
       </c>
       <c r="E162" t="s">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="F162" t="s">
         <v>328</v>
       </c>
       <c r="G162" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -6244,13 +6244,13 @@
         <v>434</v>
       </c>
       <c r="E182" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="F182" t="s">
         <v>394</v>
       </c>
       <c r="G182" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6267,13 +6267,13 @@
         <v>434</v>
       </c>
       <c r="E183" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="F183" t="s">
         <v>394</v>
       </c>
       <c r="G183" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6290,13 +6290,13 @@
         <v>434</v>
       </c>
       <c r="E184" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="F184" t="s">
         <v>394</v>
       </c>
       <c r="G184" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6313,13 +6313,13 @@
         <v>434</v>
       </c>
       <c r="E185" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="F185" t="s">
         <v>394</v>
       </c>
       <c r="G185" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6336,13 +6336,13 @@
         <v>434</v>
       </c>
       <c r="E186" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="F186" t="s">
         <v>394</v>
       </c>
       <c r="G186" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6359,13 +6359,13 @@
         <v>434</v>
       </c>
       <c r="E187" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="F187" t="s">
         <v>394</v>
       </c>
       <c r="G187" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6382,13 +6382,13 @@
         <v>434</v>
       </c>
       <c r="E188" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="F188" t="s">
         <v>394</v>
       </c>
       <c r="G188" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6405,13 +6405,13 @@
         <v>434</v>
       </c>
       <c r="E189" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="F189" t="s">
         <v>394</v>
       </c>
       <c r="G189" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6428,13 +6428,13 @@
         <v>434</v>
       </c>
       <c r="E190" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="F190" t="s">
         <v>394</v>
       </c>
       <c r="G190" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6451,13 +6451,13 @@
         <v>434</v>
       </c>
       <c r="E191" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="F191" t="s">
         <v>394</v>
       </c>
       <c r="G191" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6474,13 +6474,13 @@
         <v>456</v>
       </c>
       <c r="E192" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="F192" t="s">
         <v>394</v>
       </c>
       <c r="G192" t="s">
-        <v>457</v>
+        <v>395</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6497,10 +6497,10 @@
         <v>460</v>
       </c>
       <c r="E193" t="s">
+        <v>461</v>
+      </c>
+      <c r="F193" t="s">
         <v>460</v>
-      </c>
-      <c r="F193" t="s">
-        <v>461</v>
       </c>
       <c r="G193" t="s">
         <v>461</v>
@@ -6520,10 +6520,10 @@
         <v>460</v>
       </c>
       <c r="E194" t="s">
+        <v>461</v>
+      </c>
+      <c r="F194" t="s">
         <v>460</v>
-      </c>
-      <c r="F194" t="s">
-        <v>461</v>
       </c>
       <c r="G194" t="s">
         <v>461</v>
@@ -6543,10 +6543,10 @@
         <v>460</v>
       </c>
       <c r="E195" t="s">
+        <v>461</v>
+      </c>
+      <c r="F195" t="s">
         <v>460</v>
-      </c>
-      <c r="F195" t="s">
-        <v>461</v>
       </c>
       <c r="G195" t="s">
         <v>461</v>
@@ -6566,10 +6566,10 @@
         <v>460</v>
       </c>
       <c r="E196" t="s">
+        <v>461</v>
+      </c>
+      <c r="F196" t="s">
         <v>460</v>
-      </c>
-      <c r="F196" t="s">
-        <v>461</v>
       </c>
       <c r="G196" t="s">
         <v>461</v>
@@ -6589,10 +6589,10 @@
         <v>460</v>
       </c>
       <c r="E197" t="s">
+        <v>461</v>
+      </c>
+      <c r="F197" t="s">
         <v>460</v>
-      </c>
-      <c r="F197" t="s">
-        <v>461</v>
       </c>
       <c r="G197" t="s">
         <v>461</v>
@@ -6612,10 +6612,10 @@
         <v>460</v>
       </c>
       <c r="E198" t="s">
+        <v>461</v>
+      </c>
+      <c r="F198" t="s">
         <v>460</v>
-      </c>
-      <c r="F198" t="s">
-        <v>461</v>
       </c>
       <c r="G198" t="s">
         <v>461</v>
@@ -6635,10 +6635,10 @@
         <v>474</v>
       </c>
       <c r="E199" t="s">
+        <v>475</v>
+      </c>
+      <c r="F199" t="s">
         <v>474</v>
-      </c>
-      <c r="F199" t="s">
-        <v>475</v>
       </c>
       <c r="G199" t="s">
         <v>475</v>
@@ -6658,10 +6658,10 @@
         <v>478</v>
       </c>
       <c r="E200" t="s">
+        <v>479</v>
+      </c>
+      <c r="F200" t="s">
         <v>478</v>
-      </c>
-      <c r="F200" t="s">
-        <v>479</v>
       </c>
       <c r="G200" t="s">
         <v>479</v>
@@ -6681,10 +6681,10 @@
         <v>478</v>
       </c>
       <c r="E201" t="s">
+        <v>479</v>
+      </c>
+      <c r="F201" t="s">
         <v>478</v>
-      </c>
-      <c r="F201" t="s">
-        <v>479</v>
       </c>
       <c r="G201" t="s">
         <v>479</v>
@@ -6704,10 +6704,10 @@
         <v>478</v>
       </c>
       <c r="E202" t="s">
+        <v>479</v>
+      </c>
+      <c r="F202" t="s">
         <v>478</v>
-      </c>
-      <c r="F202" t="s">
-        <v>479</v>
       </c>
       <c r="G202" t="s">
         <v>479</v>
@@ -6727,10 +6727,10 @@
         <v>478</v>
       </c>
       <c r="E203" t="s">
+        <v>479</v>
+      </c>
+      <c r="F203" t="s">
         <v>478</v>
-      </c>
-      <c r="F203" t="s">
-        <v>479</v>
       </c>
       <c r="G203" t="s">
         <v>479</v>
@@ -6750,10 +6750,10 @@
         <v>478</v>
       </c>
       <c r="E204" t="s">
+        <v>479</v>
+      </c>
+      <c r="F204" t="s">
         <v>478</v>
-      </c>
-      <c r="F204" t="s">
-        <v>479</v>
       </c>
       <c r="G204" t="s">
         <v>479</v>
@@ -6773,10 +6773,10 @@
         <v>478</v>
       </c>
       <c r="E205" t="s">
+        <v>479</v>
+      </c>
+      <c r="F205" t="s">
         <v>478</v>
-      </c>
-      <c r="F205" t="s">
-        <v>479</v>
       </c>
       <c r="G205" t="s">
         <v>479</v>
@@ -6796,10 +6796,10 @@
         <v>492</v>
       </c>
       <c r="E206" t="s">
+        <v>493</v>
+      </c>
+      <c r="F206" t="s">
         <v>492</v>
-      </c>
-      <c r="F206" t="s">
-        <v>493</v>
       </c>
       <c r="G206" t="s">
         <v>493</v>
@@ -6819,10 +6819,10 @@
         <v>492</v>
       </c>
       <c r="E207" t="s">
+        <v>493</v>
+      </c>
+      <c r="F207" t="s">
         <v>492</v>
-      </c>
-      <c r="F207" t="s">
-        <v>493</v>
       </c>
       <c r="G207" t="s">
         <v>493</v>
@@ -6842,10 +6842,10 @@
         <v>492</v>
       </c>
       <c r="E208" t="s">
+        <v>493</v>
+      </c>
+      <c r="F208" t="s">
         <v>492</v>
-      </c>
-      <c r="F208" t="s">
-        <v>493</v>
       </c>
       <c r="G208" t="s">
         <v>493</v>
@@ -6865,10 +6865,10 @@
         <v>492</v>
       </c>
       <c r="E209" t="s">
+        <v>493</v>
+      </c>
+      <c r="F209" t="s">
         <v>492</v>
-      </c>
-      <c r="F209" t="s">
-        <v>493</v>
       </c>
       <c r="G209" t="s">
         <v>493</v>
@@ -6888,10 +6888,10 @@
         <v>492</v>
       </c>
       <c r="E210" t="s">
+        <v>493</v>
+      </c>
+      <c r="F210" t="s">
         <v>492</v>
-      </c>
-      <c r="F210" t="s">
-        <v>493</v>
       </c>
       <c r="G210" t="s">
         <v>493</v>
@@ -6911,10 +6911,10 @@
         <v>492</v>
       </c>
       <c r="E211" t="s">
+        <v>493</v>
+      </c>
+      <c r="F211" t="s">
         <v>492</v>
-      </c>
-      <c r="F211" t="s">
-        <v>493</v>
       </c>
       <c r="G211" t="s">
         <v>493</v>
@@ -6934,10 +6934,10 @@
         <v>492</v>
       </c>
       <c r="E212" t="s">
+        <v>493</v>
+      </c>
+      <c r="F212" t="s">
         <v>492</v>
-      </c>
-      <c r="F212" t="s">
-        <v>493</v>
       </c>
       <c r="G212" t="s">
         <v>493</v>
@@ -6957,10 +6957,10 @@
         <v>492</v>
       </c>
       <c r="E213" t="s">
+        <v>493</v>
+      </c>
+      <c r="F213" t="s">
         <v>492</v>
-      </c>
-      <c r="F213" t="s">
-        <v>493</v>
       </c>
       <c r="G213" t="s">
         <v>493</v>
@@ -6980,10 +6980,10 @@
         <v>492</v>
       </c>
       <c r="E214" t="s">
+        <v>493</v>
+      </c>
+      <c r="F214" t="s">
         <v>492</v>
-      </c>
-      <c r="F214" t="s">
-        <v>493</v>
       </c>
       <c r="G214" t="s">
         <v>493</v>
@@ -7003,10 +7003,10 @@
         <v>492</v>
       </c>
       <c r="E215" t="s">
+        <v>493</v>
+      </c>
+      <c r="F215" t="s">
         <v>492</v>
-      </c>
-      <c r="F215" t="s">
-        <v>493</v>
       </c>
       <c r="G215" t="s">
         <v>493</v>
@@ -7026,10 +7026,10 @@
         <v>514</v>
       </c>
       <c r="E216" t="s">
+        <v>515</v>
+      </c>
+      <c r="F216" t="s">
         <v>514</v>
-      </c>
-      <c r="F216" t="s">
-        <v>515</v>
       </c>
       <c r="G216" t="s">
         <v>515</v>
@@ -7049,10 +7049,10 @@
         <v>518</v>
       </c>
       <c r="E217" t="s">
+        <v>519</v>
+      </c>
+      <c r="F217" t="s">
         <v>518</v>
-      </c>
-      <c r="F217" t="s">
-        <v>519</v>
       </c>
       <c r="G217" t="s">
         <v>519</v>
@@ -7072,10 +7072,10 @@
         <v>522</v>
       </c>
       <c r="E218" t="s">
+        <v>523</v>
+      </c>
+      <c r="F218" t="s">
         <v>522</v>
-      </c>
-      <c r="F218" t="s">
-        <v>523</v>
       </c>
       <c r="G218" t="s">
         <v>523</v>
@@ -7095,10 +7095,10 @@
         <v>522</v>
       </c>
       <c r="E219" t="s">
+        <v>523</v>
+      </c>
+      <c r="F219" t="s">
         <v>522</v>
-      </c>
-      <c r="F219" t="s">
-        <v>523</v>
       </c>
       <c r="G219" t="s">
         <v>523</v>
@@ -7118,10 +7118,10 @@
         <v>528</v>
       </c>
       <c r="E220" t="s">
+        <v>529</v>
+      </c>
+      <c r="F220" t="s">
         <v>528</v>
-      </c>
-      <c r="F220" t="s">
-        <v>529</v>
       </c>
       <c r="G220" t="s">
         <v>529</v>
@@ -7141,10 +7141,10 @@
         <v>528</v>
       </c>
       <c r="E221" t="s">
+        <v>529</v>
+      </c>
+      <c r="F221" t="s">
         <v>528</v>
-      </c>
-      <c r="F221" t="s">
-        <v>529</v>
       </c>
       <c r="G221" t="s">
         <v>529</v>
@@ -7164,10 +7164,10 @@
         <v>528</v>
       </c>
       <c r="E222" t="s">
+        <v>529</v>
+      </c>
+      <c r="F222" t="s">
         <v>528</v>
-      </c>
-      <c r="F222" t="s">
-        <v>529</v>
       </c>
       <c r="G222" t="s">
         <v>529</v>
@@ -7187,10 +7187,10 @@
         <v>528</v>
       </c>
       <c r="E223" t="s">
+        <v>529</v>
+      </c>
+      <c r="F223" t="s">
         <v>528</v>
-      </c>
-      <c r="F223" t="s">
-        <v>529</v>
       </c>
       <c r="G223" t="s">
         <v>529</v>
@@ -7210,10 +7210,10 @@
         <v>528</v>
       </c>
       <c r="E224" t="s">
+        <v>529</v>
+      </c>
+      <c r="F224" t="s">
         <v>528</v>
-      </c>
-      <c r="F224" t="s">
-        <v>529</v>
       </c>
       <c r="G224" t="s">
         <v>529</v>
@@ -7233,10 +7233,10 @@
         <v>528</v>
       </c>
       <c r="E225" t="s">
+        <v>529</v>
+      </c>
+      <c r="F225" t="s">
         <v>528</v>
-      </c>
-      <c r="F225" t="s">
-        <v>529</v>
       </c>
       <c r="G225" t="s">
         <v>529</v>
@@ -7256,10 +7256,10 @@
         <v>528</v>
       </c>
       <c r="E226" t="s">
+        <v>529</v>
+      </c>
+      <c r="F226" t="s">
         <v>528</v>
-      </c>
-      <c r="F226" t="s">
-        <v>529</v>
       </c>
       <c r="G226" t="s">
         <v>529</v>
@@ -7279,10 +7279,10 @@
         <v>544</v>
       </c>
       <c r="E227" t="s">
+        <v>545</v>
+      </c>
+      <c r="F227" t="s">
         <v>544</v>
-      </c>
-      <c r="F227" t="s">
-        <v>545</v>
       </c>
       <c r="G227" t="s">
         <v>545</v>
@@ -7302,10 +7302,10 @@
         <v>544</v>
       </c>
       <c r="E228" t="s">
+        <v>545</v>
+      </c>
+      <c r="F228" t="s">
         <v>544</v>
-      </c>
-      <c r="F228" t="s">
-        <v>545</v>
       </c>
       <c r="G228" t="s">
         <v>545</v>
@@ -7325,10 +7325,10 @@
         <v>544</v>
       </c>
       <c r="E229" t="s">
+        <v>545</v>
+      </c>
+      <c r="F229" t="s">
         <v>544</v>
-      </c>
-      <c r="F229" t="s">
-        <v>545</v>
       </c>
       <c r="G229" t="s">
         <v>545</v>
@@ -7348,10 +7348,10 @@
         <v>552</v>
       </c>
       <c r="E230" t="s">
+        <v>553</v>
+      </c>
+      <c r="F230" t="s">
         <v>552</v>
-      </c>
-      <c r="F230" t="s">
-        <v>553</v>
       </c>
       <c r="G230" t="s">
         <v>553</v>
@@ -7371,10 +7371,10 @@
         <v>556</v>
       </c>
       <c r="E231" t="s">
+        <v>557</v>
+      </c>
+      <c r="F231" t="s">
         <v>556</v>
-      </c>
-      <c r="F231" t="s">
-        <v>557</v>
       </c>
       <c r="G231" t="s">
         <v>557</v>
@@ -7394,10 +7394,10 @@
         <v>560</v>
       </c>
       <c r="E232" t="s">
+        <v>561</v>
+      </c>
+      <c r="F232" t="s">
         <v>560</v>
-      </c>
-      <c r="F232" t="s">
-        <v>561</v>
       </c>
       <c r="G232" t="s">
         <v>561</v>
@@ -7417,10 +7417,10 @@
         <v>564</v>
       </c>
       <c r="E233" t="s">
+        <v>565</v>
+      </c>
+      <c r="F233" t="s">
         <v>564</v>
-      </c>
-      <c r="F233" t="s">
-        <v>565</v>
       </c>
       <c r="G233" t="s">
         <v>565</v>
@@ -7440,10 +7440,10 @@
         <v>568</v>
       </c>
       <c r="E234" t="s">
+        <v>569</v>
+      </c>
+      <c r="F234" t="s">
         <v>568</v>
-      </c>
-      <c r="F234" t="s">
-        <v>569</v>
       </c>
       <c r="G234" t="s">
         <v>569</v>
@@ -7463,10 +7463,10 @@
         <v>568</v>
       </c>
       <c r="E235" t="s">
+        <v>569</v>
+      </c>
+      <c r="F235" t="s">
         <v>568</v>
-      </c>
-      <c r="F235" t="s">
-        <v>569</v>
       </c>
       <c r="G235" t="s">
         <v>569</v>

--- a/api/2/clv3/xlsx/en/SectorGroup.xlsx
+++ b/api/2/clv3/xlsx/en/SectorGroup.xlsx
@@ -28,12 +28,12 @@
     <t>codeforiati:category-code</t>
   </si>
   <si>
+    <t>codeforiati:group-code</t>
+  </si>
+  <si>
     <t>codeforiati:category-name</t>
   </si>
   <si>
-    <t>codeforiati:group-code</t>
-  </si>
-  <si>
     <t>codeforiati:group-name</t>
   </si>
   <si>
@@ -49,12 +49,12 @@
     <t>111</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>Education, Level Unspecified</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>Education</t>
   </si>
   <si>
@@ -169,12 +169,12 @@
     <t>121</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>Health, General</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>Health</t>
   </si>
   <si>
@@ -415,12 +415,12 @@
     <t>151</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>Government &amp; Civil Society-general</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
     <t>Government &amp; Civil Society</t>
   </si>
   <si>
@@ -715,12 +715,12 @@
     <t>231</t>
   </si>
   <si>
+    <t>230</t>
+  </si>
+  <si>
     <t>Energy Policy</t>
   </si>
   <si>
-    <t>230</t>
-  </si>
-  <si>
     <t>Energy</t>
   </si>
   <si>
@@ -997,12 +997,12 @@
     <t>311</t>
   </si>
   <si>
+    <t>310</t>
+  </si>
+  <si>
     <t>Agriculture</t>
   </si>
   <si>
-    <t>310</t>
-  </si>
-  <si>
     <t>Agriculture, Forestry, Fishing</t>
   </si>
   <si>
@@ -1195,10 +1195,10 @@
     <t>321</t>
   </si>
   <si>
+    <t>320</t>
+  </si>
+  <si>
     <t>Industry</t>
-  </si>
-  <si>
-    <t>320</t>
   </si>
   <si>
     <t>Industry, Mining, Construction</t>
@@ -2196,10 +2196,10 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -2219,10 +2219,10 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
         <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -2242,10 +2242,10 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
         <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -2265,10 +2265,10 @@
         <v>22</v>
       </c>
       <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
         <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -2288,10 +2288,10 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
         <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -2311,10 +2311,10 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -2334,10 +2334,10 @@
         <v>22</v>
       </c>
       <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -2357,10 +2357,10 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
         <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -2380,10 +2380,10 @@
         <v>38</v>
       </c>
       <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
         <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -2403,10 +2403,10 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
         <v>45</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -2426,10 +2426,10 @@
         <v>44</v>
       </c>
       <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
         <v>45</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -2541,10 +2541,10 @@
         <v>62</v>
       </c>
       <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
         <v>63</v>
-      </c>
-      <c r="F21" t="s">
-        <v>52</v>
       </c>
       <c r="G21" t="s">
         <v>53</v>
@@ -2564,10 +2564,10 @@
         <v>62</v>
       </c>
       <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
         <v>63</v>
-      </c>
-      <c r="F22" t="s">
-        <v>52</v>
       </c>
       <c r="G22" t="s">
         <v>53</v>
@@ -2587,10 +2587,10 @@
         <v>62</v>
       </c>
       <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s">
         <v>63</v>
-      </c>
-      <c r="F23" t="s">
-        <v>52</v>
       </c>
       <c r="G23" t="s">
         <v>53</v>
@@ -2610,10 +2610,10 @@
         <v>62</v>
       </c>
       <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
         <v>63</v>
-      </c>
-      <c r="F24" t="s">
-        <v>52</v>
       </c>
       <c r="G24" t="s">
         <v>53</v>
@@ -2633,10 +2633,10 @@
         <v>62</v>
       </c>
       <c r="E25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" t="s">
         <v>63</v>
-      </c>
-      <c r="F25" t="s">
-        <v>52</v>
       </c>
       <c r="G25" t="s">
         <v>53</v>
@@ -2656,10 +2656,10 @@
         <v>62</v>
       </c>
       <c r="E26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s">
         <v>63</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="s">
         <v>53</v>
@@ -2679,10 +2679,10 @@
         <v>62</v>
       </c>
       <c r="E27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s">
         <v>63</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="s">
         <v>53</v>
@@ -2702,10 +2702,10 @@
         <v>62</v>
       </c>
       <c r="E28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" t="s">
         <v>63</v>
-      </c>
-      <c r="F28" t="s">
-        <v>52</v>
       </c>
       <c r="G28" t="s">
         <v>53</v>
@@ -2725,10 +2725,10 @@
         <v>62</v>
       </c>
       <c r="E29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" t="s">
         <v>63</v>
-      </c>
-      <c r="F29" t="s">
-        <v>52</v>
       </c>
       <c r="G29" t="s">
         <v>53</v>
@@ -2748,10 +2748,10 @@
         <v>82</v>
       </c>
       <c r="E30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" t="s">
         <v>83</v>
-      </c>
-      <c r="F30" t="s">
-        <v>52</v>
       </c>
       <c r="G30" t="s">
         <v>53</v>
@@ -2771,10 +2771,10 @@
         <v>82</v>
       </c>
       <c r="E31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" t="s">
         <v>83</v>
-      </c>
-      <c r="F31" t="s">
-        <v>52</v>
       </c>
       <c r="G31" t="s">
         <v>53</v>
@@ -2794,10 +2794,10 @@
         <v>82</v>
       </c>
       <c r="E32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" t="s">
         <v>83</v>
-      </c>
-      <c r="F32" t="s">
-        <v>52</v>
       </c>
       <c r="G32" t="s">
         <v>53</v>
@@ -2817,10 +2817,10 @@
         <v>82</v>
       </c>
       <c r="E33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" t="s">
         <v>83</v>
-      </c>
-      <c r="F33" t="s">
-        <v>52</v>
       </c>
       <c r="G33" t="s">
         <v>53</v>
@@ -2840,10 +2840,10 @@
         <v>82</v>
       </c>
       <c r="E34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" t="s">
         <v>83</v>
-      </c>
-      <c r="F34" t="s">
-        <v>52</v>
       </c>
       <c r="G34" t="s">
         <v>53</v>
@@ -2863,10 +2863,10 @@
         <v>82</v>
       </c>
       <c r="E35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" t="s">
         <v>83</v>
-      </c>
-      <c r="F35" t="s">
-        <v>52</v>
       </c>
       <c r="G35" t="s">
         <v>53</v>
@@ -2886,10 +2886,10 @@
         <v>96</v>
       </c>
       <c r="E36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" t="s">
         <v>97</v>
-      </c>
-      <c r="F36" t="s">
-        <v>96</v>
       </c>
       <c r="G36" t="s">
         <v>97</v>
@@ -2909,10 +2909,10 @@
         <v>96</v>
       </c>
       <c r="E37" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" t="s">
         <v>97</v>
-      </c>
-      <c r="F37" t="s">
-        <v>96</v>
       </c>
       <c r="G37" t="s">
         <v>97</v>
@@ -2932,10 +2932,10 @@
         <v>96</v>
       </c>
       <c r="E38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" t="s">
         <v>97</v>
-      </c>
-      <c r="F38" t="s">
-        <v>96</v>
       </c>
       <c r="G38" t="s">
         <v>97</v>
@@ -2955,10 +2955,10 @@
         <v>96</v>
       </c>
       <c r="E39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" t="s">
         <v>97</v>
-      </c>
-      <c r="F39" t="s">
-        <v>96</v>
       </c>
       <c r="G39" t="s">
         <v>97</v>
@@ -2978,10 +2978,10 @@
         <v>96</v>
       </c>
       <c r="E40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" t="s">
         <v>97</v>
-      </c>
-      <c r="F40" t="s">
-        <v>96</v>
       </c>
       <c r="G40" t="s">
         <v>97</v>
@@ -3001,10 +3001,10 @@
         <v>108</v>
       </c>
       <c r="E41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" t="s">
         <v>109</v>
-      </c>
-      <c r="F41" t="s">
-        <v>108</v>
       </c>
       <c r="G41" t="s">
         <v>109</v>
@@ -3024,10 +3024,10 @@
         <v>108</v>
       </c>
       <c r="E42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" t="s">
         <v>109</v>
-      </c>
-      <c r="F42" t="s">
-        <v>108</v>
       </c>
       <c r="G42" t="s">
         <v>109</v>
@@ -3047,10 +3047,10 @@
         <v>108</v>
       </c>
       <c r="E43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" t="s">
         <v>109</v>
-      </c>
-      <c r="F43" t="s">
-        <v>108</v>
       </c>
       <c r="G43" t="s">
         <v>109</v>
@@ -3070,10 +3070,10 @@
         <v>108</v>
       </c>
       <c r="E44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" t="s">
         <v>109</v>
-      </c>
-      <c r="F44" t="s">
-        <v>108</v>
       </c>
       <c r="G44" t="s">
         <v>109</v>
@@ -3093,10 +3093,10 @@
         <v>108</v>
       </c>
       <c r="E45" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" t="s">
         <v>109</v>
-      </c>
-      <c r="F45" t="s">
-        <v>108</v>
       </c>
       <c r="G45" t="s">
         <v>109</v>
@@ -3116,10 +3116,10 @@
         <v>108</v>
       </c>
       <c r="E46" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" t="s">
         <v>109</v>
-      </c>
-      <c r="F46" t="s">
-        <v>108</v>
       </c>
       <c r="G46" t="s">
         <v>109</v>
@@ -3139,10 +3139,10 @@
         <v>108</v>
       </c>
       <c r="E47" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" t="s">
         <v>109</v>
-      </c>
-      <c r="F47" t="s">
-        <v>108</v>
       </c>
       <c r="G47" t="s">
         <v>109</v>
@@ -3162,10 +3162,10 @@
         <v>108</v>
       </c>
       <c r="E48" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" t="s">
         <v>109</v>
-      </c>
-      <c r="F48" t="s">
-        <v>108</v>
       </c>
       <c r="G48" t="s">
         <v>109</v>
@@ -3185,10 +3185,10 @@
         <v>108</v>
       </c>
       <c r="E49" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" t="s">
         <v>109</v>
-      </c>
-      <c r="F49" t="s">
-        <v>108</v>
       </c>
       <c r="G49" t="s">
         <v>109</v>
@@ -3208,10 +3208,10 @@
         <v>108</v>
       </c>
       <c r="E50" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" t="s">
         <v>109</v>
-      </c>
-      <c r="F50" t="s">
-        <v>108</v>
       </c>
       <c r="G50" t="s">
         <v>109</v>
@@ -3231,10 +3231,10 @@
         <v>108</v>
       </c>
       <c r="E51" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" t="s">
         <v>109</v>
-      </c>
-      <c r="F51" t="s">
-        <v>108</v>
       </c>
       <c r="G51" t="s">
         <v>109</v>
@@ -3622,10 +3622,10 @@
         <v>168</v>
       </c>
       <c r="E68" t="s">
+        <v>133</v>
+      </c>
+      <c r="F68" t="s">
         <v>169</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="s">
         <v>135</v>
@@ -3645,10 +3645,10 @@
         <v>168</v>
       </c>
       <c r="E69" t="s">
+        <v>133</v>
+      </c>
+      <c r="F69" t="s">
         <v>169</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="s">
         <v>135</v>
@@ -3668,10 +3668,10 @@
         <v>168</v>
       </c>
       <c r="E70" t="s">
+        <v>133</v>
+      </c>
+      <c r="F70" t="s">
         <v>169</v>
-      </c>
-      <c r="F70" t="s">
-        <v>134</v>
       </c>
       <c r="G70" t="s">
         <v>135</v>
@@ -3691,10 +3691,10 @@
         <v>168</v>
       </c>
       <c r="E71" t="s">
+        <v>133</v>
+      </c>
+      <c r="F71" t="s">
         <v>169</v>
-      </c>
-      <c r="F71" t="s">
-        <v>134</v>
       </c>
       <c r="G71" t="s">
         <v>135</v>
@@ -3714,10 +3714,10 @@
         <v>168</v>
       </c>
       <c r="E72" t="s">
+        <v>133</v>
+      </c>
+      <c r="F72" t="s">
         <v>169</v>
-      </c>
-      <c r="F72" t="s">
-        <v>134</v>
       </c>
       <c r="G72" t="s">
         <v>135</v>
@@ -3737,10 +3737,10 @@
         <v>168</v>
       </c>
       <c r="E73" t="s">
+        <v>133</v>
+      </c>
+      <c r="F73" t="s">
         <v>169</v>
-      </c>
-      <c r="F73" t="s">
-        <v>134</v>
       </c>
       <c r="G73" t="s">
         <v>135</v>
@@ -3760,10 +3760,10 @@
         <v>182</v>
       </c>
       <c r="E74" t="s">
+        <v>182</v>
+      </c>
+      <c r="F74" t="s">
         <v>183</v>
-      </c>
-      <c r="F74" t="s">
-        <v>182</v>
       </c>
       <c r="G74" t="s">
         <v>183</v>
@@ -3783,10 +3783,10 @@
         <v>182</v>
       </c>
       <c r="E75" t="s">
+        <v>182</v>
+      </c>
+      <c r="F75" t="s">
         <v>183</v>
-      </c>
-      <c r="F75" t="s">
-        <v>182</v>
       </c>
       <c r="G75" t="s">
         <v>183</v>
@@ -3806,10 +3806,10 @@
         <v>182</v>
       </c>
       <c r="E76" t="s">
+        <v>182</v>
+      </c>
+      <c r="F76" t="s">
         <v>183</v>
-      </c>
-      <c r="F76" t="s">
-        <v>182</v>
       </c>
       <c r="G76" t="s">
         <v>183</v>
@@ -3829,10 +3829,10 @@
         <v>182</v>
       </c>
       <c r="E77" t="s">
+        <v>182</v>
+      </c>
+      <c r="F77" t="s">
         <v>183</v>
-      </c>
-      <c r="F77" t="s">
-        <v>182</v>
       </c>
       <c r="G77" t="s">
         <v>183</v>
@@ -3852,10 +3852,10 @@
         <v>182</v>
       </c>
       <c r="E78" t="s">
+        <v>182</v>
+      </c>
+      <c r="F78" t="s">
         <v>183</v>
-      </c>
-      <c r="F78" t="s">
-        <v>182</v>
       </c>
       <c r="G78" t="s">
         <v>183</v>
@@ -3875,10 +3875,10 @@
         <v>182</v>
       </c>
       <c r="E79" t="s">
+        <v>182</v>
+      </c>
+      <c r="F79" t="s">
         <v>183</v>
-      </c>
-      <c r="F79" t="s">
-        <v>182</v>
       </c>
       <c r="G79" t="s">
         <v>183</v>
@@ -3898,10 +3898,10 @@
         <v>182</v>
       </c>
       <c r="E80" t="s">
+        <v>182</v>
+      </c>
+      <c r="F80" t="s">
         <v>183</v>
-      </c>
-      <c r="F80" t="s">
-        <v>182</v>
       </c>
       <c r="G80" t="s">
         <v>183</v>
@@ -3921,10 +3921,10 @@
         <v>182</v>
       </c>
       <c r="E81" t="s">
+        <v>182</v>
+      </c>
+      <c r="F81" t="s">
         <v>183</v>
-      </c>
-      <c r="F81" t="s">
-        <v>182</v>
       </c>
       <c r="G81" t="s">
         <v>183</v>
@@ -3944,10 +3944,10 @@
         <v>182</v>
       </c>
       <c r="E82" t="s">
+        <v>182</v>
+      </c>
+      <c r="F82" t="s">
         <v>183</v>
-      </c>
-      <c r="F82" t="s">
-        <v>182</v>
       </c>
       <c r="G82" t="s">
         <v>183</v>
@@ -3967,10 +3967,10 @@
         <v>182</v>
       </c>
       <c r="E83" t="s">
+        <v>182</v>
+      </c>
+      <c r="F83" t="s">
         <v>183</v>
-      </c>
-      <c r="F83" t="s">
-        <v>182</v>
       </c>
       <c r="G83" t="s">
         <v>183</v>
@@ -3990,10 +3990,10 @@
         <v>182</v>
       </c>
       <c r="E84" t="s">
+        <v>182</v>
+      </c>
+      <c r="F84" t="s">
         <v>183</v>
-      </c>
-      <c r="F84" t="s">
-        <v>182</v>
       </c>
       <c r="G84" t="s">
         <v>183</v>
@@ -4013,10 +4013,10 @@
         <v>206</v>
       </c>
       <c r="E85" t="s">
+        <v>206</v>
+      </c>
+      <c r="F85" t="s">
         <v>207</v>
-      </c>
-      <c r="F85" t="s">
-        <v>206</v>
       </c>
       <c r="G85" t="s">
         <v>207</v>
@@ -4036,10 +4036,10 @@
         <v>206</v>
       </c>
       <c r="E86" t="s">
+        <v>206</v>
+      </c>
+      <c r="F86" t="s">
         <v>207</v>
-      </c>
-      <c r="F86" t="s">
-        <v>206</v>
       </c>
       <c r="G86" t="s">
         <v>207</v>
@@ -4059,10 +4059,10 @@
         <v>206</v>
       </c>
       <c r="E87" t="s">
+        <v>206</v>
+      </c>
+      <c r="F87" t="s">
         <v>207</v>
-      </c>
-      <c r="F87" t="s">
-        <v>206</v>
       </c>
       <c r="G87" t="s">
         <v>207</v>
@@ -4082,10 +4082,10 @@
         <v>206</v>
       </c>
       <c r="E88" t="s">
+        <v>206</v>
+      </c>
+      <c r="F88" t="s">
         <v>207</v>
-      </c>
-      <c r="F88" t="s">
-        <v>206</v>
       </c>
       <c r="G88" t="s">
         <v>207</v>
@@ -4105,10 +4105,10 @@
         <v>206</v>
       </c>
       <c r="E89" t="s">
+        <v>206</v>
+      </c>
+      <c r="F89" t="s">
         <v>207</v>
-      </c>
-      <c r="F89" t="s">
-        <v>206</v>
       </c>
       <c r="G89" t="s">
         <v>207</v>
@@ -4128,10 +4128,10 @@
         <v>206</v>
       </c>
       <c r="E90" t="s">
+        <v>206</v>
+      </c>
+      <c r="F90" t="s">
         <v>207</v>
-      </c>
-      <c r="F90" t="s">
-        <v>206</v>
       </c>
       <c r="G90" t="s">
         <v>207</v>
@@ -4151,10 +4151,10 @@
         <v>206</v>
       </c>
       <c r="E91" t="s">
+        <v>206</v>
+      </c>
+      <c r="F91" t="s">
         <v>207</v>
-      </c>
-      <c r="F91" t="s">
-        <v>206</v>
       </c>
       <c r="G91" t="s">
         <v>207</v>
@@ -4174,10 +4174,10 @@
         <v>222</v>
       </c>
       <c r="E92" t="s">
+        <v>222</v>
+      </c>
+      <c r="F92" t="s">
         <v>223</v>
-      </c>
-      <c r="F92" t="s">
-        <v>222</v>
       </c>
       <c r="G92" t="s">
         <v>223</v>
@@ -4197,10 +4197,10 @@
         <v>222</v>
       </c>
       <c r="E93" t="s">
+        <v>222</v>
+      </c>
+      <c r="F93" t="s">
         <v>223</v>
-      </c>
-      <c r="F93" t="s">
-        <v>222</v>
       </c>
       <c r="G93" t="s">
         <v>223</v>
@@ -4220,10 +4220,10 @@
         <v>222</v>
       </c>
       <c r="E94" t="s">
+        <v>222</v>
+      </c>
+      <c r="F94" t="s">
         <v>223</v>
-      </c>
-      <c r="F94" t="s">
-        <v>222</v>
       </c>
       <c r="G94" t="s">
         <v>223</v>
@@ -4243,10 +4243,10 @@
         <v>222</v>
       </c>
       <c r="E95" t="s">
+        <v>222</v>
+      </c>
+      <c r="F95" t="s">
         <v>223</v>
-      </c>
-      <c r="F95" t="s">
-        <v>222</v>
       </c>
       <c r="G95" t="s">
         <v>223</v>
@@ -4358,10 +4358,10 @@
         <v>244</v>
       </c>
       <c r="E100" t="s">
+        <v>233</v>
+      </c>
+      <c r="F100" t="s">
         <v>245</v>
-      </c>
-      <c r="F100" t="s">
-        <v>234</v>
       </c>
       <c r="G100" t="s">
         <v>235</v>
@@ -4381,10 +4381,10 @@
         <v>244</v>
       </c>
       <c r="E101" t="s">
+        <v>233</v>
+      </c>
+      <c r="F101" t="s">
         <v>245</v>
-      </c>
-      <c r="F101" t="s">
-        <v>234</v>
       </c>
       <c r="G101" t="s">
         <v>235</v>
@@ -4404,10 +4404,10 @@
         <v>244</v>
       </c>
       <c r="E102" t="s">
+        <v>233</v>
+      </c>
+      <c r="F102" t="s">
         <v>245</v>
-      </c>
-      <c r="F102" t="s">
-        <v>234</v>
       </c>
       <c r="G102" t="s">
         <v>235</v>
@@ -4427,10 +4427,10 @@
         <v>244</v>
       </c>
       <c r="E103" t="s">
+        <v>233</v>
+      </c>
+      <c r="F103" t="s">
         <v>245</v>
-      </c>
-      <c r="F103" t="s">
-        <v>234</v>
       </c>
       <c r="G103" t="s">
         <v>235</v>
@@ -4450,10 +4450,10 @@
         <v>244</v>
       </c>
       <c r="E104" t="s">
+        <v>233</v>
+      </c>
+      <c r="F104" t="s">
         <v>245</v>
-      </c>
-      <c r="F104" t="s">
-        <v>234</v>
       </c>
       <c r="G104" t="s">
         <v>235</v>
@@ -4473,10 +4473,10 @@
         <v>244</v>
       </c>
       <c r="E105" t="s">
+        <v>233</v>
+      </c>
+      <c r="F105" t="s">
         <v>245</v>
-      </c>
-      <c r="F105" t="s">
-        <v>234</v>
       </c>
       <c r="G105" t="s">
         <v>235</v>
@@ -4496,10 +4496,10 @@
         <v>244</v>
       </c>
       <c r="E106" t="s">
+        <v>233</v>
+      </c>
+      <c r="F106" t="s">
         <v>245</v>
-      </c>
-      <c r="F106" t="s">
-        <v>234</v>
       </c>
       <c r="G106" t="s">
         <v>235</v>
@@ -4519,10 +4519,10 @@
         <v>244</v>
       </c>
       <c r="E107" t="s">
+        <v>233</v>
+      </c>
+      <c r="F107" t="s">
         <v>245</v>
-      </c>
-      <c r="F107" t="s">
-        <v>234</v>
       </c>
       <c r="G107" t="s">
         <v>235</v>
@@ -4542,10 +4542,10 @@
         <v>244</v>
       </c>
       <c r="E108" t="s">
+        <v>233</v>
+      </c>
+      <c r="F108" t="s">
         <v>245</v>
-      </c>
-      <c r="F108" t="s">
-        <v>234</v>
       </c>
       <c r="G108" t="s">
         <v>235</v>
@@ -4565,10 +4565,10 @@
         <v>264</v>
       </c>
       <c r="E109" t="s">
+        <v>233</v>
+      </c>
+      <c r="F109" t="s">
         <v>265</v>
-      </c>
-      <c r="F109" t="s">
-        <v>234</v>
       </c>
       <c r="G109" t="s">
         <v>235</v>
@@ -4588,10 +4588,10 @@
         <v>264</v>
       </c>
       <c r="E110" t="s">
+        <v>233</v>
+      </c>
+      <c r="F110" t="s">
         <v>265</v>
-      </c>
-      <c r="F110" t="s">
-        <v>234</v>
       </c>
       <c r="G110" t="s">
         <v>235</v>
@@ -4611,10 +4611,10 @@
         <v>264</v>
       </c>
       <c r="E111" t="s">
+        <v>233</v>
+      </c>
+      <c r="F111" t="s">
         <v>265</v>
-      </c>
-      <c r="F111" t="s">
-        <v>234</v>
       </c>
       <c r="G111" t="s">
         <v>235</v>
@@ -4634,10 +4634,10 @@
         <v>264</v>
       </c>
       <c r="E112" t="s">
+        <v>233</v>
+      </c>
+      <c r="F112" t="s">
         <v>265</v>
-      </c>
-      <c r="F112" t="s">
-        <v>234</v>
       </c>
       <c r="G112" t="s">
         <v>235</v>
@@ -4657,10 +4657,10 @@
         <v>264</v>
       </c>
       <c r="E113" t="s">
+        <v>233</v>
+      </c>
+      <c r="F113" t="s">
         <v>265</v>
-      </c>
-      <c r="F113" t="s">
-        <v>234</v>
       </c>
       <c r="G113" t="s">
         <v>235</v>
@@ -4680,10 +4680,10 @@
         <v>264</v>
       </c>
       <c r="E114" t="s">
+        <v>233</v>
+      </c>
+      <c r="F114" t="s">
         <v>265</v>
-      </c>
-      <c r="F114" t="s">
-        <v>234</v>
       </c>
       <c r="G114" t="s">
         <v>235</v>
@@ -4703,10 +4703,10 @@
         <v>278</v>
       </c>
       <c r="E115" t="s">
+        <v>233</v>
+      </c>
+      <c r="F115" t="s">
         <v>279</v>
-      </c>
-      <c r="F115" t="s">
-        <v>234</v>
       </c>
       <c r="G115" t="s">
         <v>235</v>
@@ -4726,10 +4726,10 @@
         <v>282</v>
       </c>
       <c r="E116" t="s">
+        <v>233</v>
+      </c>
+      <c r="F116" t="s">
         <v>283</v>
-      </c>
-      <c r="F116" t="s">
-        <v>234</v>
       </c>
       <c r="G116" t="s">
         <v>235</v>
@@ -4749,10 +4749,10 @@
         <v>286</v>
       </c>
       <c r="E117" t="s">
+        <v>233</v>
+      </c>
+      <c r="F117" t="s">
         <v>287</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="s">
         <v>235</v>
@@ -4772,10 +4772,10 @@
         <v>286</v>
       </c>
       <c r="E118" t="s">
+        <v>233</v>
+      </c>
+      <c r="F118" t="s">
         <v>287</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="s">
         <v>235</v>
@@ -4795,10 +4795,10 @@
         <v>286</v>
       </c>
       <c r="E119" t="s">
+        <v>233</v>
+      </c>
+      <c r="F119" t="s">
         <v>287</v>
-      </c>
-      <c r="F119" t="s">
-        <v>234</v>
       </c>
       <c r="G119" t="s">
         <v>235</v>
@@ -4818,10 +4818,10 @@
         <v>286</v>
       </c>
       <c r="E120" t="s">
+        <v>233</v>
+      </c>
+      <c r="F120" t="s">
         <v>287</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="s">
         <v>235</v>
@@ -4841,10 +4841,10 @@
         <v>286</v>
       </c>
       <c r="E121" t="s">
+        <v>233</v>
+      </c>
+      <c r="F121" t="s">
         <v>287</v>
-      </c>
-      <c r="F121" t="s">
-        <v>234</v>
       </c>
       <c r="G121" t="s">
         <v>235</v>
@@ -4864,10 +4864,10 @@
         <v>286</v>
       </c>
       <c r="E122" t="s">
+        <v>233</v>
+      </c>
+      <c r="F122" t="s">
         <v>287</v>
-      </c>
-      <c r="F122" t="s">
-        <v>234</v>
       </c>
       <c r="G122" t="s">
         <v>235</v>
@@ -4887,10 +4887,10 @@
         <v>286</v>
       </c>
       <c r="E123" t="s">
+        <v>233</v>
+      </c>
+      <c r="F123" t="s">
         <v>287</v>
-      </c>
-      <c r="F123" t="s">
-        <v>234</v>
       </c>
       <c r="G123" t="s">
         <v>235</v>
@@ -4910,10 +4910,10 @@
         <v>302</v>
       </c>
       <c r="E124" t="s">
+        <v>302</v>
+      </c>
+      <c r="F124" t="s">
         <v>303</v>
-      </c>
-      <c r="F124" t="s">
-        <v>302</v>
       </c>
       <c r="G124" t="s">
         <v>303</v>
@@ -4933,10 +4933,10 @@
         <v>302</v>
       </c>
       <c r="E125" t="s">
+        <v>302</v>
+      </c>
+      <c r="F125" t="s">
         <v>303</v>
-      </c>
-      <c r="F125" t="s">
-        <v>302</v>
       </c>
       <c r="G125" t="s">
         <v>303</v>
@@ -4956,10 +4956,10 @@
         <v>302</v>
       </c>
       <c r="E126" t="s">
+        <v>302</v>
+      </c>
+      <c r="F126" t="s">
         <v>303</v>
-      </c>
-      <c r="F126" t="s">
-        <v>302</v>
       </c>
       <c r="G126" t="s">
         <v>303</v>
@@ -4979,10 +4979,10 @@
         <v>302</v>
       </c>
       <c r="E127" t="s">
+        <v>302</v>
+      </c>
+      <c r="F127" t="s">
         <v>303</v>
-      </c>
-      <c r="F127" t="s">
-        <v>302</v>
       </c>
       <c r="G127" t="s">
         <v>303</v>
@@ -5002,10 +5002,10 @@
         <v>302</v>
       </c>
       <c r="E128" t="s">
+        <v>302</v>
+      </c>
+      <c r="F128" t="s">
         <v>303</v>
-      </c>
-      <c r="F128" t="s">
-        <v>302</v>
       </c>
       <c r="G128" t="s">
         <v>303</v>
@@ -5025,10 +5025,10 @@
         <v>302</v>
       </c>
       <c r="E129" t="s">
+        <v>302</v>
+      </c>
+      <c r="F129" t="s">
         <v>303</v>
-      </c>
-      <c r="F129" t="s">
-        <v>302</v>
       </c>
       <c r="G129" t="s">
         <v>303</v>
@@ -5048,10 +5048,10 @@
         <v>316</v>
       </c>
       <c r="E130" t="s">
+        <v>316</v>
+      </c>
+      <c r="F130" t="s">
         <v>317</v>
-      </c>
-      <c r="F130" t="s">
-        <v>316</v>
       </c>
       <c r="G130" t="s">
         <v>317</v>
@@ -5071,10 +5071,10 @@
         <v>316</v>
       </c>
       <c r="E131" t="s">
+        <v>316</v>
+      </c>
+      <c r="F131" t="s">
         <v>317</v>
-      </c>
-      <c r="F131" t="s">
-        <v>316</v>
       </c>
       <c r="G131" t="s">
         <v>317</v>
@@ -5094,10 +5094,10 @@
         <v>316</v>
       </c>
       <c r="E132" t="s">
+        <v>316</v>
+      </c>
+      <c r="F132" t="s">
         <v>317</v>
-      </c>
-      <c r="F132" t="s">
-        <v>316</v>
       </c>
       <c r="G132" t="s">
         <v>317</v>
@@ -5117,10 +5117,10 @@
         <v>316</v>
       </c>
       <c r="E133" t="s">
+        <v>316</v>
+      </c>
+      <c r="F133" t="s">
         <v>317</v>
-      </c>
-      <c r="F133" t="s">
-        <v>316</v>
       </c>
       <c r="G133" t="s">
         <v>317</v>
@@ -5554,10 +5554,10 @@
         <v>366</v>
       </c>
       <c r="E152" t="s">
+        <v>327</v>
+      </c>
+      <c r="F152" t="s">
         <v>367</v>
-      </c>
-      <c r="F152" t="s">
-        <v>328</v>
       </c>
       <c r="G152" t="s">
         <v>329</v>
@@ -5577,10 +5577,10 @@
         <v>366</v>
       </c>
       <c r="E153" t="s">
+        <v>327</v>
+      </c>
+      <c r="F153" t="s">
         <v>367</v>
-      </c>
-      <c r="F153" t="s">
-        <v>328</v>
       </c>
       <c r="G153" t="s">
         <v>329</v>
@@ -5600,10 +5600,10 @@
         <v>366</v>
       </c>
       <c r="E154" t="s">
+        <v>327</v>
+      </c>
+      <c r="F154" t="s">
         <v>367</v>
-      </c>
-      <c r="F154" t="s">
-        <v>328</v>
       </c>
       <c r="G154" t="s">
         <v>329</v>
@@ -5623,10 +5623,10 @@
         <v>366</v>
       </c>
       <c r="E155" t="s">
+        <v>327</v>
+      </c>
+      <c r="F155" t="s">
         <v>367</v>
-      </c>
-      <c r="F155" t="s">
-        <v>328</v>
       </c>
       <c r="G155" t="s">
         <v>329</v>
@@ -5646,10 +5646,10 @@
         <v>366</v>
       </c>
       <c r="E156" t="s">
+        <v>327</v>
+      </c>
+      <c r="F156" t="s">
         <v>367</v>
-      </c>
-      <c r="F156" t="s">
-        <v>328</v>
       </c>
       <c r="G156" t="s">
         <v>329</v>
@@ -5669,10 +5669,10 @@
         <v>366</v>
       </c>
       <c r="E157" t="s">
+        <v>327</v>
+      </c>
+      <c r="F157" t="s">
         <v>367</v>
-      </c>
-      <c r="F157" t="s">
-        <v>328</v>
       </c>
       <c r="G157" t="s">
         <v>329</v>
@@ -5692,10 +5692,10 @@
         <v>380</v>
       </c>
       <c r="E158" t="s">
+        <v>327</v>
+      </c>
+      <c r="F158" t="s">
         <v>381</v>
-      </c>
-      <c r="F158" t="s">
-        <v>328</v>
       </c>
       <c r="G158" t="s">
         <v>329</v>
@@ -5715,10 +5715,10 @@
         <v>380</v>
       </c>
       <c r="E159" t="s">
+        <v>327</v>
+      </c>
+      <c r="F159" t="s">
         <v>381</v>
-      </c>
-      <c r="F159" t="s">
-        <v>328</v>
       </c>
       <c r="G159" t="s">
         <v>329</v>
@@ -5738,10 +5738,10 @@
         <v>380</v>
       </c>
       <c r="E160" t="s">
+        <v>327</v>
+      </c>
+      <c r="F160" t="s">
         <v>381</v>
-      </c>
-      <c r="F160" t="s">
-        <v>328</v>
       </c>
       <c r="G160" t="s">
         <v>329</v>
@@ -5761,10 +5761,10 @@
         <v>380</v>
       </c>
       <c r="E161" t="s">
+        <v>327</v>
+      </c>
+      <c r="F161" t="s">
         <v>381</v>
-      </c>
-      <c r="F161" t="s">
-        <v>328</v>
       </c>
       <c r="G161" t="s">
         <v>329</v>
@@ -5784,10 +5784,10 @@
         <v>380</v>
       </c>
       <c r="E162" t="s">
+        <v>327</v>
+      </c>
+      <c r="F162" t="s">
         <v>381</v>
-      </c>
-      <c r="F162" t="s">
-        <v>328</v>
       </c>
       <c r="G162" t="s">
         <v>329</v>
@@ -6244,10 +6244,10 @@
         <v>434</v>
       </c>
       <c r="E182" t="s">
+        <v>393</v>
+      </c>
+      <c r="F182" t="s">
         <v>435</v>
-      </c>
-      <c r="F182" t="s">
-        <v>394</v>
       </c>
       <c r="G182" t="s">
         <v>395</v>
@@ -6267,10 +6267,10 @@
         <v>434</v>
       </c>
       <c r="E183" t="s">
+        <v>393</v>
+      </c>
+      <c r="F183" t="s">
         <v>435</v>
-      </c>
-      <c r="F183" t="s">
-        <v>394</v>
       </c>
       <c r="G183" t="s">
         <v>395</v>
@@ -6290,10 +6290,10 @@
         <v>434</v>
       </c>
       <c r="E184" t="s">
+        <v>393</v>
+      </c>
+      <c r="F184" t="s">
         <v>435</v>
-      </c>
-      <c r="F184" t="s">
-        <v>394</v>
       </c>
       <c r="G184" t="s">
         <v>395</v>
@@ -6313,10 +6313,10 @@
         <v>434</v>
       </c>
       <c r="E185" t="s">
+        <v>393</v>
+      </c>
+      <c r="F185" t="s">
         <v>435</v>
-      </c>
-      <c r="F185" t="s">
-        <v>394</v>
       </c>
       <c r="G185" t="s">
         <v>395</v>
@@ -6336,10 +6336,10 @@
         <v>434</v>
       </c>
       <c r="E186" t="s">
+        <v>393</v>
+      </c>
+      <c r="F186" t="s">
         <v>435</v>
-      </c>
-      <c r="F186" t="s">
-        <v>394</v>
       </c>
       <c r="G186" t="s">
         <v>395</v>
@@ -6359,10 +6359,10 @@
         <v>434</v>
       </c>
       <c r="E187" t="s">
+        <v>393</v>
+      </c>
+      <c r="F187" t="s">
         <v>435</v>
-      </c>
-      <c r="F187" t="s">
-        <v>394</v>
       </c>
       <c r="G187" t="s">
         <v>395</v>
@@ -6382,10 +6382,10 @@
         <v>434</v>
       </c>
       <c r="E188" t="s">
+        <v>393</v>
+      </c>
+      <c r="F188" t="s">
         <v>435</v>
-      </c>
-      <c r="F188" t="s">
-        <v>394</v>
       </c>
       <c r="G188" t="s">
         <v>395</v>
@@ -6405,10 +6405,10 @@
         <v>434</v>
       </c>
       <c r="E189" t="s">
+        <v>393</v>
+      </c>
+      <c r="F189" t="s">
         <v>435</v>
-      </c>
-      <c r="F189" t="s">
-        <v>394</v>
       </c>
       <c r="G189" t="s">
         <v>395</v>
@@ -6428,10 +6428,10 @@
         <v>434</v>
       </c>
       <c r="E190" t="s">
+        <v>393</v>
+      </c>
+      <c r="F190" t="s">
         <v>435</v>
-      </c>
-      <c r="F190" t="s">
-        <v>394</v>
       </c>
       <c r="G190" t="s">
         <v>395</v>
@@ -6451,10 +6451,10 @@
         <v>434</v>
       </c>
       <c r="E191" t="s">
+        <v>393</v>
+      </c>
+      <c r="F191" t="s">
         <v>435</v>
-      </c>
-      <c r="F191" t="s">
-        <v>394</v>
       </c>
       <c r="G191" t="s">
         <v>395</v>
@@ -6474,10 +6474,10 @@
         <v>456</v>
       </c>
       <c r="E192" t="s">
+        <v>393</v>
+      </c>
+      <c r="F192" t="s">
         <v>457</v>
-      </c>
-      <c r="F192" t="s">
-        <v>394</v>
       </c>
       <c r="G192" t="s">
         <v>395</v>
@@ -6497,10 +6497,10 @@
         <v>460</v>
       </c>
       <c r="E193" t="s">
+        <v>460</v>
+      </c>
+      <c r="F193" t="s">
         <v>461</v>
-      </c>
-      <c r="F193" t="s">
-        <v>460</v>
       </c>
       <c r="G193" t="s">
         <v>461</v>
@@ -6520,10 +6520,10 @@
         <v>460</v>
       </c>
       <c r="E194" t="s">
+        <v>460</v>
+      </c>
+      <c r="F194" t="s">
         <v>461</v>
-      </c>
-      <c r="F194" t="s">
-        <v>460</v>
       </c>
       <c r="G194" t="s">
         <v>461</v>
@@ -6543,10 +6543,10 @@
         <v>460</v>
       </c>
       <c r="E195" t="s">
+        <v>460</v>
+      </c>
+      <c r="F195" t="s">
         <v>461</v>
-      </c>
-      <c r="F195" t="s">
-        <v>460</v>
       </c>
       <c r="G195" t="s">
         <v>461</v>
@@ -6566,10 +6566,10 @@
         <v>460</v>
       </c>
       <c r="E196" t="s">
+        <v>460</v>
+      </c>
+      <c r="F196" t="s">
         <v>461</v>
-      </c>
-      <c r="F196" t="s">
-        <v>460</v>
       </c>
       <c r="G196" t="s">
         <v>461</v>
@@ -6589,10 +6589,10 @@
         <v>460</v>
       </c>
       <c r="E197" t="s">
+        <v>460</v>
+      </c>
+      <c r="F197" t="s">
         <v>461</v>
-      </c>
-      <c r="F197" t="s">
-        <v>460</v>
       </c>
       <c r="G197" t="s">
         <v>461</v>
@@ -6612,10 +6612,10 @@
         <v>460</v>
       </c>
       <c r="E198" t="s">
+        <v>460</v>
+      </c>
+      <c r="F198" t="s">
         <v>461</v>
-      </c>
-      <c r="F198" t="s">
-        <v>460</v>
       </c>
       <c r="G198" t="s">
         <v>461</v>
@@ -6635,10 +6635,10 @@
         <v>474</v>
       </c>
       <c r="E199" t="s">
+        <v>474</v>
+      </c>
+      <c r="F199" t="s">
         <v>475</v>
-      </c>
-      <c r="F199" t="s">
-        <v>474</v>
       </c>
       <c r="G199" t="s">
         <v>475</v>
@@ -6658,10 +6658,10 @@
         <v>478</v>
       </c>
       <c r="E200" t="s">
+        <v>478</v>
+      </c>
+      <c r="F200" t="s">
         <v>479</v>
-      </c>
-      <c r="F200" t="s">
-        <v>478</v>
       </c>
       <c r="G200" t="s">
         <v>479</v>
@@ -6681,10 +6681,10 @@
         <v>478</v>
       </c>
       <c r="E201" t="s">
+        <v>478</v>
+      </c>
+      <c r="F201" t="s">
         <v>479</v>
-      </c>
-      <c r="F201" t="s">
-        <v>478</v>
       </c>
       <c r="G201" t="s">
         <v>479</v>
@@ -6704,10 +6704,10 @@
         <v>478</v>
       </c>
       <c r="E202" t="s">
+        <v>478</v>
+      </c>
+      <c r="F202" t="s">
         <v>479</v>
-      </c>
-      <c r="F202" t="s">
-        <v>478</v>
       </c>
       <c r="G202" t="s">
         <v>479</v>
@@ -6727,10 +6727,10 @@
         <v>478</v>
       </c>
       <c r="E203" t="s">
+        <v>478</v>
+      </c>
+      <c r="F203" t="s">
         <v>479</v>
-      </c>
-      <c r="F203" t="s">
-        <v>478</v>
       </c>
       <c r="G203" t="s">
         <v>479</v>
@@ -6750,10 +6750,10 @@
         <v>478</v>
       </c>
       <c r="E204" t="s">
+        <v>478</v>
+      </c>
+      <c r="F204" t="s">
         <v>479</v>
-      </c>
-      <c r="F204" t="s">
-        <v>478</v>
       </c>
       <c r="G204" t="s">
         <v>479</v>
@@ -6773,10 +6773,10 @@
         <v>478</v>
       </c>
       <c r="E205" t="s">
+        <v>478</v>
+      </c>
+      <c r="F205" t="s">
         <v>479</v>
-      </c>
-      <c r="F205" t="s">
-        <v>478</v>
       </c>
       <c r="G205" t="s">
         <v>479</v>
@@ -6796,10 +6796,10 @@
         <v>492</v>
       </c>
       <c r="E206" t="s">
+        <v>492</v>
+      </c>
+      <c r="F206" t="s">
         <v>493</v>
-      </c>
-      <c r="F206" t="s">
-        <v>492</v>
       </c>
       <c r="G206" t="s">
         <v>493</v>
@@ -6819,10 +6819,10 @@
         <v>492</v>
       </c>
       <c r="E207" t="s">
+        <v>492</v>
+      </c>
+      <c r="F207" t="s">
         <v>493</v>
-      </c>
-      <c r="F207" t="s">
-        <v>492</v>
       </c>
       <c r="G207" t="s">
         <v>493</v>
@@ -6842,10 +6842,10 @@
         <v>492</v>
       </c>
       <c r="E208" t="s">
+        <v>492</v>
+      </c>
+      <c r="F208" t="s">
         <v>493</v>
-      </c>
-      <c r="F208" t="s">
-        <v>492</v>
       </c>
       <c r="G208" t="s">
         <v>493</v>
@@ -6865,10 +6865,10 @@
         <v>492</v>
       </c>
       <c r="E209" t="s">
+        <v>492</v>
+      </c>
+      <c r="F209" t="s">
         <v>493</v>
-      </c>
-      <c r="F209" t="s">
-        <v>492</v>
       </c>
       <c r="G209" t="s">
         <v>493</v>
@@ -6888,10 +6888,10 @@
         <v>492</v>
       </c>
       <c r="E210" t="s">
+        <v>492</v>
+      </c>
+      <c r="F210" t="s">
         <v>493</v>
-      </c>
-      <c r="F210" t="s">
-        <v>492</v>
       </c>
       <c r="G210" t="s">
         <v>493</v>
@@ -6911,10 +6911,10 @@
         <v>492</v>
       </c>
       <c r="E211" t="s">
+        <v>492</v>
+      </c>
+      <c r="F211" t="s">
         <v>493</v>
-      </c>
-      <c r="F211" t="s">
-        <v>492</v>
       </c>
       <c r="G211" t="s">
         <v>493</v>
@@ -6934,10 +6934,10 @@
         <v>492</v>
       </c>
       <c r="E212" t="s">
+        <v>492</v>
+      </c>
+      <c r="F212" t="s">
         <v>493</v>
-      </c>
-      <c r="F212" t="s">
-        <v>492</v>
       </c>
       <c r="G212" t="s">
         <v>493</v>
@@ -6957,10 +6957,10 @@
         <v>492</v>
       </c>
       <c r="E213" t="s">
+        <v>492</v>
+      </c>
+      <c r="F213" t="s">
         <v>493</v>
-      </c>
-      <c r="F213" t="s">
-        <v>492</v>
       </c>
       <c r="G213" t="s">
         <v>493</v>
@@ -6980,10 +6980,10 @@
         <v>492</v>
       </c>
       <c r="E214" t="s">
+        <v>492</v>
+      </c>
+      <c r="F214" t="s">
         <v>493</v>
-      </c>
-      <c r="F214" t="s">
-        <v>492</v>
       </c>
       <c r="G214" t="s">
         <v>493</v>
@@ -7003,10 +7003,10 @@
         <v>492</v>
       </c>
       <c r="E215" t="s">
+        <v>492</v>
+      </c>
+      <c r="F215" t="s">
         <v>493</v>
-      </c>
-      <c r="F215" t="s">
-        <v>492</v>
       </c>
       <c r="G215" t="s">
         <v>493</v>
@@ -7026,10 +7026,10 @@
         <v>514</v>
       </c>
       <c r="E216" t="s">
+        <v>514</v>
+      </c>
+      <c r="F216" t="s">
         <v>515</v>
-      </c>
-      <c r="F216" t="s">
-        <v>514</v>
       </c>
       <c r="G216" t="s">
         <v>515</v>
@@ -7049,10 +7049,10 @@
         <v>518</v>
       </c>
       <c r="E217" t="s">
+        <v>518</v>
+      </c>
+      <c r="F217" t="s">
         <v>519</v>
-      </c>
-      <c r="F217" t="s">
-        <v>518</v>
       </c>
       <c r="G217" t="s">
         <v>519</v>
@@ -7072,10 +7072,10 @@
         <v>522</v>
       </c>
       <c r="E218" t="s">
+        <v>522</v>
+      </c>
+      <c r="F218" t="s">
         <v>523</v>
-      </c>
-      <c r="F218" t="s">
-        <v>522</v>
       </c>
       <c r="G218" t="s">
         <v>523</v>
@@ -7095,10 +7095,10 @@
         <v>522</v>
       </c>
       <c r="E219" t="s">
+        <v>522</v>
+      </c>
+      <c r="F219" t="s">
         <v>523</v>
-      </c>
-      <c r="F219" t="s">
-        <v>522</v>
       </c>
       <c r="G219" t="s">
         <v>523</v>
@@ -7118,10 +7118,10 @@
         <v>528</v>
       </c>
       <c r="E220" t="s">
+        <v>528</v>
+      </c>
+      <c r="F220" t="s">
         <v>529</v>
-      </c>
-      <c r="F220" t="s">
-        <v>528</v>
       </c>
       <c r="G220" t="s">
         <v>529</v>
@@ -7141,10 +7141,10 @@
         <v>528</v>
       </c>
       <c r="E221" t="s">
+        <v>528</v>
+      </c>
+      <c r="F221" t="s">
         <v>529</v>
-      </c>
-      <c r="F221" t="s">
-        <v>528</v>
       </c>
       <c r="G221" t="s">
         <v>529</v>
@@ -7164,10 +7164,10 @@
         <v>528</v>
       </c>
       <c r="E222" t="s">
+        <v>528</v>
+      </c>
+      <c r="F222" t="s">
         <v>529</v>
-      </c>
-      <c r="F222" t="s">
-        <v>528</v>
       </c>
       <c r="G222" t="s">
         <v>529</v>
@@ -7187,10 +7187,10 @@
         <v>528</v>
       </c>
       <c r="E223" t="s">
+        <v>528</v>
+      </c>
+      <c r="F223" t="s">
         <v>529</v>
-      </c>
-      <c r="F223" t="s">
-        <v>528</v>
       </c>
       <c r="G223" t="s">
         <v>529</v>
@@ -7210,10 +7210,10 @@
         <v>528</v>
       </c>
       <c r="E224" t="s">
+        <v>528</v>
+      </c>
+      <c r="F224" t="s">
         <v>529</v>
-      </c>
-      <c r="F224" t="s">
-        <v>528</v>
       </c>
       <c r="G224" t="s">
         <v>529</v>
@@ -7233,10 +7233,10 @@
         <v>528</v>
       </c>
       <c r="E225" t="s">
+        <v>528</v>
+      </c>
+      <c r="F225" t="s">
         <v>529</v>
-      </c>
-      <c r="F225" t="s">
-        <v>528</v>
       </c>
       <c r="G225" t="s">
         <v>529</v>
@@ -7256,10 +7256,10 @@
         <v>528</v>
       </c>
       <c r="E226" t="s">
+        <v>528</v>
+      </c>
+      <c r="F226" t="s">
         <v>529</v>
-      </c>
-      <c r="F226" t="s">
-        <v>528</v>
       </c>
       <c r="G226" t="s">
         <v>529</v>
@@ -7279,10 +7279,10 @@
         <v>544</v>
       </c>
       <c r="E227" t="s">
+        <v>544</v>
+      </c>
+      <c r="F227" t="s">
         <v>545</v>
-      </c>
-      <c r="F227" t="s">
-        <v>544</v>
       </c>
       <c r="G227" t="s">
         <v>545</v>
@@ -7302,10 +7302,10 @@
         <v>544</v>
       </c>
       <c r="E228" t="s">
+        <v>544</v>
+      </c>
+      <c r="F228" t="s">
         <v>545</v>
-      </c>
-      <c r="F228" t="s">
-        <v>544</v>
       </c>
       <c r="G228" t="s">
         <v>545</v>
@@ -7325,10 +7325,10 @@
         <v>544</v>
       </c>
       <c r="E229" t="s">
+        <v>544</v>
+      </c>
+      <c r="F229" t="s">
         <v>545</v>
-      </c>
-      <c r="F229" t="s">
-        <v>544</v>
       </c>
       <c r="G229" t="s">
         <v>545</v>
@@ -7348,10 +7348,10 @@
         <v>552</v>
       </c>
       <c r="E230" t="s">
+        <v>552</v>
+      </c>
+      <c r="F230" t="s">
         <v>553</v>
-      </c>
-      <c r="F230" t="s">
-        <v>552</v>
       </c>
       <c r="G230" t="s">
         <v>553</v>
@@ -7371,10 +7371,10 @@
         <v>556</v>
       </c>
       <c r="E231" t="s">
+        <v>556</v>
+      </c>
+      <c r="F231" t="s">
         <v>557</v>
-      </c>
-      <c r="F231" t="s">
-        <v>556</v>
       </c>
       <c r="G231" t="s">
         <v>557</v>
@@ -7394,10 +7394,10 @@
         <v>560</v>
       </c>
       <c r="E232" t="s">
+        <v>560</v>
+      </c>
+      <c r="F232" t="s">
         <v>561</v>
-      </c>
-      <c r="F232" t="s">
-        <v>560</v>
       </c>
       <c r="G232" t="s">
         <v>561</v>
@@ -7417,10 +7417,10 @@
         <v>564</v>
       </c>
       <c r="E233" t="s">
+        <v>564</v>
+      </c>
+      <c r="F233" t="s">
         <v>565</v>
-      </c>
-      <c r="F233" t="s">
-        <v>564</v>
       </c>
       <c r="G233" t="s">
         <v>565</v>
@@ -7440,10 +7440,10 @@
         <v>568</v>
       </c>
       <c r="E234" t="s">
+        <v>568</v>
+      </c>
+      <c r="F234" t="s">
         <v>569</v>
-      </c>
-      <c r="F234" t="s">
-        <v>568</v>
       </c>
       <c r="G234" t="s">
         <v>569</v>
@@ -7463,10 +7463,10 @@
         <v>568</v>
       </c>
       <c r="E235" t="s">
+        <v>568</v>
+      </c>
+      <c r="F235" t="s">
         <v>569</v>
-      </c>
-      <c r="F235" t="s">
-        <v>568</v>
       </c>
       <c r="G235" t="s">
         <v>569</v>
